--- a/results/main results.xlsx
+++ b/results/main results.xlsx
@@ -37,7 +37,7 @@
     <t>Risk to well-being</t>
   </si>
   <si>
-    <t>variable</t>
+    <t>province</t>
   </si>
   <si>
     <t>Abra</t>
@@ -552,7 +552,7 @@
         <v>12.3542760343149</v>
       </c>
       <c r="G2">
-        <v>56.4487762869027</v>
+        <v>56.4487762869028</v>
       </c>
       <c r="H2">
         <v>1.05030132522472</v>
@@ -578,10 +578,10 @@
         <v>19.0246526288616</v>
       </c>
       <c r="G3">
-        <v>71.1554849401367</v>
+        <v>71.1554561011253</v>
       </c>
       <c r="H3">
-        <v>2.71257591015073</v>
+        <v>2.71257700954651</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -604,10 +604,10 @@
         <v>19.3274885113575</v>
       </c>
       <c r="G4">
-        <v>46.2601882654681</v>
+        <v>46.2601694974381</v>
       </c>
       <c r="H4">
-        <v>1.42944755230304</v>
+        <v>1.42944813223854</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -630,10 +630,10 @@
         <v>11.4280955450113</v>
       </c>
       <c r="G5">
-        <v>49.9669276027868</v>
+        <v>49.9669072976144</v>
       </c>
       <c r="H5">
-        <v>0.0350580422961485</v>
+        <v>0.0350580565427695</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -656,10 +656,10 @@
         <v>13.5340971531749</v>
       </c>
       <c r="G6">
-        <v>115.140107252555</v>
+        <v>115.140061304395</v>
       </c>
       <c r="H6">
-        <v>0.0111508731404941</v>
+        <v>0.011150877590397</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -708,10 +708,10 @@
         <v>17.6900982320819</v>
       </c>
       <c r="G8">
-        <v>159.836516588457</v>
+        <v>159.836453667011</v>
       </c>
       <c r="H8">
-        <v>0.0584595999937008</v>
+        <v>0.0584596230069901</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -734,10 +734,10 @@
         <v>16.3789618368886</v>
       </c>
       <c r="G9">
-        <v>88.4269608589902</v>
+        <v>88.4269251464404</v>
       </c>
       <c r="H9">
-        <v>0.670349387059165</v>
+        <v>0.670349657789893</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -838,10 +838,10 @@
         <v>11.9179611300511</v>
       </c>
       <c r="G13">
-        <v>60.4682656155541</v>
+        <v>60.4682410526263</v>
       </c>
       <c r="H13">
-        <v>0.31780689922237</v>
+        <v>0.31780702831936</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -893,7 +893,7 @@
         <v>91.2533649563676</v>
       </c>
       <c r="H15">
-        <v>0.0937912953777412</v>
+        <v>0.0937912953777413</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -916,10 +916,10 @@
         <v>15.4860991439121</v>
       </c>
       <c r="G16">
-        <v>79.1532168613415</v>
+        <v>79.1531849342535</v>
       </c>
       <c r="H16">
-        <v>0.531805192792151</v>
+        <v>0.531805407300148</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -942,10 +942,10 @@
         <v>12.560453410512</v>
       </c>
       <c r="G17">
-        <v>81.836201432517</v>
+        <v>81.8361682004438</v>
       </c>
       <c r="H17">
-        <v>0.436126910203904</v>
+        <v>0.436127087306544</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -994,10 +994,10 @@
         <v>17.494307609482</v>
       </c>
       <c r="G19">
-        <v>160.10401288279</v>
+        <v>160.103949693835</v>
       </c>
       <c r="H19">
-        <v>0.0128010068287568</v>
+        <v>0.0128010118809884</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1020,10 +1020,10 @@
         <v>14.7794884761301</v>
       </c>
       <c r="G20">
-        <v>56.4182923094284</v>
+        <v>56.4182694545532</v>
       </c>
       <c r="H20">
-        <v>0.0916889273800019</v>
+        <v>0.0916889645229171</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1072,10 +1072,10 @@
         <v>18.7472822849751</v>
       </c>
       <c r="G22">
-        <v>38.641274725933</v>
+        <v>38.6412590669579</v>
       </c>
       <c r="H22">
-        <v>1.08191495497958</v>
+        <v>1.08191539341456</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1098,10 +1098,10 @@
         <v>21.8666401622943</v>
       </c>
       <c r="G23">
-        <v>62.197497257106</v>
+        <v>62.1974972571059</v>
       </c>
       <c r="H23">
-        <v>0.286692667832625</v>
+        <v>0.286692667832626</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1124,10 +1124,10 @@
         <v>18.8434159310574</v>
       </c>
       <c r="G24">
-        <v>45.4479996338573</v>
+        <v>45.447981227574</v>
       </c>
       <c r="H24">
-        <v>1.16451578757652</v>
+        <v>1.16451625920159</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1150,10 +1150,10 @@
         <v>13.7990459180758</v>
       </c>
       <c r="G25">
-        <v>80.2718941096182</v>
+        <v>80.2718618166791</v>
       </c>
       <c r="H25">
-        <v>0.849222984495302</v>
+        <v>0.849223326133149</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1202,10 +1202,10 @@
         <v>18.0309637494649</v>
       </c>
       <c r="G27">
-        <v>145.830407499626</v>
+        <v>145.830349571603</v>
       </c>
       <c r="H27">
-        <v>0.531792984492738</v>
+        <v>0.531793195736255</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1228,10 +1228,10 @@
         <v>15.864112064591</v>
       </c>
       <c r="G28">
-        <v>90.9790467926886</v>
+        <v>90.9790104236762</v>
       </c>
       <c r="H28">
-        <v>0.49096411657131</v>
+        <v>0.490964312835041</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1306,10 +1306,10 @@
         <v>18.9102127960899</v>
       </c>
       <c r="G31">
-        <v>48.3390052305057</v>
+        <v>48.3389856254683</v>
       </c>
       <c r="H31">
-        <v>0.669902990822573</v>
+        <v>0.669903262517831</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1358,10 +1358,10 @@
         <v>19.8441372337534</v>
       </c>
       <c r="G33">
-        <v>80.5288919177318</v>
+        <v>80.5288594217874</v>
       </c>
       <c r="H33">
-        <v>0.11761266393149</v>
+        <v>0.117612711391923</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1384,10 +1384,10 @@
         <v>20.9233755484781</v>
       </c>
       <c r="G34">
-        <v>41.6520266759384</v>
+        <v>41.6520097788857</v>
       </c>
       <c r="H34">
-        <v>1.30813095695796</v>
+        <v>1.30813148763002</v>
       </c>
     </row>
     <row r="35" spans="1:8">

--- a/results/main results.xlsx
+++ b/results/main results.xlsx
@@ -546,16 +546,16 @@
         <v>10.57</v>
       </c>
       <c r="E2">
-        <v>16.41</v>
+        <v>19.3660239309531</v>
       </c>
       <c r="F2">
         <v>12.3542760343149</v>
       </c>
       <c r="G2">
-        <v>56.4487762869028</v>
+        <v>56.4246557170697</v>
       </c>
       <c r="H2">
-        <v>1.05030132522472</v>
+        <v>1.24002776769199</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -572,16 +572,16 @@
         <v>9.41</v>
       </c>
       <c r="E3">
-        <v>31.8</v>
+        <v>32.3115930649242</v>
       </c>
       <c r="F3">
         <v>19.0246526288616</v>
       </c>
       <c r="G3">
-        <v>71.1554561011253</v>
+        <v>71.1491096173724</v>
       </c>
       <c r="H3">
-        <v>2.71257700954651</v>
+        <v>2.75646234724735</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -598,16 +598,16 @@
         <v>8.61</v>
       </c>
       <c r="E4">
-        <v>11.46</v>
+        <v>12.1487339167937</v>
       </c>
       <c r="F4">
         <v>19.3274885113575</v>
       </c>
       <c r="G4">
-        <v>46.2601694974381</v>
+        <v>46.2554251789948</v>
       </c>
       <c r="H4">
-        <v>1.42944813223854</v>
+        <v>1.51551188462199</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -676,16 +676,16 @@
         <v>9.82</v>
       </c>
       <c r="E7">
-        <v>2.39</v>
+        <v>2.55244410098195</v>
       </c>
       <c r="F7">
         <v>15.3161084807299</v>
       </c>
       <c r="G7">
-        <v>50.9264122039948</v>
+        <v>50.9253433843927</v>
       </c>
       <c r="H7">
-        <v>0.195224853328228</v>
+        <v>0.208498319480921</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -702,16 +702,16 @@
         <v>6.51</v>
       </c>
       <c r="E8">
-        <v>1.01</v>
+        <v>1.08160773776441</v>
       </c>
       <c r="F8">
         <v>17.6900982320819</v>
       </c>
       <c r="G8">
-        <v>159.836453667011</v>
+        <v>159.834098987101</v>
       </c>
       <c r="H8">
-        <v>0.0584596230069901</v>
+        <v>0.0626052595076097</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -728,16 +728,16 @@
         <v>9.34</v>
       </c>
       <c r="E9">
-        <v>10.17</v>
+        <v>11.4508287546717</v>
       </c>
       <c r="F9">
         <v>16.3789618368886</v>
       </c>
       <c r="G9">
-        <v>88.4269251464404</v>
+        <v>88.4059258706094</v>
       </c>
       <c r="H9">
-        <v>0.670349657789893</v>
+        <v>0.75495402656921</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -754,16 +754,16 @@
         <v>15.36</v>
       </c>
       <c r="E10">
-        <v>8.97</v>
+        <v>10.6882507036427</v>
       </c>
       <c r="F10">
         <v>19.6891213289496</v>
       </c>
       <c r="G10">
-        <v>57.3946151717926</v>
+        <v>57.3765946510106</v>
       </c>
       <c r="H10">
-        <v>0.561172598681047</v>
+        <v>0.668878174634346</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -780,16 +780,16 @@
         <v>15.94</v>
       </c>
       <c r="E11">
-        <v>12.11</v>
+        <v>13.4822442765145</v>
       </c>
       <c r="F11">
         <v>21.3320830679287</v>
       </c>
       <c r="G11">
-        <v>80.8474962778747</v>
+        <v>80.822234425004</v>
       </c>
       <c r="H11">
-        <v>0.647552100470366</v>
+        <v>0.721154780964922</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -806,16 +806,16 @@
         <v>7.9</v>
       </c>
       <c r="E12">
-        <v>1.84</v>
+        <v>2.09171913182225</v>
       </c>
       <c r="F12">
         <v>17.9598631377796</v>
       </c>
       <c r="G12">
-        <v>63.6212892177703</v>
+        <v>63.6180566319126</v>
       </c>
       <c r="H12">
-        <v>0.199562857187958</v>
+        <v>0.226875357049624</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -832,16 +832,16 @@
         <v>10.64</v>
       </c>
       <c r="E13">
-        <v>5.71</v>
+        <v>7.14184929086677</v>
       </c>
       <c r="F13">
         <v>11.9179611300511</v>
       </c>
       <c r="G13">
-        <v>60.4682410526263</v>
+        <v>60.4552559663563</v>
       </c>
       <c r="H13">
-        <v>0.31780702831936</v>
+        <v>0.397586236678635</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -858,16 +858,16 @@
         <v>48.14</v>
       </c>
       <c r="E14">
-        <v>5.99</v>
+        <v>7.96029094711111</v>
       </c>
       <c r="F14">
         <v>19.0727718841027</v>
       </c>
       <c r="G14">
-        <v>111.875327329784</v>
+        <v>111.832173558297</v>
       </c>
       <c r="H14">
-        <v>0.0735952667205882</v>
+        <v>0.0978407010214374</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -884,16 +884,16 @@
         <v>27.75</v>
       </c>
       <c r="E15">
-        <v>4.13</v>
+        <v>4.95424749782809</v>
       </c>
       <c r="F15">
         <v>17.0994571605574</v>
       </c>
       <c r="G15">
-        <v>91.2533649563676</v>
+        <v>91.2398287305991</v>
       </c>
       <c r="H15">
-        <v>0.0937912953777413</v>
+        <v>0.112526447360513</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -910,16 +910,16 @@
         <v>10.29</v>
       </c>
       <c r="E16">
-        <v>8.59</v>
+        <v>9.90883240205773</v>
       </c>
       <c r="F16">
         <v>15.4860991439121</v>
       </c>
       <c r="G16">
-        <v>79.1531849342535</v>
+        <v>79.1350533711568</v>
       </c>
       <c r="H16">
-        <v>0.531805407300148</v>
+        <v>0.613594647819945</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -936,16 +936,16 @@
         <v>7.5</v>
       </c>
       <c r="E17">
-        <v>6.58</v>
+        <v>6.89787302636999</v>
       </c>
       <c r="F17">
         <v>12.560453410512</v>
       </c>
       <c r="G17">
-        <v>81.8361682004438</v>
+        <v>81.8326142577399</v>
       </c>
       <c r="H17">
-        <v>0.436127087306544</v>
+        <v>0.4572157936862</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -962,16 +962,16 @@
         <v>23.79</v>
       </c>
       <c r="E18">
-        <v>1.83</v>
+        <v>1.9752706239993</v>
       </c>
       <c r="F18">
         <v>15.7277107693199</v>
       </c>
       <c r="G18">
-        <v>108.714798700709</v>
+        <v>108.712219396557</v>
       </c>
       <c r="H18">
-        <v>0.0373759676001572</v>
+        <v>0.0403439357801364</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -988,16 +988,16 @@
         <v>8.78</v>
       </c>
       <c r="E19">
-        <v>0.31</v>
+        <v>1.94359723892004</v>
       </c>
       <c r="F19">
         <v>17.494307609482</v>
       </c>
       <c r="G19">
-        <v>160.103949693835</v>
+        <v>159.98439860285</v>
       </c>
       <c r="H19">
-        <v>0.0128010118809884</v>
+        <v>0.0803180753654274</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1014,16 +1014,16 @@
         <v>8.09</v>
       </c>
       <c r="E20">
-        <v>1.06</v>
+        <v>1.10171660765841</v>
       </c>
       <c r="F20">
         <v>14.7794884761301</v>
       </c>
       <c r="G20">
-        <v>56.4182694545532</v>
+        <v>56.4179707284158</v>
       </c>
       <c r="H20">
-        <v>0.0916889645229171</v>
+        <v>0.0952979149218019</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1066,16 +1066,16 @@
         <v>7.23</v>
       </c>
       <c r="E22">
-        <v>7.57</v>
+        <v>8.05543022049837</v>
       </c>
       <c r="F22">
         <v>18.7472822849751</v>
       </c>
       <c r="G22">
-        <v>38.6412590669579</v>
+        <v>38.639548748505</v>
       </c>
       <c r="H22">
-        <v>1.08191539341456</v>
+        <v>1.15134474568339</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1092,16 +1092,16 @@
         <v>14.13</v>
       </c>
       <c r="E23">
-        <v>3.72</v>
+        <v>4.06009105428833</v>
       </c>
       <c r="F23">
         <v>21.8666401622943</v>
       </c>
       <c r="G23">
-        <v>62.1974972571059</v>
+        <v>62.1929400577247</v>
       </c>
       <c r="H23">
-        <v>0.286692667832626</v>
+        <v>0.312925706503849</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1118,16 +1118,16 @@
         <v>8.5</v>
       </c>
       <c r="E24">
-        <v>10.15</v>
+        <v>10.3087541506696</v>
       </c>
       <c r="F24">
         <v>18.8434159310574</v>
       </c>
       <c r="G24">
-        <v>45.447981227574</v>
+        <v>45.4471516020832</v>
       </c>
       <c r="H24">
-        <v>1.16451625920159</v>
+        <v>1.18275181904848</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1144,16 +1144,16 @@
         <v>9.92</v>
       </c>
       <c r="E25">
-        <v>15.36</v>
+        <v>16.2740549278997</v>
       </c>
       <c r="F25">
         <v>13.7990459180758</v>
       </c>
       <c r="G25">
-        <v>80.2718618166791</v>
+        <v>80.2616579862731</v>
       </c>
       <c r="H25">
-        <v>0.849223326133149</v>
+        <v>0.89987396222228</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1170,16 +1170,16 @@
         <v>14.25</v>
       </c>
       <c r="E26">
-        <v>19.14</v>
+        <v>20.5481514883504</v>
       </c>
       <c r="F26">
         <v>15.1640680968814</v>
       </c>
       <c r="G26">
-        <v>107.19882891523</v>
+        <v>107.17562240175</v>
       </c>
       <c r="H26">
-        <v>0.63138716050234</v>
+        <v>0.677985800420298</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1196,16 +1196,16 @@
         <v>8.49</v>
       </c>
       <c r="E27">
-        <v>10.74</v>
+        <v>11.4710898977279</v>
       </c>
       <c r="F27">
         <v>18.0309637494649</v>
       </c>
       <c r="G27">
-        <v>145.830349571603</v>
+        <v>145.80986674202</v>
       </c>
       <c r="H27">
-        <v>0.531793195736255</v>
+        <v>0.568073044269495</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1222,16 +1222,16 @@
         <v>17.58</v>
       </c>
       <c r="E28">
-        <v>14.88</v>
+        <v>15.9950720733092</v>
       </c>
       <c r="F28">
         <v>15.864112064591</v>
       </c>
       <c r="G28">
-        <v>90.9790104236762</v>
+        <v>90.9624477341969</v>
       </c>
       <c r="H28">
-        <v>0.490964312835041</v>
+        <v>0.527852114685842</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1248,16 +1248,16 @@
         <v>17.61</v>
       </c>
       <c r="E29">
-        <v>1.28</v>
+        <v>1.31130411886539</v>
       </c>
       <c r="F29">
         <v>13.0151706655587</v>
       </c>
       <c r="G29">
-        <v>83.6512410199405</v>
+        <v>83.6509358975027</v>
       </c>
       <c r="H29">
-        <v>0.0348457283189586</v>
+        <v>0.0356980576086593</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1274,16 +1274,16 @@
         <v>16.23</v>
       </c>
       <c r="E30">
-        <v>2.22</v>
+        <v>2.50363275666084</v>
       </c>
       <c r="F30">
         <v>16.6492927866418</v>
       </c>
       <c r="G30">
-        <v>199.799874290204</v>
+        <v>199.790698543052</v>
       </c>
       <c r="H30">
-        <v>0.0378822553243466</v>
+        <v>0.0427241491771618</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1300,16 +1300,16 @@
         <v>11.87</v>
       </c>
       <c r="E31">
-        <v>7.94</v>
+        <v>8.05880367762796</v>
       </c>
       <c r="F31">
         <v>18.9102127960899</v>
       </c>
       <c r="G31">
-        <v>48.3389856254683</v>
+        <v>48.3382214399045</v>
       </c>
       <c r="H31">
-        <v>0.669903262517831</v>
+        <v>0.679937559589286</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1352,16 +1352,16 @@
         <v>6.51</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>1.00511483841174</v>
       </c>
       <c r="F33">
         <v>19.8441372337534</v>
       </c>
       <c r="G33">
-        <v>80.5288594217874</v>
+        <v>80.5287841121349</v>
       </c>
       <c r="H33">
-        <v>0.117612711391923</v>
+        <v>0.118214391958584</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1378,16 +1378,16 @@
         <v>7.14</v>
       </c>
       <c r="E34">
-        <v>7.46</v>
+        <v>7.77823614913313</v>
       </c>
       <c r="F34">
         <v>20.9233755484781</v>
       </c>
       <c r="G34">
-        <v>41.6520097788857</v>
+        <v>41.6501167170211</v>
       </c>
       <c r="H34">
-        <v>1.30813148763002</v>
+        <v>1.36399706330909</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1404,16 +1404,16 @@
         <v>10.72</v>
       </c>
       <c r="E35">
-        <v>11.91</v>
+        <v>12.7264646138699</v>
       </c>
       <c r="F35">
         <v>15.0902424084879</v>
       </c>
       <c r="G35">
-        <v>100.583608114062</v>
+        <v>100.57090441306</v>
       </c>
       <c r="H35">
-        <v>0.549604048710921</v>
+        <v>0.58735516338987</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1430,16 +1430,16 @@
         <v>15.31</v>
       </c>
       <c r="E36">
-        <v>4.31</v>
+        <v>4.85739375472713</v>
       </c>
       <c r="F36">
         <v>22.7758768190175</v>
       </c>
       <c r="G36">
-        <v>69.5414014816487</v>
+        <v>69.5327489128583</v>
       </c>
       <c r="H36">
-        <v>0.290603912289294</v>
+        <v>0.327552966036586</v>
       </c>
     </row>
   </sheetData>

--- a/results/main results.xlsx
+++ b/results/main results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve"> Average income in the province</t>
   </si>
@@ -25,10 +25,16 @@
     <t xml:space="preserve"> Hazard (protection)</t>
   </si>
   <si>
-    <t>Exposure</t>
-  </si>
-  <si>
-    <t>Vulnerability without early warning</t>
+    <t>Exposure, poor people</t>
+  </si>
+  <si>
+    <t>Exposure, non-poor people</t>
+  </si>
+  <si>
+    <t>Asset vulnerability (poor people)</t>
+  </si>
+  <si>
+    <t>Asset vulnerability (non-poor people)</t>
   </si>
   <si>
     <t>Socio-economic capacity</t>
@@ -500,15 +506,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -531,10 +537,16 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>133.688</v>
@@ -546,21 +558,27 @@
         <v>10.57</v>
       </c>
       <c r="E2">
-        <v>19.3660239309531</v>
+        <v>22.2709275205961</v>
       </c>
       <c r="F2">
-        <v>12.3542760343149</v>
+        <v>17.6335096604643</v>
       </c>
       <c r="G2">
-        <v>56.4246557170697</v>
+        <v>15.2463285068896</v>
       </c>
       <c r="H2">
-        <v>1.24002776769199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>75.1829916026878</v>
+      </c>
+      <c r="J2">
+        <v>1.55646412528839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>179.014</v>
@@ -572,21 +590,27 @@
         <v>9.41</v>
       </c>
       <c r="E3">
-        <v>32.3115930649242</v>
+        <v>37.1583320246628</v>
       </c>
       <c r="F3">
-        <v>19.0246526288616</v>
+        <v>29.7393040328347</v>
       </c>
       <c r="G3">
-        <v>71.1491096173724</v>
+        <v>36.3700034477779</v>
       </c>
       <c r="H3">
-        <v>2.75646234724735</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>79.7353503966536</v>
+      </c>
+      <c r="J3">
+        <v>3.30685847178952</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>126.492</v>
@@ -598,21 +622,27 @@
         <v>8.61</v>
       </c>
       <c r="E4">
-        <v>12.1487339167937</v>
+        <v>13.9710440043128</v>
       </c>
       <c r="F4">
-        <v>19.3274885113575</v>
+        <v>10.4613024935837</v>
       </c>
       <c r="G4">
-        <v>46.2554251789948</v>
+        <v>29.0165593367945</v>
       </c>
       <c r="H4">
-        <v>1.51551188462199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>56.1630386775849</v>
+      </c>
+      <c r="J4">
+        <v>2.07793020290394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>158.732</v>
@@ -624,21 +654,27 @@
         <v>6.51</v>
       </c>
       <c r="E5">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="F5">
-        <v>11.4280955450113</v>
+        <v>0.304693688066755</v>
       </c>
       <c r="G5">
-        <v>49.9669072976144</v>
+        <v>13.1939161763218</v>
       </c>
       <c r="H5">
-        <v>0.0350580565427695</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>71.2496732637461</v>
+      </c>
+      <c r="J5">
+        <v>0.0486244079857629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>219.272</v>
@@ -650,21 +686,27 @@
         <v>7.73</v>
       </c>
       <c r="E6">
-        <v>0.23</v>
+        <v>0.2645</v>
       </c>
       <c r="F6">
-        <v>13.5340971531749</v>
+        <v>0.221888963667484</v>
       </c>
       <c r="G6">
-        <v>115.140061304395</v>
+        <v>23.0356790840862</v>
       </c>
       <c r="H6">
-        <v>0.011150877590397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>143.221300306026</v>
+      </c>
+      <c r="J6">
+        <v>0.0133920570990175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>145.749</v>
@@ -676,21 +718,27 @@
         <v>9.82</v>
       </c>
       <c r="E7">
-        <v>2.55244410098195</v>
+        <v>2.93531071612924</v>
       </c>
       <c r="F7">
-        <v>15.3161084807299</v>
+        <v>2.1845799395281</v>
       </c>
       <c r="G7">
-        <v>50.9253433843927</v>
+        <v>22.1694207791634</v>
       </c>
       <c r="H7">
-        <v>0.208498319480921</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>63.2524027580958</v>
+      </c>
+      <c r="J7">
+        <v>0.291115179156782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>253.279</v>
@@ -702,21 +750,27 @@
         <v>6.51</v>
       </c>
       <c r="E8">
-        <v>1.08160773776441</v>
+        <v>1.24384889842907</v>
       </c>
       <c r="F8">
-        <v>17.6900982320819</v>
+        <v>1.06881492470657</v>
       </c>
       <c r="G8">
-        <v>159.834098987101</v>
+        <v>41.8673134826198</v>
       </c>
       <c r="H8">
-        <v>0.0626052595076097</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>10.4395897258309</v>
+      </c>
+      <c r="I8">
+        <v>191.226776325474</v>
+      </c>
+      <c r="J8">
+        <v>0.0586168150176135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>179.424</v>
@@ -728,21 +782,27 @@
         <v>9.34</v>
       </c>
       <c r="E9">
-        <v>11.4508287546717</v>
+        <v>13.1684530678724</v>
       </c>
       <c r="F9">
-        <v>16.3789618368886</v>
+        <v>11.029222045276</v>
       </c>
       <c r="G9">
-        <v>88.4059258706094</v>
+        <v>29.4633115961937</v>
       </c>
       <c r="H9">
-        <v>0.75495402656921</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>101.874554000675</v>
+      </c>
+      <c r="J9">
+        <v>0.819512727560968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>152.074</v>
@@ -754,21 +814,27 @@
         <v>15.36</v>
       </c>
       <c r="E10">
-        <v>10.6882507036427</v>
+        <v>12.2914883091891</v>
       </c>
       <c r="F10">
-        <v>19.6891213289496</v>
+        <v>9.5666083772646</v>
       </c>
       <c r="G10">
-        <v>57.3765946510106</v>
+        <v>33.8661767479629</v>
       </c>
       <c r="H10">
-        <v>0.668878174634346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>67.1899542930178</v>
+      </c>
+      <c r="J10">
+        <v>0.836887591655869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>177.386</v>
@@ -780,21 +846,27 @@
         <v>15.94</v>
       </c>
       <c r="E11">
-        <v>13.4822442765145</v>
+        <v>15.5045809179917</v>
       </c>
       <c r="F11">
-        <v>21.3320830679287</v>
+        <v>12.7049561859472</v>
       </c>
       <c r="G11">
-        <v>80.822234425004</v>
+        <v>37.536961186832</v>
       </c>
       <c r="H11">
-        <v>0.721154780964922</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>13.063852224195</v>
+      </c>
+      <c r="I11">
+        <v>96.5409522283178</v>
+      </c>
+      <c r="J11">
+        <v>0.801320978702004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>156.283</v>
@@ -806,21 +878,27 @@
         <v>7.9</v>
       </c>
       <c r="E12">
-        <v>2.09171913182225</v>
+        <v>2.40547700159559</v>
       </c>
       <c r="F12">
-        <v>17.9598631377796</v>
+        <v>1.93413830291244</v>
       </c>
       <c r="G12">
-        <v>63.6180566319126</v>
+        <v>30.6435266609834</v>
       </c>
       <c r="H12">
-        <v>0.226875357049624</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>72.0347924187506</v>
+      </c>
+      <c r="J12">
+        <v>0.274576543988225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>149.062</v>
@@ -832,21 +910,27 @@
         <v>10.64</v>
       </c>
       <c r="E13">
-        <v>7.14184929086677</v>
+        <v>8.21312668449679</v>
       </c>
       <c r="F13">
-        <v>11.9179611300511</v>
+        <v>6.35173736056213</v>
       </c>
       <c r="G13">
-        <v>60.4552559663563</v>
+        <v>14.6174762523903</v>
       </c>
       <c r="H13">
-        <v>0.397586236678635</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>81.4628496831763</v>
+      </c>
+      <c r="J13">
+        <v>0.512846863630275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>192.382</v>
@@ -858,21 +942,27 @@
         <v>48.14</v>
       </c>
       <c r="E14">
-        <v>7.96029094711111</v>
+        <v>9.15433458917778</v>
       </c>
       <c r="F14">
-        <v>19.0727718841027</v>
+        <v>7.8293585360055</v>
       </c>
       <c r="G14">
-        <v>111.832173558297</v>
+        <v>37.6494276892936</v>
       </c>
       <c r="H14">
-        <v>0.0978407010214374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>11.069009836215</v>
+      </c>
+      <c r="I14">
+        <v>138.007218501744</v>
+      </c>
+      <c r="J14">
+        <v>0.0872163307808523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>175.91</v>
@@ -884,21 +974,27 @@
         <v>27.75</v>
       </c>
       <c r="E15">
-        <v>4.95424749782809</v>
+        <v>5.69738462250231</v>
       </c>
       <c r="F15">
-        <v>17.0994571605574</v>
+        <v>4.79890201058604</v>
       </c>
       <c r="G15">
-        <v>91.2398287305991</v>
+        <v>31.3748032009296</v>
       </c>
       <c r="H15">
-        <v>0.112526447360513</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>110.689598385586</v>
+      </c>
+      <c r="J15">
+        <v>0.110033647286979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>169.871</v>
@@ -910,21 +1006,27 @@
         <v>10.29</v>
       </c>
       <c r="E16">
-        <v>9.90883240205773</v>
+        <v>11.3951572623664</v>
       </c>
       <c r="F16">
-        <v>15.4860991439121</v>
+        <v>9.42989583353871</v>
       </c>
       <c r="G16">
-        <v>79.1350533711568</v>
+        <v>25.7401509648132</v>
       </c>
       <c r="H16">
-        <v>0.613594647819945</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>93.2031154427546</v>
+      </c>
+      <c r="J16">
+        <v>0.703163175058067</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>170.385</v>
@@ -936,21 +1038,27 @@
         <v>7.5</v>
       </c>
       <c r="E17">
-        <v>6.89787302636999</v>
+        <v>7.93255398032548</v>
       </c>
       <c r="F17">
-        <v>12.560453410512</v>
+        <v>6.51967692084141</v>
       </c>
       <c r="G17">
-        <v>81.8326142577399</v>
+        <v>17.3222304410523</v>
       </c>
       <c r="H17">
-        <v>0.4572157936862</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>106.521624349302</v>
+      </c>
+      <c r="J17">
+        <v>0.550975509022513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>206.399</v>
@@ -962,21 +1070,27 @@
         <v>23.79</v>
       </c>
       <c r="E18">
-        <v>1.9752706239993</v>
+        <v>2.2715612175992</v>
       </c>
       <c r="F18">
-        <v>15.7277107693199</v>
+        <v>1.90802973192671</v>
       </c>
       <c r="G18">
-        <v>108.712219396557</v>
+        <v>29.9801918728384</v>
       </c>
       <c r="H18">
-        <v>0.0403439357801364</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>131.608113378751</v>
+      </c>
+      <c r="J18">
+        <v>0.0422089228075164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>249.092</v>
@@ -988,21 +1102,27 @@
         <v>8.78</v>
       </c>
       <c r="E19">
-        <v>1.94359723892004</v>
+        <v>2.23513682475805</v>
       </c>
       <c r="F19">
-        <v>17.494307609482</v>
+        <v>1.92368476980292</v>
       </c>
       <c r="G19">
-        <v>159.98439860285</v>
+        <v>40.0677709602969</v>
       </c>
       <c r="H19">
-        <v>0.0803180753654274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>10.5971668934738</v>
+      </c>
+      <c r="I19">
+        <v>195.424997209117</v>
+      </c>
+      <c r="J19">
+        <v>0.077007797950321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>164.672</v>
@@ -1014,21 +1134,27 @@
         <v>8.09</v>
       </c>
       <c r="E20">
-        <v>1.10171660765841</v>
+        <v>1.26697409880717</v>
       </c>
       <c r="F20">
-        <v>14.7794884761301</v>
+        <v>0.942551704195964</v>
       </c>
       <c r="G20">
-        <v>56.4179707284158</v>
+        <v>22.1544883688664</v>
       </c>
       <c r="H20">
-        <v>0.0952979149218019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>70.2784935504147</v>
+      </c>
+      <c r="J20">
+        <v>0.133309798085049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>131.981</v>
@@ -1040,21 +1166,27 @@
         <v>10.34</v>
       </c>
       <c r="E21">
-        <v>5.06</v>
+        <v>5.819</v>
       </c>
       <c r="F21">
-        <v>19.0609444875137</v>
+        <v>2.92559619824276</v>
       </c>
       <c r="G21">
-        <v>34.7955778122064</v>
+        <v>24.4783044022428</v>
       </c>
       <c r="H21">
-        <v>0.328121316117259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>39.6643490328256</v>
+      </c>
+      <c r="J21">
+        <v>0.922094080716499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>140.218</v>
@@ -1066,21 +1198,27 @@
         <v>7.23</v>
       </c>
       <c r="E22">
-        <v>8.05543022049837</v>
+        <v>9.26374475357312</v>
       </c>
       <c r="F22">
-        <v>18.7472822849751</v>
+        <v>6.32247566275061</v>
       </c>
       <c r="G22">
-        <v>38.639548748505</v>
+        <v>28.127287626786</v>
       </c>
       <c r="H22">
-        <v>1.15134474568339</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>47.8597069688333</v>
+      </c>
+      <c r="J22">
+        <v>1.87910204241408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>145.959</v>
@@ -1092,21 +1230,27 @@
         <v>14.13</v>
       </c>
       <c r="E23">
-        <v>4.06009105428833</v>
+        <v>4.66910471243158</v>
       </c>
       <c r="F23">
-        <v>21.8666401622943</v>
+        <v>3.76909162168267</v>
       </c>
       <c r="G23">
-        <v>62.1929400577247</v>
+        <v>35.7654244532121</v>
       </c>
       <c r="H23">
-        <v>0.312925706503849</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>12.2579410501458</v>
+      </c>
+      <c r="I23">
+        <v>75.1327372787753</v>
+      </c>
+      <c r="J23">
+        <v>0.348581340707299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>136.889</v>
@@ -1118,21 +1262,27 @@
         <v>8.5</v>
       </c>
       <c r="E24">
-        <v>10.3087541506696</v>
+        <v>11.8550672732701</v>
       </c>
       <c r="F24">
-        <v>18.8434159310574</v>
+        <v>8.60950902519667</v>
       </c>
       <c r="G24">
-        <v>45.4471516020832</v>
+        <v>28.8353730420083</v>
       </c>
       <c r="H24">
-        <v>1.18275181904848</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>55.5039011464904</v>
+      </c>
+      <c r="J24">
+        <v>1.77736614293347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>169.592</v>
@@ -1144,21 +1294,27 @@
         <v>9.92</v>
       </c>
       <c r="E25">
-        <v>16.2740549278997</v>
+        <v>18.7151631670846</v>
       </c>
       <c r="F25">
-        <v>13.7990459180758</v>
+        <v>15.4518327134671</v>
       </c>
       <c r="G25">
-        <v>80.2616579862731</v>
+        <v>20.8612015839051</v>
       </c>
       <c r="H25">
-        <v>0.89987396222228</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>101.04032379541</v>
+      </c>
+      <c r="J25">
+        <v>1.06611049569636</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>214.169</v>
@@ -1170,21 +1326,27 @@
         <v>14.25</v>
       </c>
       <c r="E26">
-        <v>20.5481514883504</v>
+        <v>23.630374211603</v>
       </c>
       <c r="F26">
-        <v>15.1640680968814</v>
+        <v>19.7450352096992</v>
       </c>
       <c r="G26">
-        <v>107.17562240175</v>
+        <v>28.5573966207095</v>
       </c>
       <c r="H26">
-        <v>0.677985800420298</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>123.330849624189</v>
+      </c>
+      <c r="J26">
+        <v>0.779238761029491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>235.621</v>
@@ -1196,21 +1358,27 @@
         <v>8.49</v>
       </c>
       <c r="E27">
-        <v>11.4710898977279</v>
+        <v>13.1917533823871</v>
       </c>
       <c r="F27">
-        <v>18.0309637494649</v>
+        <v>11.3299454972311</v>
       </c>
       <c r="G27">
-        <v>145.80986674202</v>
+        <v>41.2615084591602</v>
       </c>
       <c r="H27">
-        <v>0.568073044269495</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>10.3966925918505</v>
+      </c>
+      <c r="I27">
+        <v>174.236608337867</v>
+      </c>
+      <c r="J27">
+        <v>0.523405744510119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>182.388</v>
@@ -1222,21 +1390,27 @@
         <v>17.58</v>
       </c>
       <c r="E28">
-        <v>15.9950720733092</v>
+        <v>18.3943328843056</v>
       </c>
       <c r="F28">
-        <v>15.864112064591</v>
+        <v>15.3812539629078</v>
       </c>
       <c r="G28">
-        <v>90.9624477341969</v>
+        <v>28.1410282253697</v>
       </c>
       <c r="H28">
-        <v>0.527852114685842</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>111.91154184398</v>
+      </c>
+      <c r="J28">
+        <v>0.549739219333778</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>179.092</v>
@@ -1248,21 +1422,27 @@
         <v>17.61</v>
       </c>
       <c r="E29">
-        <v>1.31130411886539</v>
+        <v>1.5079997366952</v>
       </c>
       <c r="F29">
-        <v>13.0151706655587</v>
+        <v>1.23653705180482</v>
       </c>
       <c r="G29">
-        <v>83.6509358975027</v>
+        <v>19.0092306563477</v>
       </c>
       <c r="H29">
-        <v>0.0356980576086593</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>106.821592180453</v>
+      </c>
+      <c r="J29">
+        <v>0.0449670311961865</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>294.404</v>
@@ -1274,21 +1454,27 @@
         <v>16.23</v>
       </c>
       <c r="E30">
-        <v>2.50363275666084</v>
+        <v>2.87917767015997</v>
       </c>
       <c r="F30">
-        <v>16.6492927866418</v>
+        <v>2.47924740891148</v>
       </c>
       <c r="G30">
-        <v>199.790698543052</v>
+        <v>40.7993142799703</v>
       </c>
       <c r="H30">
-        <v>0.0427241491771618</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>10.6425721398091</v>
+      </c>
+      <c r="I30">
+        <v>243.898686506192</v>
+      </c>
+      <c r="J30">
+        <v>0.0428811436081932</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>134.968</v>
@@ -1300,21 +1486,27 @@
         <v>11.87</v>
       </c>
       <c r="E31">
-        <v>8.05880367762796</v>
+        <v>9.26762422927215</v>
       </c>
       <c r="F31">
-        <v>18.9102127960899</v>
+        <v>6.84867302200992</v>
       </c>
       <c r="G31">
-        <v>48.3382214399045</v>
+        <v>29.0019172186821</v>
       </c>
       <c r="H31">
-        <v>0.679937559589286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>59.1009483492337</v>
+      </c>
+      <c r="J31">
+        <v>0.935019465712449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>107.685</v>
@@ -1326,21 +1518,27 @@
         <v>23.94</v>
       </c>
       <c r="E32">
-        <v>0.05</v>
+        <v>0.0575</v>
       </c>
       <c r="F32">
-        <v>20.6431281028406</v>
+        <v>0.0414913493520872</v>
       </c>
       <c r="G32">
-        <v>39.0335607718267</v>
+        <v>28.5538860754928</v>
       </c>
       <c r="H32">
-        <v>0.00257656949298164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>46.925854195331</v>
+      </c>
+      <c r="J32">
+        <v>0.00396810518502108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>191.360000000001</v>
@@ -1352,21 +1550,27 @@
         <v>6.51</v>
       </c>
       <c r="E33">
-        <v>1.00511483841174</v>
+        <v>1.15588206417351</v>
       </c>
       <c r="F33">
-        <v>19.8441372337534</v>
+        <v>0.934225826639033</v>
       </c>
       <c r="G33">
-        <v>80.5287841121349</v>
+        <v>34.9683979732136</v>
       </c>
       <c r="H33">
-        <v>0.118214391958584</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>12.7583396548576</v>
+      </c>
+      <c r="I33">
+        <v>93.4470460179474</v>
+      </c>
+      <c r="J33">
+        <v>0.146011279970418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>113.736</v>
@@ -1378,21 +1582,27 @@
         <v>7.14</v>
       </c>
       <c r="E34">
-        <v>7.77823614913313</v>
+        <v>8.9449715715031</v>
       </c>
       <c r="F34">
-        <v>20.9233755484781</v>
+        <v>6.68059193122331</v>
       </c>
       <c r="G34">
-        <v>41.6501167170211</v>
+        <v>30.343632332348</v>
       </c>
       <c r="H34">
-        <v>1.36399706330909</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>49.7503231676702</v>
+      </c>
+      <c r="J34">
+        <v>1.93058097801387</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>190.392</v>
@@ -1404,21 +1614,27 @@
         <v>10.72</v>
       </c>
       <c r="E35">
-        <v>12.7264646138699</v>
+        <v>14.6354343059504</v>
       </c>
       <c r="F35">
-        <v>15.0902424084879</v>
+        <v>12.3476788908042</v>
       </c>
       <c r="G35">
-        <v>100.57090441306</v>
+        <v>26.52806518946</v>
       </c>
       <c r="H35">
-        <v>0.58735516338987</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>122.727110766257</v>
+      </c>
+      <c r="J35">
+        <v>0.63729268341886</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>168.131</v>
@@ -1430,16 +1646,22 @@
         <v>15.31</v>
       </c>
       <c r="E36">
-        <v>4.85739375472713</v>
+        <v>5.5860028179362</v>
       </c>
       <c r="F36">
-        <v>22.7758768190175</v>
+        <v>4.51406553503674</v>
       </c>
       <c r="G36">
-        <v>69.5327489128583</v>
+        <v>40.3643010697264</v>
       </c>
       <c r="H36">
-        <v>0.327552966036586</v>
+        <v>12.9130326981283</v>
+      </c>
+      <c r="I36">
+        <v>78.3911350579756</v>
+      </c>
+      <c r="J36">
+        <v>0.384079334147517</v>
       </c>
     </row>
   </sheetData>

--- a/results/main results.xlsx
+++ b/results/main results.xlsx
@@ -570,10 +570,10 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>75.1829916026878</v>
+        <v>75.1462663191585</v>
       </c>
       <c r="J2">
-        <v>1.55646412528839</v>
+        <v>1.55722479629847</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -602,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="I3">
-        <v>79.7353503966536</v>
+        <v>79.6216285207426</v>
       </c>
       <c r="J3">
-        <v>3.30685847178952</v>
+        <v>3.31158158730186</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -634,10 +634,10 @@
         <v>10</v>
       </c>
       <c r="I4">
-        <v>56.1630386775849</v>
+        <v>56.1052257849643</v>
       </c>
       <c r="J4">
-        <v>2.07793020290394</v>
+        <v>2.08007137877504</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -666,10 +666,10 @@
         <v>10</v>
       </c>
       <c r="I5">
-        <v>71.2496732637461</v>
+        <v>71.2337330660548</v>
       </c>
       <c r="J5">
-        <v>0.0486244079857629</v>
+        <v>0.0486352888232896</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -698,10 +698,10 @@
         <v>10</v>
       </c>
       <c r="I6">
-        <v>143.221300306026</v>
+        <v>141.854641333976</v>
       </c>
       <c r="J6">
-        <v>0.0133920570990175</v>
+        <v>0.013521079137468</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -730,10 +730,10 @@
         <v>10</v>
       </c>
       <c r="I7">
-        <v>63.2524027580958</v>
+        <v>63.1062038401126</v>
       </c>
       <c r="J7">
-        <v>0.291115179156782</v>
+        <v>0.291789609270009</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -762,10 +762,10 @@
         <v>10.4395897258309</v>
       </c>
       <c r="I8">
-        <v>191.226776325474</v>
+        <v>188.219825891876</v>
       </c>
       <c r="J8">
-        <v>0.0586168150176135</v>
+        <v>0.0595532618371669</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -794,10 +794,10 @@
         <v>10</v>
       </c>
       <c r="I9">
-        <v>101.874554000675</v>
+        <v>101.551650880561</v>
       </c>
       <c r="J9">
-        <v>0.819512727560968</v>
+        <v>0.822118526820828</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -826,10 +826,10 @@
         <v>10</v>
       </c>
       <c r="I10">
-        <v>67.1899542930178</v>
+        <v>66.960752521907</v>
       </c>
       <c r="J10">
-        <v>0.836887591655869</v>
+        <v>0.839752196831348</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -858,10 +858,10 @@
         <v>13.063852224195</v>
       </c>
       <c r="I11">
-        <v>96.5409522283178</v>
+        <v>96.3562346117991</v>
       </c>
       <c r="J11">
-        <v>0.801320978702004</v>
+        <v>0.802857133594821</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -890,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="I12">
-        <v>72.0347924187506</v>
+        <v>71.8956773591612</v>
       </c>
       <c r="J12">
-        <v>0.274576543988225</v>
+        <v>0.275107837852916</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -922,10 +922,10 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>81.4628496831763</v>
+        <v>81.4273712488175</v>
       </c>
       <c r="J13">
-        <v>0.512846863630275</v>
+        <v>0.513070314338659</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -954,10 +954,10 @@
         <v>11.069009836215</v>
       </c>
       <c r="I14">
-        <v>138.007218501744</v>
+        <v>137.709128756234</v>
       </c>
       <c r="J14">
-        <v>0.0872163307808523</v>
+        <v>0.0874051221419011</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -986,10 +986,10 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>110.689598385586</v>
+        <v>110.467077747115</v>
       </c>
       <c r="J15">
-        <v>0.110033647286979</v>
+        <v>0.110255294839778</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1018,10 +1018,10 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>93.2031154427546</v>
+        <v>92.8438539549242</v>
       </c>
       <c r="J16">
-        <v>0.703163175058067</v>
+        <v>0.705884081587664</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1050,10 +1050,10 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>106.521624349302</v>
+        <v>106.457886299716</v>
       </c>
       <c r="J17">
-        <v>0.550975509022513</v>
+        <v>0.551305386925744</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1082,10 +1082,10 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>131.608113378751</v>
+        <v>131.252765187473</v>
       </c>
       <c r="J18">
-        <v>0.0422089228075164</v>
+        <v>0.0423231974618751</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1114,10 +1114,10 @@
         <v>10.5971668934738</v>
       </c>
       <c r="I19">
-        <v>195.424997209117</v>
+        <v>192.534034632102</v>
       </c>
       <c r="J19">
-        <v>0.077007797950321</v>
+        <v>0.0781640956534163</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1146,10 +1146,10 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>70.2784935504147</v>
+        <v>70.1490824051907</v>
       </c>
       <c r="J20">
-        <v>0.133309798085049</v>
+        <v>0.133555728224807</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1178,10 +1178,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>39.6643490328256</v>
+        <v>39.6234039312315</v>
       </c>
       <c r="J21">
-        <v>0.922094080716499</v>
+        <v>0.92304693261887</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1210,10 +1210,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>47.8597069688333</v>
+        <v>47.7808316406414</v>
       </c>
       <c r="J22">
-        <v>1.87910204241408</v>
+        <v>1.88220401417163</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1242,10 +1242,10 @@
         <v>12.2579410501458</v>
       </c>
       <c r="I23">
-        <v>75.1327372787753</v>
+        <v>74.6798802362905</v>
       </c>
       <c r="J23">
-        <v>0.348581340707299</v>
+        <v>0.350695129782999</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1274,10 +1274,10 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <v>55.5039011464904</v>
+        <v>55.3966597621795</v>
       </c>
       <c r="J24">
-        <v>1.77736614293347</v>
+        <v>1.78080691366611</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1306,10 +1306,10 @@
         <v>10</v>
       </c>
       <c r="I25">
-        <v>101.04032379541</v>
+        <v>100.485010215626</v>
       </c>
       <c r="J25">
-        <v>1.06611049569636</v>
+        <v>1.07200217679924</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1338,10 +1338,10 @@
         <v>10</v>
       </c>
       <c r="I26">
-        <v>123.330849624189</v>
+        <v>123.152754651869</v>
       </c>
       <c r="J26">
-        <v>0.779238761029491</v>
+        <v>0.780365642080336</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1370,10 +1370,10 @@
         <v>10.3966925918505</v>
       </c>
       <c r="I27">
-        <v>174.236608337867</v>
+        <v>172.250682255626</v>
       </c>
       <c r="J27">
-        <v>0.523405744510119</v>
+        <v>0.529440235090973</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1402,10 +1402,10 @@
         <v>10</v>
       </c>
       <c r="I28">
-        <v>111.91154184398</v>
+        <v>110.95202401016</v>
       </c>
       <c r="J28">
-        <v>0.549739219333778</v>
+        <v>0.554493387539422</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1434,10 +1434,10 @@
         <v>10</v>
       </c>
       <c r="I29">
-        <v>106.821592180453</v>
+        <v>106.190546551591</v>
       </c>
       <c r="J29">
-        <v>0.0449670311961865</v>
+        <v>0.0452342512962872</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1466,10 +1466,10 @@
         <v>10.6425721398091</v>
       </c>
       <c r="I30">
-        <v>243.898686506192</v>
+        <v>239.660419263113</v>
       </c>
       <c r="J30">
-        <v>0.0428811436081932</v>
+        <v>0.0436394738608865</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1498,10 +1498,10 @@
         <v>10</v>
       </c>
       <c r="I31">
-        <v>59.1009483492337</v>
+        <v>59.029802043471</v>
       </c>
       <c r="J31">
-        <v>0.935019465712449</v>
+        <v>0.936146408011064</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1530,10 +1530,10 @@
         <v>10</v>
       </c>
       <c r="I32">
-        <v>46.925854195331</v>
+        <v>46.8949546215255</v>
       </c>
       <c r="J32">
-        <v>0.00396810518502108</v>
+        <v>0.00397071981083791</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1562,10 +1562,10 @@
         <v>12.7583396548576</v>
       </c>
       <c r="I33">
-        <v>93.4470460179474</v>
+        <v>93.1114324321849</v>
       </c>
       <c r="J33">
-        <v>0.146011279970418</v>
+        <v>0.1465375673226</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1594,10 +1594,10 @@
         <v>10</v>
       </c>
       <c r="I34">
-        <v>49.7503231676702</v>
+        <v>49.6978416062788</v>
       </c>
       <c r="J34">
-        <v>1.93058097801387</v>
+        <v>1.93261969641378</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1626,10 +1626,10 @@
         <v>10</v>
       </c>
       <c r="I35">
-        <v>122.727110766257</v>
+        <v>122.191832817456</v>
       </c>
       <c r="J35">
-        <v>0.63729268341886</v>
+        <v>0.640084430727178</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1658,10 +1658,10 @@
         <v>12.9130326981283</v>
       </c>
       <c r="I36">
-        <v>78.3911350579756</v>
+        <v>78.0860652064569</v>
       </c>
       <c r="J36">
-        <v>0.384079334147517</v>
+        <v>0.385579871088775</v>
       </c>
     </row>
   </sheetData>

--- a/results/main results.xlsx
+++ b/results/main results.xlsx
@@ -570,10 +570,10 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>75.1462663191585</v>
+        <v>23.1511747803615</v>
       </c>
       <c r="J2">
-        <v>1.55722479629847</v>
+        <v>1.8232262330376</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -602,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="I3">
-        <v>79.6216285207426</v>
+        <v>27.7841054166842</v>
       </c>
       <c r="J3">
-        <v>3.31158158730186</v>
+        <v>3.67586877252204</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -634,10 +634,10 @@
         <v>10</v>
       </c>
       <c r="I4">
-        <v>56.1052257849643</v>
+        <v>27.8978769637742</v>
       </c>
       <c r="J4">
-        <v>2.08007137877504</v>
+        <v>2.12896401709342</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -666,10 +666,10 @@
         <v>10</v>
       </c>
       <c r="I5">
-        <v>71.2337330660548</v>
+        <v>23.2060687120442</v>
       </c>
       <c r="J5">
-        <v>0.0486352888232896</v>
+        <v>0.0513751951507797</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -698,10 +698,10 @@
         <v>10</v>
       </c>
       <c r="I6">
-        <v>141.854641333976</v>
+        <v>23.1597393418199</v>
       </c>
       <c r="J6">
-        <v>0.013521079137468</v>
+        <v>0.0181623905797748</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -730,10 +730,10 @@
         <v>10</v>
       </c>
       <c r="I7">
-        <v>63.1062038401126</v>
+        <v>25.2253161552259</v>
       </c>
       <c r="J7">
-        <v>0.291789609270009</v>
+        <v>0.30685949856096</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -762,10 +762,10 @@
         <v>10.4395897258309</v>
       </c>
       <c r="I8">
-        <v>188.219825891876</v>
+        <v>23.035223601421</v>
       </c>
       <c r="J8">
-        <v>0.0595532618371669</v>
+        <v>0.0924700467254258</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -794,10 +794,10 @@
         <v>10</v>
       </c>
       <c r="I9">
-        <v>101.551650880561</v>
+        <v>23.9550165497589</v>
       </c>
       <c r="J9">
-        <v>0.822118526820828</v>
+        <v>1.04787929348623</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -826,10 +826,10 @@
         <v>10</v>
       </c>
       <c r="I10">
-        <v>66.960752521907</v>
+        <v>28.4852055188304</v>
       </c>
       <c r="J10">
-        <v>0.839752196831348</v>
+        <v>0.892474827269342</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -858,10 +858,10 @@
         <v>13.063852224195</v>
       </c>
       <c r="I11">
-        <v>96.3562346117991</v>
+        <v>26.1802576946596</v>
       </c>
       <c r="J11">
-        <v>0.802857133594821</v>
+        <v>0.986513801716296</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -890,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="I12">
-        <v>71.8956773591612</v>
+        <v>25.6450355186613</v>
       </c>
       <c r="J12">
-        <v>0.275107837852916</v>
+        <v>0.304561266503803</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -922,10 +922,10 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>81.4273712488175</v>
+        <v>23.1837081749526</v>
       </c>
       <c r="J13">
-        <v>0.513070314338659</v>
+        <v>0.598218379352504</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -954,10 +954,10 @@
         <v>11.069009836215</v>
       </c>
       <c r="I14">
-        <v>137.709128756234</v>
+        <v>23.9158963433021</v>
       </c>
       <c r="J14">
-        <v>0.0874051221419011</v>
+        <v>0.12937502648062</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -986,10 +986,10 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>110.467077747115</v>
+        <v>25.2172314633355</v>
       </c>
       <c r="J15">
-        <v>0.110255294839778</v>
+        <v>0.146527849823559</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1018,10 +1018,10 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>92.8438539549242</v>
+        <v>23.9569320411407</v>
       </c>
       <c r="J16">
-        <v>0.705884081587664</v>
+        <v>0.869270393679826</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1050,10 +1050,10 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>106.457886299716</v>
+        <v>23.1813416831984</v>
       </c>
       <c r="J17">
-        <v>0.551305386925744</v>
+        <v>0.717174021306985</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1082,10 +1082,10 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>131.252765187473</v>
+        <v>25.225645714368</v>
       </c>
       <c r="J18">
-        <v>0.0423231974618751</v>
+        <v>0.058059819466429</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1114,10 +1114,10 @@
         <v>10.5971668934738</v>
       </c>
       <c r="I19">
-        <v>192.534034632102</v>
+        <v>22.4818337811525</v>
       </c>
       <c r="J19">
-        <v>0.0781640956534163</v>
+        <v>0.121681516043834</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1146,10 +1146,10 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>70.1490824051907</v>
+        <v>25.2450805658719</v>
       </c>
       <c r="J20">
-        <v>0.133555728224807</v>
+        <v>0.142187649251257</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1178,10 +1178,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>39.6234039312315</v>
+        <v>25.603783288591</v>
       </c>
       <c r="J21">
-        <v>0.92304693261887</v>
+        <v>0.869441415322593</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1210,10 +1210,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>47.7808316406414</v>
+        <v>25.5475125984656</v>
       </c>
       <c r="J22">
-        <v>1.88220401417163</v>
+        <v>1.86734238657689</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1242,10 +1242,10 @@
         <v>12.2579410501458</v>
       </c>
       <c r="I23">
-        <v>74.6798802362905</v>
+        <v>26.8638456424321</v>
       </c>
       <c r="J23">
-        <v>0.350695129782999</v>
+        <v>0.399231224757671</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1274,10 +1274,10 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <v>55.3966597621795</v>
+        <v>27.3954066957</v>
       </c>
       <c r="J24">
-        <v>1.78080691366611</v>
+        <v>1.7655211140341</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1306,10 +1306,10 @@
         <v>10</v>
       </c>
       <c r="I25">
-        <v>100.485010215626</v>
+        <v>23.5547760029462</v>
       </c>
       <c r="J25">
-        <v>1.07200217679924</v>
+        <v>1.34025465896809</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1338,10 +1338,10 @@
         <v>10</v>
       </c>
       <c r="I26">
-        <v>123.152754651869</v>
+        <v>23.9622314801731</v>
       </c>
       <c r="J26">
-        <v>0.780365642080336</v>
+        <v>1.03221995578255</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1370,10 +1370,10 @@
         <v>10.3966925918505</v>
       </c>
       <c r="I27">
-        <v>172.250682255626</v>
+        <v>23.0785173165416</v>
       </c>
       <c r="J27">
-        <v>0.529440235090973</v>
+        <v>0.807221211348433</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1402,10 +1402,10 @@
         <v>10</v>
       </c>
       <c r="I28">
-        <v>110.95202401016</v>
+        <v>25.1054801683171</v>
       </c>
       <c r="J28">
-        <v>0.554493387539422</v>
+        <v>0.723429036654579</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1434,10 +1434,10 @@
         <v>10</v>
       </c>
       <c r="I29">
-        <v>106.190546551591</v>
+        <v>23.1798351985417</v>
       </c>
       <c r="J29">
-        <v>0.0452342512962872</v>
+        <v>0.0556031061026929</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1466,10 +1466,10 @@
         <v>10.6425721398091</v>
       </c>
       <c r="I30">
-        <v>239.660419263113</v>
+        <v>22.4458364265214</v>
       </c>
       <c r="J30">
-        <v>0.0436394738608865</v>
+        <v>0.0718199623189655</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1498,10 +1498,10 @@
         <v>10</v>
       </c>
       <c r="I31">
-        <v>59.029802043471</v>
+        <v>28.6712172419366</v>
       </c>
       <c r="J31">
-        <v>0.936146408011064</v>
+        <v>0.979913578329546</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1530,10 +1530,10 @@
         <v>10</v>
       </c>
       <c r="I32">
-        <v>46.8949546215255</v>
+        <v>27.4672053505425</v>
       </c>
       <c r="J32">
-        <v>0.00397071981083791</v>
+        <v>0.0038548557695904</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1562,10 +1562,10 @@
         <v>12.7583396548576</v>
       </c>
       <c r="I33">
-        <v>93.1114324321849</v>
+        <v>25.1690860366873</v>
       </c>
       <c r="J33">
-        <v>0.1465375673226</v>
+        <v>0.171611068059265</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1594,10 +1594,10 @@
         <v>10</v>
       </c>
       <c r="I34">
-        <v>49.6978416062788</v>
+        <v>27.4167075593253</v>
       </c>
       <c r="J34">
-        <v>1.93261969641378</v>
+        <v>1.90722365429393</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1626,10 +1626,10 @@
         <v>10</v>
       </c>
       <c r="I35">
-        <v>122.191832817456</v>
+        <v>23.5766198378968</v>
       </c>
       <c r="J35">
-        <v>0.640084430727178</v>
+        <v>0.863118276532203</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1658,10 +1658,10 @@
         <v>12.9130326981283</v>
       </c>
       <c r="I36">
-        <v>78.0860652064569</v>
+        <v>25.8544358555419</v>
       </c>
       <c r="J36">
-        <v>0.385579871088775</v>
+        <v>0.442576094234484</v>
       </c>
     </row>
   </sheetData>

--- a/results/main results.xlsx
+++ b/results/main results.xlsx
@@ -570,10 +570,10 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>23.1511747803615</v>
+        <v>68.8088485414686</v>
       </c>
       <c r="J2">
-        <v>1.8232262330376</v>
+        <v>1.37636293020071</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -602,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="I3">
-        <v>27.7841054166842</v>
+        <v>76.2393369099718</v>
       </c>
       <c r="J3">
-        <v>3.67586877252204</v>
+        <v>2.89042048217911</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -634,10 +634,10 @@
         <v>10</v>
       </c>
       <c r="I4">
-        <v>27.8978769637742</v>
+        <v>53.5058780289657</v>
       </c>
       <c r="J4">
-        <v>2.12896401709342</v>
+        <v>1.82286152615669</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -666,10 +666,10 @@
         <v>10</v>
       </c>
       <c r="I5">
-        <v>23.2060687120442</v>
+        <v>65.1196250282816</v>
       </c>
       <c r="J5">
-        <v>0.0513751951507797</v>
+        <v>0.0430570084599718</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -698,10 +698,10 @@
         <v>10</v>
       </c>
       <c r="I6">
-        <v>23.1597393418199</v>
+        <v>130.239094175276</v>
       </c>
       <c r="J6">
-        <v>0.0181623905797748</v>
+        <v>0.0114363588269259</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -730,10 +730,10 @@
         <v>10</v>
       </c>
       <c r="I7">
-        <v>25.2253161552259</v>
+        <v>59.9027816003588</v>
       </c>
       <c r="J7">
-        <v>0.30685949856096</v>
+        <v>0.254854614473707</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -762,10 +762,10 @@
         <v>10.4395897258309</v>
       </c>
       <c r="I8">
-        <v>23.035223601421</v>
+        <v>174.394572287613</v>
       </c>
       <c r="J8">
-        <v>0.0924700467254258</v>
+        <v>0.0513751402997716</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -794,10 +794,10 @@
         <v>10</v>
       </c>
       <c r="I9">
-        <v>23.9550165497589</v>
+        <v>95.7190425333085</v>
       </c>
       <c r="J9">
-        <v>1.04787929348623</v>
+        <v>0.715936799481044</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -826,10 +826,10 @@
         <v>10</v>
       </c>
       <c r="I10">
-        <v>28.4852055188304</v>
+        <v>64.0761237823329</v>
       </c>
       <c r="J10">
-        <v>0.892474827269342</v>
+        <v>0.737147723653262</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -858,10 +858,10 @@
         <v>13.063852224195</v>
       </c>
       <c r="I11">
-        <v>26.1802576946596</v>
+        <v>90.7743402070683</v>
       </c>
       <c r="J11">
-        <v>0.986513801716296</v>
+        <v>0.711949475665127</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -890,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="I12">
-        <v>25.6450355186613</v>
+        <v>68.6347293718318</v>
       </c>
       <c r="J12">
-        <v>0.304561266503803</v>
+        <v>0.238497180719832</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -922,10 +922,10 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>23.1837081749526</v>
+        <v>74.5496670554051</v>
       </c>
       <c r="J13">
-        <v>0.598218379352504</v>
+        <v>0.45354473899707</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -954,10 +954,10 @@
         <v>11.069009836215</v>
       </c>
       <c r="I14">
-        <v>23.9158963433021</v>
+        <v>127.226698069123</v>
       </c>
       <c r="J14">
-        <v>0.12937502648062</v>
+        <v>0.077831565311732</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -986,10 +986,10 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>25.2172314633355</v>
+        <v>102.69382914028</v>
       </c>
       <c r="J15">
-        <v>0.146527849823559</v>
+        <v>0.0975713646128026</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1018,10 +1018,10 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>23.9569320411407</v>
+        <v>87.4199904204734</v>
       </c>
       <c r="J16">
-        <v>0.869270393679826</v>
+        <v>0.615357363498423</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1050,10 +1050,10 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>23.1813416831984</v>
+        <v>97.6439967885795</v>
       </c>
       <c r="J17">
-        <v>0.717174021306985</v>
+        <v>0.48645544297466</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1082,10 +1082,10 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>25.225645714368</v>
+        <v>122.134674104081</v>
       </c>
       <c r="J18">
-        <v>0.058059819466429</v>
+        <v>0.0374181542255685</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1114,10 +1114,10 @@
         <v>10.5971668934738</v>
       </c>
       <c r="I19">
-        <v>22.4818337811525</v>
+        <v>176.551295615766</v>
       </c>
       <c r="J19">
-        <v>0.121681516043834</v>
+        <v>0.066193926886424</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1146,10 +1146,10 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>25.2450805658719</v>
+        <v>66.6072730427029</v>
       </c>
       <c r="J20">
-        <v>0.142187649251257</v>
+        <v>0.116616626279725</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1178,10 +1178,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>25.603783288591</v>
+        <v>38.569217916996</v>
       </c>
       <c r="J21">
-        <v>0.869441415322593</v>
+        <v>0.822724871710023</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1210,10 +1210,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>25.5475125984656</v>
+        <v>46.5946122751741</v>
       </c>
       <c r="J22">
-        <v>1.86734238657689</v>
+        <v>1.67457495501539</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1242,10 +1242,10 @@
         <v>12.2579410501458</v>
       </c>
       <c r="I23">
-        <v>26.8638456424321</v>
+        <v>70.5199710452451</v>
       </c>
       <c r="J23">
-        <v>0.399231224757671</v>
+        <v>0.310252583596808</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1274,10 +1274,10 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <v>27.3954066957</v>
+        <v>52.9553224441374</v>
       </c>
       <c r="J24">
-        <v>1.7655211140341</v>
+        <v>1.53451306486949</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1306,10 +1306,10 @@
         <v>10</v>
       </c>
       <c r="I25">
-        <v>23.5547760029462</v>
+        <v>92.7204760333975</v>
       </c>
       <c r="J25">
-        <v>1.34025465896809</v>
+        <v>0.928616422288391</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1338,10 +1338,10 @@
         <v>10</v>
       </c>
       <c r="I26">
-        <v>23.9622314801731</v>
+        <v>116.159677748139</v>
       </c>
       <c r="J26">
-        <v>1.03221995578255</v>
+        <v>0.679107427447446</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1370,10 +1370,10 @@
         <v>10.3966925918505</v>
       </c>
       <c r="I27">
-        <v>23.0785173165416</v>
+        <v>159.443500953347</v>
       </c>
       <c r="J27">
-        <v>0.807221211348433</v>
+        <v>0.457178855250181</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1402,10 +1402,10 @@
         <v>10</v>
       </c>
       <c r="I28">
-        <v>25.1054801683171</v>
+        <v>103.229184167326</v>
       </c>
       <c r="J28">
-        <v>0.723429036654579</v>
+        <v>0.490301827183283</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1434,10 +1434,10 @@
         <v>10</v>
       </c>
       <c r="I29">
-        <v>23.1798351985417</v>
+        <v>97.1684707462559</v>
       </c>
       <c r="J29">
-        <v>0.0556031061026929</v>
+        <v>0.0383885872937012</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1466,10 +1466,10 @@
         <v>10.6425721398091</v>
       </c>
       <c r="I30">
-        <v>22.4458364265214</v>
+        <v>220.078240584589</v>
       </c>
       <c r="J30">
-        <v>0.0718199623189655</v>
+        <v>0.0369039582945241</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1498,10 +1498,10 @@
         <v>10</v>
       </c>
       <c r="I31">
-        <v>28.6712172419366</v>
+        <v>56.5861491156952</v>
       </c>
       <c r="J31">
-        <v>0.979913578329546</v>
+        <v>0.839062971768743</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1530,10 +1530,10 @@
         <v>10</v>
       </c>
       <c r="I32">
-        <v>27.4672053505425</v>
+        <v>44.7773113589729</v>
       </c>
       <c r="J32">
-        <v>0.0038548557695904</v>
+        <v>0.00342544615199732</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1562,10 +1562,10 @@
         <v>12.7583396548576</v>
       </c>
       <c r="I33">
-        <v>25.1690860366873</v>
+        <v>88.3627851469908</v>
       </c>
       <c r="J33">
-        <v>0.171611068059265</v>
+        <v>0.127192757974572</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1594,10 +1594,10 @@
         <v>10</v>
       </c>
       <c r="I34">
-        <v>27.4167075593253</v>
+        <v>47.4978727688213</v>
       </c>
       <c r="J34">
-        <v>1.90722365429393</v>
+        <v>1.66567230282632</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1626,10 +1626,10 @@
         <v>10</v>
       </c>
       <c r="I35">
-        <v>23.5766198378968</v>
+        <v>112.958268860065</v>
       </c>
       <c r="J35">
-        <v>0.863118276532203</v>
+        <v>0.553447562294011</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1658,10 +1658,10 @@
         <v>12.9130326981283</v>
       </c>
       <c r="I36">
-        <v>25.8544358555419</v>
+        <v>74.9023030223037</v>
       </c>
       <c r="J36">
-        <v>0.442576094234484</v>
+        <v>0.340884410709566</v>
       </c>
     </row>
   </sheetData>

--- a/results/main results.xlsx
+++ b/results/main results.xlsx
@@ -558,10 +558,10 @@
         <v>10.57</v>
       </c>
       <c r="E2">
-        <v>22.2709275205961</v>
+        <v>18.8715</v>
       </c>
       <c r="F2">
-        <v>17.6335096604643</v>
+        <v>14.9419361744008</v>
       </c>
       <c r="G2">
         <v>15.2463285068896</v>
@@ -590,10 +590,10 @@
         <v>9.41</v>
       </c>
       <c r="E3">
-        <v>37.1583320246628</v>
+        <v>36.57</v>
       </c>
       <c r="F3">
-        <v>29.7393040328347</v>
+        <v>29.268438307697</v>
       </c>
       <c r="G3">
         <v>36.3700034477779</v>
@@ -602,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="I3">
-        <v>76.2393369099718</v>
+        <v>76.2393678027716</v>
       </c>
       <c r="J3">
-        <v>2.89042048217911</v>
+        <v>2.89041931095767</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -622,10 +622,10 @@
         <v>8.61</v>
       </c>
       <c r="E4">
-        <v>13.9710440043128</v>
+        <v>13.179</v>
       </c>
       <c r="F4">
-        <v>10.4613024935837</v>
+        <v>9.86823214645805</v>
       </c>
       <c r="G4">
         <v>29.0165593367945</v>
@@ -634,10 +634,10 @@
         <v>10</v>
       </c>
       <c r="I4">
-        <v>53.5058780289657</v>
+        <v>53.505899729772</v>
       </c>
       <c r="J4">
-        <v>1.82286152615669</v>
+        <v>1.82286078684449</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -666,10 +666,10 @@
         <v>10</v>
       </c>
       <c r="I5">
-        <v>65.1196250282816</v>
+        <v>65.1196514881153</v>
       </c>
       <c r="J5">
-        <v>0.0430570084599718</v>
+        <v>0.0430569909647724</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -698,10 +698,10 @@
         <v>10</v>
       </c>
       <c r="I6">
-        <v>130.239094175276</v>
+        <v>130.239146021488</v>
       </c>
       <c r="J6">
-        <v>0.0114363588269259</v>
+        <v>0.0114363542742864</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -718,10 +718,10 @@
         <v>9.82</v>
       </c>
       <c r="E7">
-        <v>2.93531071612924</v>
+        <v>2.7485</v>
       </c>
       <c r="F7">
-        <v>2.1845799395281</v>
+        <v>2.04554765899223</v>
       </c>
       <c r="G7">
         <v>22.1694207791634</v>
@@ -750,10 +750,10 @@
         <v>6.51</v>
       </c>
       <c r="E8">
-        <v>1.24384889842907</v>
+        <v>1.1615</v>
       </c>
       <c r="F8">
-        <v>1.06881492470657</v>
+        <v>0.998054133918157</v>
       </c>
       <c r="G8">
         <v>41.8673134826198</v>
@@ -762,10 +762,10 @@
         <v>10.4395897258309</v>
       </c>
       <c r="I8">
-        <v>174.394572287613</v>
+        <v>174.394640735725</v>
       </c>
       <c r="J8">
-        <v>0.0513751402997716</v>
+        <v>0.0513751201355547</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -782,10 +782,10 @@
         <v>9.34</v>
       </c>
       <c r="E9">
-        <v>13.1684530678724</v>
+        <v>11.6955</v>
       </c>
       <c r="F9">
-        <v>11.029222045276</v>
+        <v>9.79555197301289</v>
       </c>
       <c r="G9">
         <v>29.4633115961937</v>
@@ -794,10 +794,10 @@
         <v>10</v>
       </c>
       <c r="I9">
-        <v>95.7190425333085</v>
+        <v>95.7190811699057</v>
       </c>
       <c r="J9">
-        <v>0.715936799481044</v>
+        <v>0.71593651049622</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -814,10 +814,10 @@
         <v>15.36</v>
       </c>
       <c r="E10">
-        <v>12.2914883091891</v>
+        <v>10.3155</v>
       </c>
       <c r="F10">
-        <v>9.5666083772646</v>
+        <v>8.02867368322654</v>
       </c>
       <c r="G10">
         <v>33.8661767479629</v>
@@ -846,10 +846,10 @@
         <v>15.94</v>
       </c>
       <c r="E11">
-        <v>15.5045809179917</v>
+        <v>13.9265</v>
       </c>
       <c r="F11">
-        <v>12.7049561859472</v>
+        <v>11.4118255281751</v>
       </c>
       <c r="G11">
         <v>37.536961186832</v>
@@ -878,10 +878,10 @@
         <v>7.9</v>
       </c>
       <c r="E12">
-        <v>2.40547700159559</v>
+        <v>2.116</v>
       </c>
       <c r="F12">
-        <v>1.93413830291244</v>
+        <v>1.70138257245778</v>
       </c>
       <c r="G12">
         <v>30.6435266609834</v>
@@ -910,10 +910,10 @@
         <v>10.64</v>
       </c>
       <c r="E13">
-        <v>8.21312668449679</v>
+        <v>6.5665</v>
       </c>
       <c r="F13">
-        <v>6.35173736056213</v>
+        <v>5.07829538984966</v>
       </c>
       <c r="G13">
         <v>14.6174762523903</v>
@@ -922,10 +922,10 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>74.5496670554051</v>
+        <v>74.5496973329696</v>
       </c>
       <c r="J13">
-        <v>0.45354473899707</v>
+        <v>0.453544554794711</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -942,10 +942,10 @@
         <v>48.14</v>
       </c>
       <c r="E14">
-        <v>9.15433458917778</v>
+        <v>6.8885</v>
       </c>
       <c r="F14">
-        <v>7.8293585360055</v>
+        <v>5.89147531695343</v>
       </c>
       <c r="G14">
         <v>37.6494276892936</v>
@@ -974,10 +974,10 @@
         <v>27.75</v>
       </c>
       <c r="E15">
-        <v>5.69738462250231</v>
+        <v>4.7495</v>
       </c>
       <c r="F15">
-        <v>4.79890201058604</v>
+        <v>4.00049963438626</v>
       </c>
       <c r="G15">
         <v>31.3748032009296</v>
@@ -1006,10 +1006,10 @@
         <v>10.29</v>
       </c>
       <c r="E16">
-        <v>11.3951572623664</v>
+        <v>9.8785</v>
       </c>
       <c r="F16">
-        <v>9.42989583353871</v>
+        <v>8.17480828450343</v>
       </c>
       <c r="G16">
         <v>25.7401509648132</v>
@@ -1018,10 +1018,10 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>87.4199904204734</v>
+        <v>87.420025653145</v>
       </c>
       <c r="J16">
-        <v>0.615357363498423</v>
+        <v>0.615357115492503</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1038,10 +1038,10 @@
         <v>7.5</v>
       </c>
       <c r="E17">
-        <v>7.93255398032548</v>
+        <v>7.567</v>
       </c>
       <c r="F17">
-        <v>6.51967692084141</v>
+        <v>6.21923221479076</v>
       </c>
       <c r="G17">
         <v>17.3222304410523</v>
@@ -1050,10 +1050,10 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>97.6439967885795</v>
+        <v>97.6440364315474</v>
       </c>
       <c r="J17">
-        <v>0.48645544297466</v>
+        <v>0.486455245476295</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1070,10 +1070,10 @@
         <v>23.79</v>
       </c>
       <c r="E18">
-        <v>2.2715612175992</v>
+        <v>2.1045</v>
       </c>
       <c r="F18">
-        <v>1.90802973192671</v>
+        <v>1.76770431707038</v>
       </c>
       <c r="G18">
         <v>29.9801918728384</v>
@@ -1102,10 +1102,10 @@
         <v>8.78</v>
       </c>
       <c r="E19">
-        <v>2.23513682475805</v>
+        <v>0.3565</v>
       </c>
       <c r="F19">
-        <v>1.92368476980292</v>
+        <v>0.306823999693611</v>
       </c>
       <c r="G19">
         <v>40.0677709602969</v>
@@ -1114,10 +1114,10 @@
         <v>10.5971668934738</v>
       </c>
       <c r="I19">
-        <v>176.551295615766</v>
+        <v>176.551365081164</v>
       </c>
       <c r="J19">
-        <v>0.066193926886424</v>
+        <v>0.0661939008419496</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1134,10 +1134,10 @@
         <v>8.09</v>
       </c>
       <c r="E20">
-        <v>1.26697409880717</v>
+        <v>1.219</v>
       </c>
       <c r="F20">
-        <v>0.942551704195964</v>
+        <v>0.906861891254617</v>
       </c>
       <c r="G20">
         <v>22.1544883688664</v>
@@ -1146,10 +1146,10 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>66.6072730427029</v>
+        <v>66.607300007954</v>
       </c>
       <c r="J20">
-        <v>0.116616626279725</v>
+        <v>0.116616579068735</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1198,10 +1198,10 @@
         <v>7.23</v>
       </c>
       <c r="E22">
-        <v>9.26374475357312</v>
+        <v>8.7055</v>
       </c>
       <c r="F22">
-        <v>6.32247566275061</v>
+        <v>5.94147543420233</v>
       </c>
       <c r="G22">
         <v>28.127287626786</v>
@@ -1210,10 +1210,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>46.5946122751741</v>
+        <v>46.5946311448523</v>
       </c>
       <c r="J22">
-        <v>1.67457495501539</v>
+        <v>1.67457427685377</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1230,10 +1230,10 @@
         <v>14.13</v>
       </c>
       <c r="E23">
-        <v>4.66910471243158</v>
+        <v>4.278</v>
       </c>
       <c r="F23">
-        <v>3.76909162168267</v>
+        <v>3.45337595762792</v>
       </c>
       <c r="G23">
         <v>35.7654244532121</v>
@@ -1262,10 +1262,10 @@
         <v>8.5</v>
       </c>
       <c r="E24">
-        <v>11.8550672732701</v>
+        <v>11.6725</v>
       </c>
       <c r="F24">
-        <v>8.60950902519667</v>
+        <v>8.47692314013229</v>
       </c>
       <c r="G24">
         <v>28.8353730420083</v>
@@ -1274,10 +1274,10 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <v>52.9553224441374</v>
+        <v>52.9553438775132</v>
       </c>
       <c r="J24">
-        <v>1.53451306486949</v>
+        <v>1.53451244378401</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1294,10 +1294,10 @@
         <v>9.92</v>
       </c>
       <c r="E25">
-        <v>18.7151631670846</v>
+        <v>17.664</v>
       </c>
       <c r="F25">
-        <v>15.4518327134671</v>
+        <v>14.5839590397331</v>
       </c>
       <c r="G25">
         <v>20.8612015839051</v>
@@ -1306,10 +1306,10 @@
         <v>10</v>
       </c>
       <c r="I25">
-        <v>92.7204760333975</v>
+        <v>92.7205132735387</v>
       </c>
       <c r="J25">
-        <v>0.928616422288391</v>
+        <v>0.928616049320151</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1326,10 +1326,10 @@
         <v>14.25</v>
       </c>
       <c r="E26">
-        <v>23.630374211603</v>
+        <v>22.011</v>
       </c>
       <c r="F26">
-        <v>19.7450352096992</v>
+        <v>18.3919207588041</v>
       </c>
       <c r="G26">
         <v>28.5573966207095</v>
@@ -1358,10 +1358,10 @@
         <v>8.49</v>
       </c>
       <c r="E27">
-        <v>13.1917533823871</v>
+        <v>12.351</v>
       </c>
       <c r="F27">
-        <v>11.3299454972311</v>
+        <v>10.6078511915737</v>
       </c>
       <c r="G27">
         <v>41.2615084591602</v>
@@ -1370,10 +1370,10 @@
         <v>10.3966925918505</v>
       </c>
       <c r="I27">
-        <v>159.443500953347</v>
+        <v>159.443564150564</v>
       </c>
       <c r="J27">
-        <v>0.457178855250181</v>
+        <v>0.457178674042294</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1390,10 +1390,10 @@
         <v>17.58</v>
       </c>
       <c r="E28">
-        <v>18.3943328843056</v>
+        <v>17.112</v>
       </c>
       <c r="F28">
-        <v>15.3812539629078</v>
+        <v>14.3089732837144</v>
       </c>
       <c r="G28">
         <v>28.1410282253697</v>
@@ -1402,10 +1402,10 @@
         <v>10</v>
       </c>
       <c r="I28">
-        <v>103.229184167326</v>
+        <v>103.229225339239</v>
       </c>
       <c r="J28">
-        <v>0.490301827183283</v>
+        <v>0.490301631631449</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1422,10 +1422,10 @@
         <v>17.61</v>
       </c>
       <c r="E29">
-        <v>1.5079997366952</v>
+        <v>1.472</v>
       </c>
       <c r="F29">
-        <v>1.23653705180482</v>
+        <v>1.20701781039144</v>
       </c>
       <c r="G29">
         <v>19.0092306563477</v>
@@ -1454,10 +1454,10 @@
         <v>16.23</v>
       </c>
       <c r="E30">
-        <v>2.87917767015997</v>
+        <v>2.553</v>
       </c>
       <c r="F30">
-        <v>2.47924740891148</v>
+        <v>2.19837723130137</v>
       </c>
       <c r="G30">
         <v>40.7993142799703</v>
@@ -1486,10 +1486,10 @@
         <v>11.87</v>
       </c>
       <c r="E31">
-        <v>9.26762422927215</v>
+        <v>9.131</v>
       </c>
       <c r="F31">
-        <v>6.84867302200992</v>
+        <v>6.74770920970798</v>
       </c>
       <c r="G31">
         <v>29.0019172186821</v>
@@ -1498,10 +1498,10 @@
         <v>10</v>
       </c>
       <c r="I31">
-        <v>56.5861491156952</v>
+        <v>56.5861720564009</v>
       </c>
       <c r="J31">
-        <v>0.839062971768743</v>
+        <v>0.839062631602656</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1541,7 +1541,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>191.360000000001</v>
+        <v>191.36</v>
       </c>
       <c r="C33">
         <v>1424914.17073343</v>
@@ -1550,10 +1550,10 @@
         <v>6.51</v>
       </c>
       <c r="E33">
-        <v>1.15588206417351</v>
+        <v>1.15</v>
       </c>
       <c r="F33">
-        <v>0.934225826639033</v>
+        <v>0.929471728937235</v>
       </c>
       <c r="G33">
         <v>34.9683979732136</v>
@@ -1562,10 +1562,10 @@
         <v>12.7583396548576</v>
       </c>
       <c r="I33">
-        <v>88.3627851469908</v>
+        <v>88.3628207784537</v>
       </c>
       <c r="J33">
-        <v>0.127192757974572</v>
+        <v>0.127192706685308</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1582,10 +1582,10 @@
         <v>7.14</v>
       </c>
       <c r="E34">
-        <v>8.9449715715031</v>
+        <v>8.579</v>
       </c>
       <c r="F34">
-        <v>6.68059193122331</v>
+        <v>6.40726443005721</v>
       </c>
       <c r="G34">
         <v>30.343632332348</v>
@@ -1594,10 +1594,10 @@
         <v>10</v>
       </c>
       <c r="I34">
-        <v>47.4978727688213</v>
+        <v>47.4978920316997</v>
       </c>
       <c r="J34">
-        <v>1.66567230282632</v>
+        <v>1.66567162730912</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1614,10 +1614,10 @@
         <v>10.72</v>
       </c>
       <c r="E35">
-        <v>14.6354343059504</v>
+        <v>13.6965</v>
       </c>
       <c r="F35">
-        <v>12.3476788908042</v>
+        <v>11.555515223702</v>
       </c>
       <c r="G35">
         <v>26.52806518946</v>
@@ -1646,10 +1646,10 @@
         <v>15.31</v>
       </c>
       <c r="E36">
-        <v>5.5860028179362</v>
+        <v>4.9565</v>
       </c>
       <c r="F36">
-        <v>4.51406553503674</v>
+        <v>4.00536243063978</v>
       </c>
       <c r="G36">
         <v>40.3643010697264</v>

--- a/results/main results.xlsx
+++ b/results/main results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t xml:space="preserve"> Average income in the province</t>
   </si>
@@ -149,6 +149,27 @@
   </si>
   <si>
     <t>Zamboanga Del Sur</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Exposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor people</t>
+  </si>
+  <si>
+    <t>Exposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor people</t>
+  </si>
+  <si>
+    <t>Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)</t>
+  </si>
+  <si>
+    <t>Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)</t>
+  </si>
+  <si>
+    <t>Socio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacity</t>
+  </si>
+  <si>
+    <t>Risk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-being</t>
   </si>
 </sst>
 </file>
@@ -506,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,10 +591,10 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>68.8088485414686</v>
+        <v>68.808848541394</v>
       </c>
       <c r="J2">
-        <v>1.37636293020071</v>
+        <v>1.3763629302022</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -602,10 +623,10 @@
         <v>10</v>
       </c>
       <c r="I3">
-        <v>76.2393678027716</v>
+        <v>76.2904640631491</v>
       </c>
       <c r="J3">
-        <v>2.89041931095767</v>
+        <v>3.77788482951005</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -634,10 +655,10 @@
         <v>10</v>
       </c>
       <c r="I4">
-        <v>53.505899729772</v>
+        <v>53.5117207304491</v>
       </c>
       <c r="J4">
-        <v>1.82286078684449</v>
+        <v>1.97505894678772</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -698,10 +719,10 @@
         <v>10</v>
       </c>
       <c r="I6">
-        <v>130.239146021488</v>
+        <v>130.236668237378</v>
       </c>
       <c r="J6">
-        <v>0.0114363542742864</v>
+        <v>0.0364618874429158</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -730,10 +751,10 @@
         <v>10</v>
       </c>
       <c r="I7">
-        <v>59.9027816003588</v>
+        <v>59.9029008991516</v>
       </c>
       <c r="J7">
-        <v>0.254854614473707</v>
+        <v>0.256597112848222</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -762,10 +783,10 @@
         <v>10.4395897258309</v>
       </c>
       <c r="I8">
-        <v>174.394640735725</v>
+        <v>174.397746913654</v>
       </c>
       <c r="J8">
-        <v>0.0513751201355547</v>
+        <v>0.0639838128353085</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -794,10 +815,10 @@
         <v>10</v>
       </c>
       <c r="I9">
-        <v>95.7190811699057</v>
+        <v>95.735157215736</v>
       </c>
       <c r="J9">
-        <v>0.71593651049622</v>
+        <v>0.851476656467316</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -826,10 +847,10 @@
         <v>10</v>
       </c>
       <c r="I10">
-        <v>64.0761237823329</v>
+        <v>64.0916265542141</v>
       </c>
       <c r="J10">
-        <v>0.737147723653262</v>
+        <v>1.10351012413379</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -858,10 +879,10 @@
         <v>13.063852224195</v>
       </c>
       <c r="I11">
-        <v>90.7743402070683</v>
+        <v>90.8086768123949</v>
       </c>
       <c r="J11">
-        <v>0.711949475665127</v>
+        <v>0.979684057049211</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -890,10 +911,10 @@
         <v>10</v>
       </c>
       <c r="I12">
-        <v>68.6347293718318</v>
+        <v>68.6352090710821</v>
       </c>
       <c r="J12">
-        <v>0.238497180719832</v>
+        <v>0.245501129998845</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -922,10 +943,10 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>74.5496973329696</v>
+        <v>74.5496973328711</v>
       </c>
       <c r="J13">
-        <v>0.453544554794711</v>
+        <v>0.453544554795311</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -954,10 +975,10 @@
         <v>11.069009836215</v>
       </c>
       <c r="I14">
-        <v>127.226698069123</v>
+        <v>127.229555316213</v>
       </c>
       <c r="J14">
-        <v>0.077831565311732</v>
+        <v>0.0796343191791082</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -986,10 +1007,10 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>102.69382914028</v>
+        <v>102.698254536806</v>
       </c>
       <c r="J15">
-        <v>0.0975713646128026</v>
+        <v>0.10598260899289</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1018,10 +1039,10 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>87.420025653145</v>
+        <v>87.4200766538028</v>
       </c>
       <c r="J16">
-        <v>0.615357115492503</v>
+        <v>0.615677168570145</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1050,10 +1071,10 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>97.6440364315474</v>
+        <v>97.6440364315062</v>
       </c>
       <c r="J17">
-        <v>0.486455245476295</v>
+        <v>0.486455245476501</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1082,10 +1103,10 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>122.134674104081</v>
+        <v>122.13799541939</v>
       </c>
       <c r="J18">
-        <v>0.0374181542255685</v>
+        <v>0.0433647117145507</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1114,10 +1135,10 @@
         <v>10.5971668934738</v>
       </c>
       <c r="I19">
-        <v>176.551365081164</v>
+        <v>176.55136507901</v>
       </c>
       <c r="J19">
-        <v>0.0661939008419496</v>
+        <v>0.0661939008427576</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1146,10 +1167,10 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>66.607300007954</v>
+        <v>66.5705490549042</v>
       </c>
       <c r="J20">
-        <v>0.116616579068735</v>
+        <v>0.824222321878298</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1178,10 +1199,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>38.569217916996</v>
+        <v>38.5700075266629</v>
       </c>
       <c r="J21">
-        <v>0.822724871710023</v>
+        <v>0.853548109109553</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1210,10 +1231,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>46.5946311448523</v>
+        <v>46.596829995927</v>
       </c>
       <c r="J22">
-        <v>1.67457427685377</v>
+        <v>3.19139237499955</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1242,10 +1263,10 @@
         <v>12.2579410501458</v>
       </c>
       <c r="I23">
-        <v>70.5199710452451</v>
+        <v>70.5164354826221</v>
       </c>
       <c r="J23">
-        <v>0.310252583596808</v>
+        <v>0.670031040412605</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1306,10 +1327,10 @@
         <v>10</v>
       </c>
       <c r="I25">
-        <v>92.7205132735387</v>
+        <v>92.7205132736894</v>
       </c>
       <c r="J25">
-        <v>0.928616049320151</v>
+        <v>0.928616049318641</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1338,10 +1359,10 @@
         <v>10</v>
       </c>
       <c r="I26">
-        <v>116.159677748139</v>
+        <v>116.159677747957</v>
       </c>
       <c r="J26">
-        <v>0.679107427447446</v>
+        <v>0.67910742744851</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1370,10 +1391,10 @@
         <v>10.3966925918505</v>
       </c>
       <c r="I27">
-        <v>159.443564150564</v>
+        <v>159.44434752859</v>
       </c>
       <c r="J27">
-        <v>0.457178674042294</v>
+        <v>0.458974766668852</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1402,10 +1423,10 @@
         <v>10</v>
       </c>
       <c r="I28">
-        <v>103.229225339239</v>
+        <v>103.237657145986</v>
       </c>
       <c r="J28">
-        <v>0.490301631631449</v>
+        <v>0.513751968474989</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1434,10 +1455,10 @@
         <v>10</v>
       </c>
       <c r="I29">
-        <v>97.1684707462559</v>
+        <v>97.1599243859768</v>
       </c>
       <c r="J29">
-        <v>0.0383885872937012</v>
+        <v>0.114750070288743</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1498,10 +1519,10 @@
         <v>10</v>
       </c>
       <c r="I31">
-        <v>56.5861720564009</v>
+        <v>56.5965344860607</v>
       </c>
       <c r="J31">
-        <v>0.839062631602656</v>
+        <v>1.17319883024291</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1530,10 +1551,10 @@
         <v>10</v>
       </c>
       <c r="I32">
-        <v>44.7773113589729</v>
+        <v>44.76954160938</v>
       </c>
       <c r="J32">
-        <v>0.00342544615199732</v>
+        <v>0.108827338055115</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1562,10 +1583,10 @@
         <v>12.7583396548576</v>
       </c>
       <c r="I33">
-        <v>88.3628207784537</v>
+        <v>88.3628584488853</v>
       </c>
       <c r="J33">
-        <v>0.127192706685308</v>
+        <v>0.127560301805581</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1594,10 +1615,10 @@
         <v>10</v>
       </c>
       <c r="I34">
-        <v>47.4978920316997</v>
+        <v>47.5020909154704</v>
       </c>
       <c r="J34">
-        <v>1.66567162730912</v>
+        <v>1.86397769494471</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1626,10 +1647,10 @@
         <v>10</v>
       </c>
       <c r="I35">
-        <v>112.958268860065</v>
+        <v>112.958268860075</v>
       </c>
       <c r="J35">
-        <v>0.553447562294011</v>
+        <v>0.553447562293963</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1658,10 +1679,42 @@
         <v>12.9130326981283</v>
       </c>
       <c r="I36">
-        <v>74.9023030223037</v>
+        <v>74.9122166017746</v>
       </c>
       <c r="J36">
-        <v>0.340884410709566</v>
+        <v>0.49862525090646</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/results/main results.xlsx
+++ b/results/main results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t xml:space="preserve"> Average income in the province</t>
   </si>
@@ -55,12 +55,36 @@
     <t>Agusan Del Sur</t>
   </si>
   <si>
+    <t>Aklan</t>
+  </si>
+  <si>
+    <t>Albay</t>
+  </si>
+  <si>
+    <t>Antique</t>
+  </si>
+  <si>
     <t>Apayao</t>
   </si>
   <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>Basilan</t>
+  </si>
+  <si>
+    <t>Bataan</t>
+  </si>
+  <si>
     <t>Batangas</t>
   </si>
   <si>
+    <t>Biliran</t>
+  </si>
+  <si>
+    <t>Bohol</t>
+  </si>
+  <si>
     <t>Bukidnon</t>
   </si>
   <si>
@@ -70,15 +94,45 @@
     <t>Cagayan</t>
   </si>
   <si>
+    <t>Camarines Norte</t>
+  </si>
+  <si>
     <t>Camarines Sur</t>
   </si>
   <si>
+    <t>Camiguin</t>
+  </si>
+  <si>
     <t>Capiz</t>
   </si>
   <si>
+    <t>Catanduanes</t>
+  </si>
+  <si>
+    <t>Cavite</t>
+  </si>
+  <si>
+    <t>Cebu</t>
+  </si>
+  <si>
+    <t>Compostela Valley</t>
+  </si>
+  <si>
     <t>Davao Del Norte</t>
   </si>
   <si>
+    <t>Davao Del Sur</t>
+  </si>
+  <si>
+    <t>Davao Oriental</t>
+  </si>
+  <si>
+    <t>Eastern Samar</t>
+  </si>
+  <si>
+    <t>Guimaras</t>
+  </si>
+  <si>
     <t>Ifugao</t>
   </si>
   <si>
@@ -88,6 +142,9 @@
     <t>Ilocos Sur</t>
   </si>
   <si>
+    <t>Iloilo</t>
+  </si>
+  <si>
     <t>Isabela</t>
   </si>
   <si>
@@ -106,21 +163,45 @@
     <t>Lanao Del Sur</t>
   </si>
   <si>
+    <t>Leyte</t>
+  </si>
+  <si>
     <t>Maguindanao</t>
   </si>
   <si>
+    <t>Marinduque</t>
+  </si>
+  <si>
+    <t>Masbate</t>
+  </si>
+  <si>
+    <t>Misamis Oriental</t>
+  </si>
+  <si>
     <t>Negros Occidental</t>
   </si>
   <si>
     <t>North Cotabato</t>
   </si>
   <si>
+    <t>Northern Samar</t>
+  </si>
+  <si>
     <t>Nueva Ecija</t>
   </si>
   <si>
     <t>Nueva Vizcaya</t>
   </si>
   <si>
+    <t>Occidental Mindoro</t>
+  </si>
+  <si>
+    <t>Oriental Mindoro</t>
+  </si>
+  <si>
+    <t>Palawan</t>
+  </si>
+  <si>
     <t>Pampanga</t>
   </si>
   <si>
@@ -133,43 +214,49 @@
     <t>Rizal</t>
   </si>
   <si>
+    <t>Romblon</t>
+  </si>
+  <si>
     <t>Samar</t>
   </si>
   <si>
     <t>Sarangani</t>
   </si>
   <si>
+    <t>Sorsogon</t>
+  </si>
+  <si>
     <t>South Cotabato</t>
   </si>
   <si>
+    <t>Southern Leyte</t>
+  </si>
+  <si>
     <t>Sultan Kudarat</t>
   </si>
   <si>
+    <t>Sulu</t>
+  </si>
+  <si>
+    <t>Surigao Del Norte</t>
+  </si>
+  <si>
     <t>Tarlac</t>
   </si>
   <si>
+    <t>Tawi-Tawi</t>
+  </si>
+  <si>
+    <t>Zambales</t>
+  </si>
+  <si>
+    <t>Zamboanga Del Norte</t>
+  </si>
+  <si>
     <t>Zamboanga Del Sur</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Exposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor peopleExposure, poor people</t>
-  </si>
-  <si>
-    <t>Exposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor peopleExposure, non-poor people</t>
-  </si>
-  <si>
-    <t>Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)Asset vulnerability (poor people)</t>
-  </si>
-  <si>
-    <t>Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)Asset vulnerability (non-poor people)</t>
-  </si>
-  <si>
-    <t>Socio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacitySocio-economic capacity</t>
-  </si>
-  <si>
-    <t>Risk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-beingRisk to well-being</t>
+    <t>Zamboanga Sibugay</t>
   </si>
 </sst>
 </file>
@@ -527,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,10 +678,10 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>68.808848541394</v>
+        <v>68.8396393450271</v>
       </c>
       <c r="J2">
-        <v>1.3763629302022</v>
+        <v>1.37574730639715</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -623,10 +710,10 @@
         <v>10</v>
       </c>
       <c r="I3">
-        <v>76.2904640631491</v>
+        <v>76.3948630936144</v>
       </c>
       <c r="J3">
-        <v>3.77788482951005</v>
+        <v>3.77272208037433</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -655,10 +742,10 @@
         <v>10</v>
       </c>
       <c r="I4">
-        <v>53.5117207304491</v>
+        <v>53.5643097673483</v>
       </c>
       <c r="J4">
-        <v>1.97505894678772</v>
+        <v>1.97311984875245</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -666,31 +753,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>158.732</v>
+        <v>119.962</v>
       </c>
       <c r="C5">
-        <v>116022.676390039</v>
+        <v>554414.442422447</v>
       </c>
       <c r="D5">
-        <v>6.51</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.304693688066755</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>13.1939161763218</v>
+        <v>38.9419132506782</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>13.5089223583236</v>
       </c>
       <c r="I5">
-        <v>65.1196514881153</v>
+        <v>62.5309199132433</v>
       </c>
       <c r="J5">
-        <v>0.0430569909647724</v>
+        <v>7.4544062193428</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -698,31 +785,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>219.272</v>
+        <v>158.629</v>
       </c>
       <c r="C6">
-        <v>2485002.05546474</v>
+        <v>1264097.89496566</v>
       </c>
       <c r="D6">
-        <v>7.73</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0.2645</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.221888963667484</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>23.0356790840862</v>
+        <v>33.9851966509808</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>130.236668237378</v>
+        <v>66.7573719411223</v>
       </c>
       <c r="J6">
-        <v>0.0364618874429158</v>
+        <v>0.466721820442501</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -730,31 +817,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>145.749</v>
+        <v>124.667</v>
       </c>
       <c r="C7">
-        <v>1353046.84430757</v>
+        <v>561980.471778846</v>
       </c>
       <c r="D7">
-        <v>9.82</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>2.7485</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2.04554765899223</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>22.1694207791634</v>
+        <v>36.2657249688178</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>12.5227041089264</v>
       </c>
       <c r="I7">
-        <v>59.9029008991516</v>
+        <v>62.2176913875065</v>
       </c>
       <c r="J7">
-        <v>0.256597112848222</v>
+        <v>4.23754188423842</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -762,31 +849,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>253.279</v>
+        <v>158.732</v>
       </c>
       <c r="C8">
-        <v>3086241.84919508</v>
+        <v>116022.676390039</v>
       </c>
       <c r="D8">
         <v>6.51</v>
       </c>
       <c r="E8">
-        <v>1.1615</v>
+        <v>0.46</v>
       </c>
       <c r="F8">
-        <v>0.998054133918157</v>
+        <v>0.304693688066755</v>
       </c>
       <c r="G8">
-        <v>41.8673134826198</v>
+        <v>13.1939161763218</v>
       </c>
       <c r="H8">
-        <v>10.4395897258309</v>
+        <v>10</v>
       </c>
       <c r="I8">
-        <v>174.397746913654</v>
+        <v>65.1329725267566</v>
       </c>
       <c r="J8">
-        <v>0.0639838128353085</v>
+        <v>0.0430481849204884</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -794,31 +881,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>179.424</v>
+        <v>175.235</v>
       </c>
       <c r="C9">
-        <v>1153021.19591091</v>
+        <v>207219.483546468</v>
       </c>
       <c r="D9">
-        <v>9.34</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>11.6955</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>9.79555197301289</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>29.4633115961937</v>
+        <v>18.8758185279946</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
       <c r="I9">
-        <v>95.735157215736</v>
+        <v>93.5162382163823</v>
       </c>
       <c r="J9">
-        <v>0.851476656467316</v>
+        <v>0.822533610296165</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -826,31 +913,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>152.074</v>
+        <v>134.8675</v>
       </c>
       <c r="C10">
-        <v>1881962.89125995</v>
+        <v>404023.538097355</v>
       </c>
       <c r="D10">
-        <v>15.36</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>10.3155</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>8.02867368322654</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>33.8661767479629</v>
+        <v>37.9713214478772</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>10.9018519019815</v>
       </c>
       <c r="I10">
-        <v>64.0916265542141</v>
+        <v>53.1011244973587</v>
       </c>
       <c r="J10">
-        <v>1.10351012413379</v>
+        <v>0.932346496967705</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -858,31 +945,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>177.386</v>
+        <v>277.019</v>
       </c>
       <c r="C11">
-        <v>733558.367597268</v>
+        <v>716869.090163479</v>
       </c>
       <c r="D11">
-        <v>15.94</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>13.9265</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>11.4118255281751</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>37.536961186832</v>
+        <v>42.3254612246285</v>
       </c>
       <c r="H11">
-        <v>13.063852224195</v>
+        <v>10.4698863866378</v>
       </c>
       <c r="I11">
-        <v>90.8086768123949</v>
+        <v>202.40542211058</v>
       </c>
       <c r="J11">
-        <v>0.979684057049211</v>
+        <v>0.0853839682650955</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -890,31 +977,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>156.283</v>
+        <v>219.272</v>
       </c>
       <c r="C12">
-        <v>992308.737024673</v>
+        <v>2485002.05546474</v>
       </c>
       <c r="D12">
-        <v>7.9</v>
+        <v>7.73</v>
       </c>
       <c r="E12">
-        <v>2.116</v>
+        <v>0.2645</v>
       </c>
       <c r="F12">
-        <v>1.70138257245778</v>
+        <v>0.221888963667484</v>
       </c>
       <c r="G12">
-        <v>30.6435266609834</v>
+        <v>23.0356790840862</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
       <c r="I12">
-        <v>68.6352090710821</v>
+        <v>131.387725866134</v>
       </c>
       <c r="J12">
-        <v>0.245501129998845</v>
+        <v>0.0361424532383633</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -922,31 +1009,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>149.062</v>
+        <v>237.761</v>
       </c>
       <c r="C13">
-        <v>197584.190285786</v>
+        <v>166437.019362635</v>
       </c>
       <c r="D13">
-        <v>10.64</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>6.5665</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>5.07829538984966</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>14.6174762523903</v>
+        <v>40.9498502939167</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>11.3920550286055</v>
       </c>
       <c r="I13">
-        <v>74.5496973328711</v>
+        <v>113.289720317717</v>
       </c>
       <c r="J13">
-        <v>0.453544554795311</v>
+        <v>2.3607763563082</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -954,31 +1041,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>192.382</v>
+        <v>148.638</v>
       </c>
       <c r="C14">
-        <v>579429.044110523</v>
+        <v>1279708.23259846</v>
       </c>
       <c r="D14">
-        <v>48.14</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>6.8885</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>5.89147531695343</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>37.6494276892936</v>
+        <v>31.356117758185</v>
       </c>
       <c r="H14">
-        <v>11.069009836215</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <v>127.229555316213</v>
+        <v>66.7670265742429</v>
       </c>
       <c r="J14">
-        <v>0.0796343191791082</v>
+        <v>1.85085283698692</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -986,31 +1073,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>175.91</v>
+        <v>145.749</v>
       </c>
       <c r="C15">
-        <v>672277.192943119</v>
+        <v>1353046.84430757</v>
       </c>
       <c r="D15">
-        <v>27.75</v>
+        <v>9.82</v>
       </c>
       <c r="E15">
-        <v>4.7495</v>
+        <v>2.7485</v>
       </c>
       <c r="F15">
-        <v>4.00049963438626</v>
+        <v>2.04554765899223</v>
       </c>
       <c r="G15">
-        <v>31.3748032009296</v>
+        <v>22.1694207791634</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>102.698254536806</v>
+        <v>60.0346187652546</v>
       </c>
       <c r="J15">
-        <v>0.10598260899289</v>
+        <v>0.25603413060818</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1018,31 +1105,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>169.871</v>
+        <v>253.279</v>
       </c>
       <c r="C16">
-        <v>1533715.59215201</v>
+        <v>3086241.84919508</v>
       </c>
       <c r="D16">
-        <v>10.29</v>
+        <v>6.51</v>
       </c>
       <c r="E16">
-        <v>9.8785</v>
+        <v>1.1615</v>
       </c>
       <c r="F16">
-        <v>8.17480828450343</v>
+        <v>0.998054133918157</v>
       </c>
       <c r="G16">
-        <v>25.7401509648132</v>
+        <v>41.8673134826198</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>10.4395897258309</v>
       </c>
       <c r="I16">
-        <v>87.4200766538028</v>
+        <v>176.976252415339</v>
       </c>
       <c r="J16">
-        <v>0.615677168570145</v>
+        <v>0.0630515826001046</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1050,31 +1137,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>170.385</v>
+        <v>179.424</v>
       </c>
       <c r="C17">
-        <v>207635.165378523</v>
+        <v>1153021.19591091</v>
       </c>
       <c r="D17">
-        <v>7.5</v>
+        <v>9.34</v>
       </c>
       <c r="E17">
-        <v>7.567</v>
+        <v>11.6955</v>
       </c>
       <c r="F17">
-        <v>6.21923221479076</v>
+        <v>9.79555197301289</v>
       </c>
       <c r="G17">
-        <v>17.3222304410523</v>
+        <v>29.4633115961937</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>97.6440364315062</v>
+        <v>96.0220780522929</v>
       </c>
       <c r="J17">
-        <v>0.486455245476501</v>
+        <v>0.848932383321621</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1082,31 +1169,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>206.399</v>
+        <v>149.238</v>
       </c>
       <c r="C18">
-        <v>759942.515079343</v>
+        <v>558647.498120183</v>
       </c>
       <c r="D18">
-        <v>23.79</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>2.1045</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.76770431707038</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>29.9801918728384</v>
+        <v>41.4358425287269</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>11.1268127867627</v>
       </c>
       <c r="I18">
-        <v>122.13799541939</v>
+        <v>70.1056119448422</v>
       </c>
       <c r="J18">
-        <v>0.0433647117145507</v>
+        <v>3.18269563539038</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1114,31 +1201,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>249.092</v>
+        <v>152.074</v>
       </c>
       <c r="C19">
-        <v>2838393.48641403</v>
+        <v>1881962.89125995</v>
       </c>
       <c r="D19">
-        <v>8.78</v>
+        <v>15.36</v>
       </c>
       <c r="E19">
-        <v>0.3565</v>
+        <v>10.3155</v>
       </c>
       <c r="F19">
-        <v>0.306823999693611</v>
+        <v>8.02867368322654</v>
       </c>
       <c r="G19">
-        <v>40.0677709602969</v>
+        <v>33.8661767479629</v>
       </c>
       <c r="H19">
-        <v>10.5971668934738</v>
+        <v>10</v>
       </c>
       <c r="I19">
-        <v>176.55136507901</v>
+        <v>64.3015767159756</v>
       </c>
       <c r="J19">
-        <v>0.0661939008427576</v>
+        <v>1.09990706895381</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1146,31 +1233,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>164.672</v>
+        <v>156.261</v>
       </c>
       <c r="C20">
-        <v>969716.979767905</v>
+        <v>85865.384952272</v>
       </c>
       <c r="D20">
-        <v>8.09</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>1.219</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.906861891254617</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>22.1544883688664</v>
+        <v>21.1300149506622</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>66.5705490549042</v>
+        <v>61.5414639214857</v>
       </c>
       <c r="J20">
-        <v>0.824222321878298</v>
+        <v>1.79766128527224</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1178,31 +1265,31 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>131.981</v>
+        <v>177.386</v>
       </c>
       <c r="C21">
-        <v>962426.556333156</v>
+        <v>733558.367597268</v>
       </c>
       <c r="D21">
-        <v>10.34</v>
+        <v>15.94</v>
       </c>
       <c r="E21">
-        <v>5.819</v>
+        <v>13.9265</v>
       </c>
       <c r="F21">
-        <v>2.92559619824276</v>
+        <v>11.4118255281751</v>
       </c>
       <c r="G21">
-        <v>24.4783044022428</v>
+        <v>37.536961186832</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>13.063852224195</v>
       </c>
       <c r="I21">
-        <v>38.5700075266629</v>
+        <v>90.9727189576094</v>
       </c>
       <c r="J21">
-        <v>0.853548109109553</v>
+        <v>0.977917489267218</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1210,31 +1297,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>140.218</v>
+        <v>241.147</v>
       </c>
       <c r="C22">
-        <v>1274192.94879532</v>
+        <v>253003.132887467</v>
       </c>
       <c r="D22">
-        <v>7.23</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>8.7055</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>5.94147543420233</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>28.127287626786</v>
+        <v>39.0687508315041</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>46.596829995927</v>
+        <v>99.9215271404641</v>
       </c>
       <c r="J22">
-        <v>3.19139237499955</v>
+        <v>0.904808167152098</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1242,31 +1329,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>145.959</v>
+        <v>282.606</v>
       </c>
       <c r="C23">
-        <v>2981577.20469059</v>
+        <v>3350889.3025638</v>
       </c>
       <c r="D23">
-        <v>14.13</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>4.278</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>3.45337595762792</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>35.7654244532121</v>
+        <v>45.9895423958806</v>
       </c>
       <c r="H23">
-        <v>12.2579410501458</v>
+        <v>11.297762957612</v>
       </c>
       <c r="I23">
-        <v>70.5164354826221</v>
+        <v>231.112270358773</v>
       </c>
       <c r="J23">
-        <v>0.670031040412605</v>
+        <v>0.616010888101669</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1274,31 +1361,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>136.889</v>
+        <v>207.478</v>
       </c>
       <c r="C24">
-        <v>1288466.35114615</v>
+        <v>4351713.3885828</v>
       </c>
       <c r="D24">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>11.6725</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>8.47692314013229</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>28.8353730420083</v>
+        <v>36.6896550573602</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>12.3401195342912</v>
       </c>
       <c r="I24">
-        <v>52.9553438775132</v>
+        <v>109.875719767477</v>
       </c>
       <c r="J24">
-        <v>1.53451244378401</v>
+        <v>1.17834510775705</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1306,31 +1393,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>169.592</v>
+        <v>137.747</v>
       </c>
       <c r="C25">
-        <v>2020505.5211558</v>
+        <v>710843.272307041</v>
       </c>
       <c r="D25">
-        <v>9.92</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>17.664</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>14.5839590397331</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>20.8612015839051</v>
+        <v>28.8049120682868</v>
       </c>
       <c r="H25">
         <v>10</v>
       </c>
       <c r="I25">
-        <v>92.7205132736894</v>
+        <v>60.3590830284635</v>
       </c>
       <c r="J25">
-        <v>0.928616049318641</v>
+        <v>0.472571658796542</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1338,31 +1425,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>214.169</v>
+        <v>156.283</v>
       </c>
       <c r="C26">
-        <v>433165.204738251</v>
+        <v>992308.737024673</v>
       </c>
       <c r="D26">
-        <v>14.25</v>
+        <v>7.9</v>
       </c>
       <c r="E26">
-        <v>22.011</v>
+        <v>2.116</v>
       </c>
       <c r="F26">
-        <v>18.3919207588041</v>
+        <v>1.70138257245778</v>
       </c>
       <c r="G26">
-        <v>28.5573966207095</v>
+        <v>30.6435266609834</v>
       </c>
       <c r="H26">
         <v>10</v>
       </c>
       <c r="I26">
-        <v>116.159677747957</v>
+        <v>68.7619813801342</v>
       </c>
       <c r="J26">
-        <v>0.67910742744851</v>
+        <v>0.245048514403712</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1370,31 +1457,31 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>235.621</v>
+        <v>190.398</v>
       </c>
       <c r="C27">
-        <v>2444446.17134412</v>
+        <v>2410527.96165012</v>
       </c>
       <c r="D27">
-        <v>8.49</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>12.351</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>10.6078511915737</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>41.2615084591602</v>
+        <v>34.1160373719579</v>
       </c>
       <c r="H27">
-        <v>10.3966925918505</v>
+        <v>11.3389942290189</v>
       </c>
       <c r="I27">
-        <v>159.44434752859</v>
+        <v>93.5538526396999</v>
       </c>
       <c r="J27">
-        <v>0.458974766668852</v>
+        <v>0.34069372656121</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1402,31 +1489,31 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>182.388</v>
+        <v>97.289</v>
       </c>
       <c r="C28">
-        <v>2854701.4824351</v>
+        <v>533220.801373149</v>
       </c>
       <c r="D28">
-        <v>17.58</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>17.112</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>14.3089732837144</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>28.1410282253697</v>
+        <v>25.072679164382</v>
       </c>
       <c r="H28">
         <v>10</v>
       </c>
       <c r="I28">
-        <v>103.237657145986</v>
+        <v>43.1723893482957</v>
       </c>
       <c r="J28">
-        <v>0.513751968474989</v>
+        <v>1.5873153411179</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1434,31 +1521,31 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>179.092</v>
+        <v>130.115</v>
       </c>
       <c r="C29">
-        <v>2055103.11595472</v>
+        <v>440354.934932028</v>
       </c>
       <c r="D29">
-        <v>17.61</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>1.472</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.20701781039144</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>19.0092306563477</v>
+        <v>24.9226386447578</v>
       </c>
       <c r="H29">
         <v>10</v>
       </c>
       <c r="I29">
-        <v>97.1599243859768</v>
+        <v>49.8823714098858</v>
       </c>
       <c r="J29">
-        <v>0.114750070288743</v>
+        <v>4.16395627152434</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1466,31 +1553,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>294.404</v>
+        <v>162.895</v>
       </c>
       <c r="C30">
-        <v>2678553.46348061</v>
+        <v>167618.61939646</v>
       </c>
       <c r="D30">
-        <v>16.23</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>2.553</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>2.19837723130137</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>40.7993142799703</v>
+        <v>38.8146298892102</v>
       </c>
       <c r="H30">
-        <v>10.6425721398091</v>
+        <v>13.4735860125326</v>
       </c>
       <c r="I30">
-        <v>220.078240584589</v>
+        <v>85.9888452683564</v>
       </c>
       <c r="J30">
-        <v>0.0369039582945241</v>
+        <v>4.07607464769114</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1498,31 +1585,31 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>134.968</v>
+        <v>149.062</v>
       </c>
       <c r="C31">
-        <v>753363.084895201</v>
+        <v>197584.190285786</v>
       </c>
       <c r="D31">
-        <v>11.87</v>
+        <v>10.64</v>
       </c>
       <c r="E31">
-        <v>9.131</v>
+        <v>6.5665</v>
       </c>
       <c r="F31">
-        <v>6.74770920970798</v>
+        <v>5.07829538984966</v>
       </c>
       <c r="G31">
-        <v>29.0019172186821</v>
+        <v>14.6174762523903</v>
       </c>
       <c r="H31">
         <v>10</v>
       </c>
       <c r="I31">
-        <v>56.5965344860607</v>
+        <v>74.5794344870244</v>
       </c>
       <c r="J31">
-        <v>1.17319883024291</v>
+        <v>0.453363712389705</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1530,31 +1617,31 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>107.685</v>
+        <v>192.382</v>
       </c>
       <c r="C32">
-        <v>518718.742502788</v>
+        <v>579429.044110523</v>
       </c>
       <c r="D32">
-        <v>23.94</v>
+        <v>48.14</v>
       </c>
       <c r="E32">
-        <v>0.0575</v>
+        <v>6.8885</v>
       </c>
       <c r="F32">
-        <v>0.0414913493520872</v>
+        <v>5.89147531695343</v>
       </c>
       <c r="G32">
-        <v>28.5538860754928</v>
+        <v>37.6494276892936</v>
       </c>
       <c r="H32">
-        <v>10</v>
+        <v>11.069009836215</v>
       </c>
       <c r="I32">
-        <v>44.76954160938</v>
+        <v>127.483960560337</v>
       </c>
       <c r="J32">
-        <v>0.108827338055115</v>
+        <v>0.0794754020233944</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1562,31 +1649,31 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>191.36</v>
+        <v>175.91</v>
       </c>
       <c r="C33">
-        <v>1424914.17073343</v>
+        <v>672277.192943119</v>
       </c>
       <c r="D33">
-        <v>6.51</v>
+        <v>27.75</v>
       </c>
       <c r="E33">
-        <v>1.15</v>
+        <v>4.7495</v>
       </c>
       <c r="F33">
-        <v>0.929471728937235</v>
+        <v>4.00049963438626</v>
       </c>
       <c r="G33">
-        <v>34.9683979732136</v>
+        <v>31.3748032009296</v>
       </c>
       <c r="H33">
-        <v>12.7583396548576</v>
+        <v>10</v>
       </c>
       <c r="I33">
-        <v>88.3628584488853</v>
+        <v>102.890550059086</v>
       </c>
       <c r="J33">
-        <v>0.127560301805581</v>
+        <v>0.105784534620296</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1594,31 +1681,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>113.736</v>
+        <v>187.023</v>
       </c>
       <c r="C34">
-        <v>784135.419521753</v>
+        <v>2296674.28518162</v>
       </c>
       <c r="D34">
-        <v>7.14</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>8.579</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>6.40726443005721</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>30.343632332348</v>
+        <v>38.2805248991804</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>13.3153007241779</v>
       </c>
       <c r="I34">
-        <v>47.5020909154704</v>
+        <v>97.3341015876074</v>
       </c>
       <c r="J34">
-        <v>1.86397769494471</v>
+        <v>6.08281826543511</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1626,31 +1713,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>190.392</v>
+        <v>169.871</v>
       </c>
       <c r="C35">
-        <v>1318604.09835682</v>
+        <v>1533715.59215201</v>
       </c>
       <c r="D35">
-        <v>10.72</v>
+        <v>10.29</v>
       </c>
       <c r="E35">
-        <v>13.6965</v>
+        <v>9.8785</v>
       </c>
       <c r="F35">
-        <v>11.555515223702</v>
+        <v>8.17480828450343</v>
       </c>
       <c r="G35">
-        <v>26.52806518946</v>
+        <v>25.7401509648132</v>
       </c>
       <c r="H35">
         <v>10</v>
       </c>
       <c r="I35">
-        <v>112.958268860075</v>
+        <v>87.7385173384622</v>
       </c>
       <c r="J35">
-        <v>0.553447562293963</v>
+        <v>0.613442612242594</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1658,63 +1745,1183 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>168.131</v>
+        <v>170.385</v>
       </c>
       <c r="C36">
-        <v>1841096.51798489</v>
+        <v>207635.165378523</v>
       </c>
       <c r="D36">
-        <v>15.31</v>
+        <v>7.5</v>
       </c>
       <c r="E36">
-        <v>4.9565</v>
+        <v>7.567</v>
       </c>
       <c r="F36">
-        <v>4.00536243063978</v>
+        <v>6.21923221479076</v>
       </c>
       <c r="G36">
-        <v>40.3643010697264</v>
+        <v>17.3222304410523</v>
       </c>
       <c r="H36">
-        <v>12.9130326981283</v>
+        <v>10</v>
       </c>
       <c r="I36">
-        <v>74.9122166017746</v>
+        <v>97.6976547281073</v>
       </c>
       <c r="J36">
-        <v>0.49862525090646</v>
+        <v>0.486188269757302</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="B37">
+        <v>206.399</v>
+      </c>
+      <c r="C37">
+        <v>759942.515079343</v>
+      </c>
+      <c r="D37">
+        <v>23.79</v>
+      </c>
+      <c r="E37">
+        <v>2.1045</v>
+      </c>
+      <c r="F37">
+        <v>1.76770431707038</v>
+      </c>
+      <c r="G37">
+        <v>29.9801918728384</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <v>122.445645559449</v>
+      </c>
+      <c r="J37">
+        <v>0.0432557559442445</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F37" t="s">
+      <c r="B38">
+        <v>249.092</v>
+      </c>
+      <c r="C38">
+        <v>2838393.48641403</v>
+      </c>
+      <c r="D38">
+        <v>8.78</v>
+      </c>
+      <c r="E38">
+        <v>0.3565</v>
+      </c>
+      <c r="F38">
+        <v>0.306823999693611</v>
+      </c>
+      <c r="G38">
+        <v>40.0677709602969</v>
+      </c>
+      <c r="H38">
+        <v>10.5971668934738</v>
+      </c>
+      <c r="I38">
+        <v>178.979252887789</v>
+      </c>
+      <c r="J38">
+        <v>0.0652959679132217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G37" t="s">
+      <c r="B39">
+        <v>164.672</v>
+      </c>
+      <c r="C39">
+        <v>969716.979767905</v>
+      </c>
+      <c r="D39">
+        <v>8.09</v>
+      </c>
+      <c r="E39">
+        <v>1.219</v>
+      </c>
+      <c r="F39">
+        <v>0.906861891254617</v>
+      </c>
+      <c r="G39">
+        <v>22.1544883688664</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <v>66.6870826379773</v>
+      </c>
+      <c r="J39">
+        <v>0.822782019249695</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H37" t="s">
+      <c r="B40">
+        <v>131.981</v>
+      </c>
+      <c r="C40">
+        <v>962426.556333156</v>
+      </c>
+      <c r="D40">
+        <v>10.34</v>
+      </c>
+      <c r="E40">
+        <v>5.819</v>
+      </c>
+      <c r="F40">
+        <v>2.92559619824276</v>
+      </c>
+      <c r="G40">
+        <v>24.4783044022428</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>38.6088034333366</v>
+      </c>
+      <c r="J40">
+        <v>0.852690424596235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I37" t="s">
+      <c r="B41">
+        <v>178.397</v>
+      </c>
+      <c r="C41">
+        <v>1831350.58211375</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>34.2239164554777</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>75.2344901640296</v>
+      </c>
+      <c r="J41">
+        <v>5.18912078905607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J37" t="s">
+      <c r="B42">
+        <v>140.218</v>
+      </c>
+      <c r="C42">
+        <v>1274192.94879532</v>
+      </c>
+      <c r="D42">
+        <v>7.23</v>
+      </c>
+      <c r="E42">
+        <v>8.7055</v>
+      </c>
+      <c r="F42">
+        <v>5.94147543420233</v>
+      </c>
+      <c r="G42">
+        <v>28.127287626786</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>46.6718416514106</v>
+      </c>
+      <c r="J42">
+        <v>3.18626312325211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="B43">
+        <v>151.717</v>
+      </c>
+      <c r="C43">
+        <v>229974.564772054</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>41.0010013883929</v>
+      </c>
+      <c r="H43">
+        <v>13.0312981091365</v>
+      </c>
+      <c r="I43">
+        <v>70.947119519428</v>
+      </c>
+      <c r="J43">
+        <v>2.58401048758914</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>126.563</v>
+      </c>
+      <c r="C44">
+        <v>862659.413376048</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>29.1415600214873</v>
+      </c>
+      <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <v>52.9771514504504</v>
+      </c>
+      <c r="J44">
+        <v>2.45963400475368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>205.538</v>
+      </c>
+      <c r="C45">
+        <v>1482282.67149162</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>35.0981323033059</v>
+      </c>
+      <c r="H45">
+        <v>10.1052833089455</v>
+      </c>
+      <c r="I45">
+        <v>98.7483087754596</v>
+      </c>
+      <c r="J45">
+        <v>2.30278405007583</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>145.959</v>
+      </c>
+      <c r="C46">
+        <v>2981577.20469059</v>
+      </c>
+      <c r="D46">
+        <v>14.13</v>
+      </c>
+      <c r="E46">
+        <v>4.278</v>
+      </c>
+      <c r="F46">
+        <v>3.45337595762792</v>
+      </c>
+      <c r="G46">
+        <v>35.7654244532121</v>
+      </c>
+      <c r="H46">
+        <v>12.2579410501458</v>
+      </c>
+      <c r="I46">
+        <v>70.9200695418178</v>
+      </c>
+      <c r="J46">
+        <v>0.66621762976064</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>136.889</v>
+      </c>
+      <c r="C47">
+        <v>1288466.35114615</v>
+      </c>
+      <c r="D47">
+        <v>8.5</v>
+      </c>
+      <c r="E47">
+        <v>11.6725</v>
+      </c>
+      <c r="F47">
+        <v>8.47692314013229</v>
+      </c>
+      <c r="G47">
+        <v>28.8353730420083</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
+      </c>
+      <c r="I47">
+        <v>53.0533329820295</v>
+      </c>
+      <c r="J47">
+        <v>1.53167821091335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>137.606</v>
+      </c>
+      <c r="C48">
+        <v>608478.055899388</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>28.940231987449</v>
+      </c>
+      <c r="H48">
+        <v>10</v>
+      </c>
+      <c r="I48">
+        <v>57.438985282166</v>
+      </c>
+      <c r="J48">
+        <v>4.28840250810476</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>169.592</v>
+      </c>
+      <c r="C49">
+        <v>2020505.5211558</v>
+      </c>
+      <c r="D49">
+        <v>9.92</v>
+      </c>
+      <c r="E49">
+        <v>17.664</v>
+      </c>
+      <c r="F49">
+        <v>14.5839590397331</v>
+      </c>
+      <c r="G49">
+        <v>20.8612015839051</v>
+      </c>
+      <c r="H49">
+        <v>10</v>
+      </c>
+      <c r="I49">
+        <v>93.1931222575721</v>
+      </c>
+      <c r="J49">
+        <v>0.923906771671813</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>214.169</v>
+      </c>
+      <c r="C50">
+        <v>433165.204738251</v>
+      </c>
+      <c r="D50">
+        <v>14.25</v>
+      </c>
+      <c r="E50">
+        <v>22.011</v>
+      </c>
+      <c r="F50">
+        <v>18.3919207588041</v>
+      </c>
+      <c r="G50">
+        <v>28.5573966207095</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
+      </c>
+      <c r="I50">
+        <v>116.318108153566</v>
+      </c>
+      <c r="J50">
+        <v>0.678182453109685</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>166.109</v>
+      </c>
+      <c r="C51">
+        <v>469105.617677937</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>39.2572211787595</v>
+      </c>
+      <c r="H51">
+        <v>11.7624572017593</v>
+      </c>
+      <c r="I51">
+        <v>71.8845983838919</v>
+      </c>
+      <c r="J51">
+        <v>1.95616408461206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>142.899</v>
+      </c>
+      <c r="C52">
+        <v>808182.428935386</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>41.1233924427668</v>
+      </c>
+      <c r="H52">
+        <v>14.3995732465961</v>
+      </c>
+      <c r="I52">
+        <v>70.6738267589414</v>
+      </c>
+      <c r="J52">
+        <v>3.53121859295389</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>132.64</v>
+      </c>
+      <c r="C53">
+        <v>1050521.91485667</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>41.248804075057</v>
+      </c>
+      <c r="H53">
+        <v>15.4237106357491</v>
+      </c>
+      <c r="I53">
+        <v>68.046278754859</v>
+      </c>
+      <c r="J53">
+        <v>4.87169516756018</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>235.621</v>
+      </c>
+      <c r="C54">
+        <v>2444446.17134412</v>
+      </c>
+      <c r="D54">
+        <v>8.49</v>
+      </c>
+      <c r="E54">
+        <v>12.351</v>
+      </c>
+      <c r="F54">
+        <v>10.6078511915737</v>
+      </c>
+      <c r="G54">
+        <v>41.2615084591602</v>
+      </c>
+      <c r="H54">
+        <v>10.3966925918505</v>
+      </c>
+      <c r="I54">
+        <v>161.144497879907</v>
+      </c>
+      <c r="J54">
+        <v>0.454132366704446</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>182.388</v>
+      </c>
+      <c r="C55">
+        <v>2854701.4824351</v>
+      </c>
+      <c r="D55">
+        <v>17.58</v>
+      </c>
+      <c r="E55">
+        <v>17.112</v>
+      </c>
+      <c r="F55">
+        <v>14.3089732837144</v>
+      </c>
+      <c r="G55">
+        <v>28.1410282253697</v>
+      </c>
+      <c r="H55">
+        <v>10</v>
+      </c>
+      <c r="I55">
+        <v>104.067885985623</v>
+      </c>
+      <c r="J55">
+        <v>0.509653377477311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56">
+        <v>179.092</v>
+      </c>
+      <c r="C56">
+        <v>2055103.11595472</v>
+      </c>
+      <c r="D56">
+        <v>17.61</v>
+      </c>
+      <c r="E56">
+        <v>1.472</v>
+      </c>
+      <c r="F56">
+        <v>1.20701781039144</v>
+      </c>
+      <c r="G56">
+        <v>19.0092306563477</v>
+      </c>
+      <c r="H56">
+        <v>10</v>
+      </c>
+      <c r="I56">
+        <v>97.6879365946273</v>
+      </c>
+      <c r="J56">
+        <v>0.114129835691022</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57">
+        <v>294.404</v>
+      </c>
+      <c r="C57">
+        <v>2678553.46348061</v>
+      </c>
+      <c r="D57">
+        <v>16.23</v>
+      </c>
+      <c r="E57">
+        <v>2.553</v>
+      </c>
+      <c r="F57">
+        <v>2.19837723130137</v>
+      </c>
+      <c r="G57">
+        <v>40.7993142799703</v>
+      </c>
+      <c r="H57">
+        <v>10.6425721398091</v>
+      </c>
+      <c r="I57">
+        <v>223.647045697828</v>
+      </c>
+      <c r="J57">
+        <v>0.0363150704125074</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58">
+        <v>121.06</v>
+      </c>
+      <c r="C58">
+        <v>288015.178598222</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>38.4200350713085</v>
+      </c>
+      <c r="H58">
+        <v>11.2339824144241</v>
+      </c>
+      <c r="I58">
+        <v>54.2606243038912</v>
+      </c>
+      <c r="J58">
+        <v>4.06735348826303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59">
+        <v>134.968</v>
+      </c>
+      <c r="C59">
+        <v>753363.084895201</v>
+      </c>
+      <c r="D59">
+        <v>11.87</v>
+      </c>
+      <c r="E59">
+        <v>9.131</v>
+      </c>
+      <c r="F59">
+        <v>6.74770920970798</v>
+      </c>
+      <c r="G59">
+        <v>29.0019172186821</v>
+      </c>
+      <c r="H59">
+        <v>10</v>
+      </c>
+      <c r="I59">
+        <v>56.6619329884778</v>
+      </c>
+      <c r="J59">
+        <v>1.17184473865992</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60">
+        <v>107.685</v>
+      </c>
+      <c r="C60">
+        <v>518718.742502788</v>
+      </c>
+      <c r="D60">
+        <v>23.94</v>
+      </c>
+      <c r="E60">
+        <v>0.0575</v>
+      </c>
+      <c r="F60">
+        <v>0.0414913493520872</v>
+      </c>
+      <c r="G60">
+        <v>28.5538860754928</v>
+      </c>
+      <c r="H60">
+        <v>10</v>
+      </c>
+      <c r="I60">
+        <v>44.7977029013563</v>
+      </c>
+      <c r="J60">
+        <v>0.108758925653508</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61">
+        <v>142.671</v>
+      </c>
+      <c r="C61">
+        <v>760233.378851882</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>34.1538423622197</v>
+      </c>
+      <c r="H61">
+        <v>10</v>
+      </c>
+      <c r="I61">
+        <v>61.4875539263144</v>
+      </c>
+      <c r="J61">
+        <v>1.96319706454222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62">
+        <v>191.36</v>
+      </c>
+      <c r="C62">
+        <v>1424914.17073343</v>
+      </c>
+      <c r="D62">
+        <v>6.51</v>
+      </c>
+      <c r="E62">
+        <v>1.15</v>
+      </c>
+      <c r="F62">
+        <v>0.929471728937235</v>
+      </c>
+      <c r="G62">
+        <v>34.9683979732136</v>
+      </c>
+      <c r="H62">
+        <v>12.7583396548576</v>
+      </c>
+      <c r="I62">
+        <v>88.6650575752621</v>
+      </c>
+      <c r="J62">
+        <v>0.127125535136273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63">
+        <v>141.614</v>
+      </c>
+      <c r="C63">
+        <v>407424.6404592</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>31.9645417916082</v>
+      </c>
+      <c r="H63">
+        <v>10</v>
+      </c>
+      <c r="I63">
+        <v>61.2199969966287</v>
+      </c>
+      <c r="J63">
+        <v>1.1868510540704</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64">
+        <v>113.736</v>
+      </c>
+      <c r="C64">
+        <v>784135.419521753</v>
+      </c>
+      <c r="D64">
+        <v>7.14</v>
+      </c>
+      <c r="E64">
+        <v>8.579</v>
+      </c>
+      <c r="F64">
+        <v>6.40726443005721</v>
+      </c>
+      <c r="G64">
+        <v>30.343632332348</v>
+      </c>
+      <c r="H64">
+        <v>10</v>
+      </c>
+      <c r="I64">
+        <v>47.550035204513</v>
+      </c>
+      <c r="J64">
+        <v>1.86209826236404</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65">
+        <v>109.666</v>
+      </c>
+      <c r="C65">
+        <v>739823.241271958</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>33.3075438476568</v>
+      </c>
+      <c r="H65">
+        <v>10</v>
+      </c>
+      <c r="I65">
+        <v>42.4657802226703</v>
+      </c>
+      <c r="J65">
+        <v>16.2438546301432</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66">
+        <v>139.481</v>
+      </c>
+      <c r="C66">
+        <v>457632.980184378</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>31.850421402075</v>
+      </c>
+      <c r="H66">
+        <v>10</v>
+      </c>
+      <c r="I66">
+        <v>59.8485362624961</v>
+      </c>
+      <c r="J66">
+        <v>2.17748317852641</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67">
+        <v>190.392</v>
+      </c>
+      <c r="C67">
+        <v>1318604.09835682</v>
+      </c>
+      <c r="D67">
+        <v>10.72</v>
+      </c>
+      <c r="E67">
+        <v>13.6965</v>
+      </c>
+      <c r="F67">
+        <v>11.555515223702</v>
+      </c>
+      <c r="G67">
+        <v>26.52806518946</v>
+      </c>
+      <c r="H67">
+        <v>10</v>
+      </c>
+      <c r="I67">
+        <v>113.415554233896</v>
+      </c>
+      <c r="J67">
+        <v>0.55121609168904</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68">
+        <v>123.225</v>
+      </c>
+      <c r="C68">
+        <v>376099.907127143</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>40.2820441475505</v>
+      </c>
+      <c r="H68">
+        <v>12.8247562934364</v>
+      </c>
+      <c r="I68">
+        <v>53.5948009758274</v>
+      </c>
+      <c r="J68">
+        <v>30.4287919186434</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69">
+        <v>200.64</v>
+      </c>
+      <c r="C69">
+        <v>784152.05342662</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>27.1055299470911</v>
+      </c>
+      <c r="H69">
+        <v>10</v>
+      </c>
+      <c r="I69">
+        <v>121.607273875777</v>
+      </c>
+      <c r="J69">
+        <v>0.246864559581378</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70">
+        <v>110.122</v>
+      </c>
+      <c r="C70">
+        <v>987514.071557479</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>31.5328319177625</v>
+      </c>
+      <c r="H70">
+        <v>10</v>
+      </c>
+      <c r="I70">
+        <v>44.7154129161232</v>
+      </c>
+      <c r="J70">
+        <v>2.15636458703158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71">
+        <v>168.131</v>
+      </c>
+      <c r="C71">
+        <v>1841096.51798489</v>
+      </c>
+      <c r="D71">
+        <v>15.31</v>
+      </c>
+      <c r="E71">
+        <v>4.9565</v>
+      </c>
+      <c r="F71">
+        <v>4.00536243063978</v>
+      </c>
+      <c r="G71">
+        <v>40.3643010697264</v>
+      </c>
+      <c r="H71">
+        <v>12.9130326981283</v>
+      </c>
+      <c r="I71">
+        <v>75.1929464232165</v>
+      </c>
+      <c r="J71">
+        <v>0.496763653718001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72">
+        <v>128.98</v>
+      </c>
+      <c r="C72">
+        <v>603939.320198821</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>36.105408341903</v>
+      </c>
+      <c r="H72">
+        <v>10</v>
+      </c>
+      <c r="I72">
+        <v>52.0418667800108</v>
+      </c>
+      <c r="J72">
+        <v>0.567113072580333</v>
       </c>
     </row>
   </sheetData>

--- a/results/main results.xlsx
+++ b/results/main results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t xml:space="preserve"> Average income in the province</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Ilocos Sur</t>
   </si>
   <si>
-    <t>Iloilo</t>
-  </si>
-  <si>
     <t>Isabela</t>
   </si>
   <si>
@@ -235,16 +232,10 @@
     <t>Sultan Kudarat</t>
   </si>
   <si>
-    <t>Sulu</t>
-  </si>
-  <si>
     <t>Surigao Del Norte</t>
   </si>
   <si>
     <t>Tarlac</t>
-  </si>
-  <si>
-    <t>Tawi-Tawi</t>
   </si>
   <si>
     <t>Zambales</t>
@@ -614,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -806,10 +797,10 @@
         <v>10</v>
       </c>
       <c r="I6">
-        <v>66.7573719411223</v>
+        <v>66.7573719388958</v>
       </c>
       <c r="J6">
-        <v>0.466721820442501</v>
+        <v>0.466721810416439</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -998,10 +989,10 @@
         <v>10</v>
       </c>
       <c r="I12">
-        <v>131.387725866134</v>
+        <v>131.387725849335</v>
       </c>
       <c r="J12">
-        <v>0.0361424532383633</v>
+        <v>0.0361424552145284</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1094,10 +1085,10 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>60.0346187652546</v>
+        <v>60.034618765001</v>
       </c>
       <c r="J15">
-        <v>0.25603413060818</v>
+        <v>0.256034135291778</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1414,10 +1405,10 @@
         <v>10</v>
       </c>
       <c r="I25">
-        <v>60.3590830284635</v>
+        <v>60.3590830258378</v>
       </c>
       <c r="J25">
-        <v>0.472571658796542</v>
+        <v>0.472571679813198</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1446,10 +1437,10 @@
         <v>10</v>
       </c>
       <c r="I26">
-        <v>68.7619813801342</v>
+        <v>68.7619813803193</v>
       </c>
       <c r="J26">
-        <v>0.245048514403712</v>
+        <v>0.245048515882566</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1478,10 +1469,10 @@
         <v>11.3389942290189</v>
       </c>
       <c r="I27">
-        <v>93.5538526396999</v>
+        <v>93.5538526452354</v>
       </c>
       <c r="J27">
-        <v>0.34069372656121</v>
+        <v>0.340693730006379</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1638,10 +1629,10 @@
         <v>11.069009836215</v>
       </c>
       <c r="I32">
-        <v>127.483960560337</v>
+        <v>127.483960559586</v>
       </c>
       <c r="J32">
-        <v>0.0794754020233944</v>
+        <v>0.07947540173113</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1670,10 +1661,10 @@
         <v>10</v>
       </c>
       <c r="I33">
-        <v>102.890550059086</v>
+        <v>102.890550057225</v>
       </c>
       <c r="J33">
-        <v>0.105784534620296</v>
+        <v>0.105784534032504</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1681,31 +1672,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>187.023</v>
+        <v>169.871</v>
       </c>
       <c r="C34">
-        <v>2296674.28518162</v>
+        <v>1533715.59215201</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>10.29</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>9.8785</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>8.17480828450343</v>
       </c>
       <c r="G34">
-        <v>38.2805248991804</v>
+        <v>25.7401509648132</v>
       </c>
       <c r="H34">
-        <v>13.3153007241779</v>
+        <v>10</v>
       </c>
       <c r="I34">
-        <v>97.3341015876074</v>
+        <v>87.7385173434673</v>
       </c>
       <c r="J34">
-        <v>6.08281826543511</v>
+        <v>0.61344264552188</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1713,31 +1704,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>169.871</v>
+        <v>170.385</v>
       </c>
       <c r="C35">
-        <v>1533715.59215201</v>
+        <v>207635.165378523</v>
       </c>
       <c r="D35">
-        <v>10.29</v>
+        <v>7.5</v>
       </c>
       <c r="E35">
-        <v>9.8785</v>
+        <v>7.567</v>
       </c>
       <c r="F35">
-        <v>8.17480828450343</v>
+        <v>6.21923221479076</v>
       </c>
       <c r="G35">
-        <v>25.7401509648132</v>
+        <v>17.3222304410523</v>
       </c>
       <c r="H35">
         <v>10</v>
       </c>
       <c r="I35">
-        <v>87.7385173384622</v>
+        <v>97.6976547281073</v>
       </c>
       <c r="J35">
-        <v>0.613442612242594</v>
+        <v>0.486188269757302</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1745,31 +1736,31 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>170.385</v>
+        <v>206.399</v>
       </c>
       <c r="C36">
-        <v>207635.165378523</v>
+        <v>759942.515079343</v>
       </c>
       <c r="D36">
-        <v>7.5</v>
+        <v>23.79</v>
       </c>
       <c r="E36">
-        <v>7.567</v>
+        <v>2.1045</v>
       </c>
       <c r="F36">
-        <v>6.21923221479076</v>
+        <v>1.76770431707038</v>
       </c>
       <c r="G36">
-        <v>17.3222304410523</v>
+        <v>29.9801918728384</v>
       </c>
       <c r="H36">
         <v>10</v>
       </c>
       <c r="I36">
-        <v>97.6976547281073</v>
+        <v>122.445645558888</v>
       </c>
       <c r="J36">
-        <v>0.486188269757302</v>
+        <v>0.0432557567002503</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1777,31 +1768,31 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>206.399</v>
+        <v>249.092</v>
       </c>
       <c r="C37">
-        <v>759942.515079343</v>
+        <v>2838393.48641403</v>
       </c>
       <c r="D37">
-        <v>23.79</v>
+        <v>8.78</v>
       </c>
       <c r="E37">
-        <v>2.1045</v>
+        <v>0.3565</v>
       </c>
       <c r="F37">
-        <v>1.76770431707038</v>
+        <v>0.306823999693611</v>
       </c>
       <c r="G37">
-        <v>29.9801918728384</v>
+        <v>40.0677709602969</v>
       </c>
       <c r="H37">
-        <v>10</v>
+        <v>10.5971668934738</v>
       </c>
       <c r="I37">
-        <v>122.445645559449</v>
+        <v>178.979252887789</v>
       </c>
       <c r="J37">
-        <v>0.0432557559442445</v>
+        <v>0.0652959679132217</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1809,31 +1800,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>249.092</v>
+        <v>164.672</v>
       </c>
       <c r="C38">
-        <v>2838393.48641403</v>
+        <v>969716.979767905</v>
       </c>
       <c r="D38">
-        <v>8.78</v>
+        <v>8.09</v>
       </c>
       <c r="E38">
-        <v>0.3565</v>
+        <v>1.219</v>
       </c>
       <c r="F38">
-        <v>0.306823999693611</v>
+        <v>0.906861891254617</v>
       </c>
       <c r="G38">
-        <v>40.0677709602969</v>
+        <v>22.1544883688664</v>
       </c>
       <c r="H38">
-        <v>10.5971668934738</v>
+        <v>10</v>
       </c>
       <c r="I38">
-        <v>178.979252887789</v>
+        <v>66.6870826379773</v>
       </c>
       <c r="J38">
-        <v>0.0652959679132217</v>
+        <v>0.822782019249695</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1841,31 +1832,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>164.672</v>
+        <v>131.981</v>
       </c>
       <c r="C39">
-        <v>969716.979767905</v>
+        <v>962426.556333156</v>
       </c>
       <c r="D39">
-        <v>8.09</v>
+        <v>10.34</v>
       </c>
       <c r="E39">
-        <v>1.219</v>
+        <v>5.819</v>
       </c>
       <c r="F39">
-        <v>0.906861891254617</v>
+        <v>2.92559619824276</v>
       </c>
       <c r="G39">
-        <v>22.1544883688664</v>
+        <v>24.4783044022428</v>
       </c>
       <c r="H39">
         <v>10</v>
       </c>
       <c r="I39">
-        <v>66.6870826379773</v>
+        <v>38.608803433681</v>
       </c>
       <c r="J39">
-        <v>0.822782019249695</v>
+        <v>0.852690432709986</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1873,31 +1864,31 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>131.981</v>
+        <v>178.397</v>
       </c>
       <c r="C40">
-        <v>962426.556333156</v>
+        <v>1831350.58211375</v>
       </c>
       <c r="D40">
-        <v>10.34</v>
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>5.819</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>2.92559619824276</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>24.4783044022428</v>
+        <v>34.2239164554777</v>
       </c>
       <c r="H40">
         <v>10</v>
       </c>
       <c r="I40">
-        <v>38.6088034333366</v>
+        <v>75.2344901640296</v>
       </c>
       <c r="J40">
-        <v>0.852690424596235</v>
+        <v>5.18912078905607</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1905,31 +1896,31 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>178.397</v>
+        <v>140.218</v>
       </c>
       <c r="C41">
-        <v>1831350.58211375</v>
+        <v>1274192.94879532</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>7.23</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>8.7055</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>5.94147543420233</v>
       </c>
       <c r="G41">
-        <v>34.2239164554777</v>
+        <v>28.127287626786</v>
       </c>
       <c r="H41">
         <v>10</v>
       </c>
       <c r="I41">
-        <v>75.2344901640296</v>
+        <v>46.6718416514106</v>
       </c>
       <c r="J41">
-        <v>5.18912078905607</v>
+        <v>3.18626312325211</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1937,31 +1928,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>140.218</v>
+        <v>151.717</v>
       </c>
       <c r="C42">
-        <v>1274192.94879532</v>
+        <v>229974.564772054</v>
       </c>
       <c r="D42">
-        <v>7.23</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>8.7055</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>5.94147543420233</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>28.127287626786</v>
+        <v>41.0010013883929</v>
       </c>
       <c r="H42">
-        <v>10</v>
+        <v>13.0312981091365</v>
       </c>
       <c r="I42">
-        <v>46.6718416514106</v>
+        <v>70.947119519428</v>
       </c>
       <c r="J42">
-        <v>3.18626312325211</v>
+        <v>2.58401048758914</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1969,10 +1960,10 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>151.717</v>
+        <v>126.563</v>
       </c>
       <c r="C43">
-        <v>229974.564772054</v>
+        <v>862659.413376048</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -1984,16 +1975,16 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>41.0010013883929</v>
+        <v>29.1415600214873</v>
       </c>
       <c r="H43">
-        <v>13.0312981091365</v>
+        <v>10</v>
       </c>
       <c r="I43">
-        <v>70.947119519428</v>
+        <v>52.9771514504504</v>
       </c>
       <c r="J43">
-        <v>2.58401048758914</v>
+        <v>2.45963400475368</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2001,10 +1992,10 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>126.563</v>
+        <v>205.538</v>
       </c>
       <c r="C44">
-        <v>862659.413376048</v>
+        <v>1482282.67149162</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -2016,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>29.1415600214873</v>
+        <v>35.0981323033059</v>
       </c>
       <c r="H44">
-        <v>10</v>
+        <v>10.1052833089455</v>
       </c>
       <c r="I44">
-        <v>52.9771514504504</v>
+        <v>98.7483087754596</v>
       </c>
       <c r="J44">
-        <v>2.45963400475368</v>
+        <v>2.30278405007583</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2033,31 +2024,31 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>205.538</v>
+        <v>145.959</v>
       </c>
       <c r="C45">
-        <v>1482282.67149162</v>
+        <v>2981577.20469059</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>14.13</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>4.278</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>3.45337595762792</v>
       </c>
       <c r="G45">
-        <v>35.0981323033059</v>
+        <v>35.7654244532121</v>
       </c>
       <c r="H45">
-        <v>10.1052833089455</v>
+        <v>12.2579410501458</v>
       </c>
       <c r="I45">
-        <v>98.7483087754596</v>
+        <v>70.9200695418178</v>
       </c>
       <c r="J45">
-        <v>2.30278405007583</v>
+        <v>0.66621762976064</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2065,31 +2056,31 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>145.959</v>
+        <v>136.889</v>
       </c>
       <c r="C46">
-        <v>2981577.20469059</v>
+        <v>1288466.35114615</v>
       </c>
       <c r="D46">
-        <v>14.13</v>
+        <v>8.5</v>
       </c>
       <c r="E46">
-        <v>4.278</v>
+        <v>11.6725</v>
       </c>
       <c r="F46">
-        <v>3.45337595762792</v>
+        <v>8.47692314013229</v>
       </c>
       <c r="G46">
-        <v>35.7654244532121</v>
+        <v>28.8353730420083</v>
       </c>
       <c r="H46">
-        <v>12.2579410501458</v>
+        <v>10</v>
       </c>
       <c r="I46">
-        <v>70.9200695418178</v>
+        <v>53.0533329820295</v>
       </c>
       <c r="J46">
-        <v>0.66621762976064</v>
+        <v>1.53167821091335</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2097,31 +2088,31 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>136.889</v>
+        <v>137.606</v>
       </c>
       <c r="C47">
-        <v>1288466.35114615</v>
+        <v>608478.055899388</v>
       </c>
       <c r="D47">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>11.6725</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>8.47692314013229</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>28.8353730420083</v>
+        <v>28.940231987449</v>
       </c>
       <c r="H47">
         <v>10</v>
       </c>
       <c r="I47">
-        <v>53.0533329820295</v>
+        <v>57.438985282166</v>
       </c>
       <c r="J47">
-        <v>1.53167821091335</v>
+        <v>4.28840250810476</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2129,31 +2120,31 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>137.606</v>
+        <v>169.592</v>
       </c>
       <c r="C48">
-        <v>608478.055899388</v>
+        <v>2020505.5211558</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>9.92</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>17.664</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>14.5839590397331</v>
       </c>
       <c r="G48">
-        <v>28.940231987449</v>
+        <v>20.8612015839051</v>
       </c>
       <c r="H48">
         <v>10</v>
       </c>
       <c r="I48">
-        <v>57.438985282166</v>
+        <v>93.1931222575721</v>
       </c>
       <c r="J48">
-        <v>4.28840250810476</v>
+        <v>0.923906771671813</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2161,31 +2152,31 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>169.592</v>
+        <v>214.169</v>
       </c>
       <c r="C49">
-        <v>2020505.5211558</v>
+        <v>433165.204738251</v>
       </c>
       <c r="D49">
-        <v>9.92</v>
+        <v>14.25</v>
       </c>
       <c r="E49">
-        <v>17.664</v>
+        <v>22.011</v>
       </c>
       <c r="F49">
-        <v>14.5839590397331</v>
+        <v>18.3919207588041</v>
       </c>
       <c r="G49">
-        <v>20.8612015839051</v>
+        <v>28.5573966207095</v>
       </c>
       <c r="H49">
         <v>10</v>
       </c>
       <c r="I49">
-        <v>93.1931222575721</v>
+        <v>116.318108153566</v>
       </c>
       <c r="J49">
-        <v>0.923906771671813</v>
+        <v>0.678182453109685</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2193,31 +2184,31 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>214.169</v>
+        <v>166.109</v>
       </c>
       <c r="C50">
-        <v>433165.204738251</v>
+        <v>469105.617677937</v>
       </c>
       <c r="D50">
-        <v>14.25</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>22.011</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>18.3919207588041</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>28.5573966207095</v>
+        <v>39.2572211787595</v>
       </c>
       <c r="H50">
-        <v>10</v>
+        <v>11.7624572017593</v>
       </c>
       <c r="I50">
-        <v>116.318108153566</v>
+        <v>71.8845983838919</v>
       </c>
       <c r="J50">
-        <v>0.678182453109685</v>
+        <v>1.95616408461206</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2225,10 +2216,10 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>166.109</v>
+        <v>142.899</v>
       </c>
       <c r="C51">
-        <v>469105.617677937</v>
+        <v>808182.428935386</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -2240,16 +2231,16 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>39.2572211787595</v>
+        <v>41.1233924427668</v>
       </c>
       <c r="H51">
-        <v>11.7624572017593</v>
+        <v>14.3995732465961</v>
       </c>
       <c r="I51">
-        <v>71.8845983838919</v>
+        <v>70.6738267589414</v>
       </c>
       <c r="J51">
-        <v>1.95616408461206</v>
+        <v>3.53121859295389</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2257,10 +2248,10 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>142.899</v>
+        <v>132.64</v>
       </c>
       <c r="C52">
-        <v>808182.428935386</v>
+        <v>1050521.91485667</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -2272,16 +2263,16 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>41.1233924427668</v>
+        <v>41.248804075057</v>
       </c>
       <c r="H52">
-        <v>14.3995732465961</v>
+        <v>15.4237106357491</v>
       </c>
       <c r="I52">
-        <v>70.6738267589414</v>
+        <v>68.046278754859</v>
       </c>
       <c r="J52">
-        <v>3.53121859295389</v>
+        <v>4.87169516756018</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2289,31 +2280,31 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>132.64</v>
+        <v>235.621</v>
       </c>
       <c r="C53">
-        <v>1050521.91485667</v>
+        <v>2444446.17134412</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>8.49</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>12.351</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>10.6078511915737</v>
       </c>
       <c r="G53">
-        <v>41.248804075057</v>
+        <v>41.2615084591602</v>
       </c>
       <c r="H53">
-        <v>15.4237106357491</v>
+        <v>10.3966925918505</v>
       </c>
       <c r="I53">
-        <v>68.046278754859</v>
+        <v>161.144497878964</v>
       </c>
       <c r="J53">
-        <v>4.87169516756018</v>
+        <v>0.454132365957854</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2321,31 +2312,31 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>235.621</v>
+        <v>182.388</v>
       </c>
       <c r="C54">
-        <v>2444446.17134412</v>
+        <v>2854701.4824351</v>
       </c>
       <c r="D54">
-        <v>8.49</v>
+        <v>17.58</v>
       </c>
       <c r="E54">
-        <v>12.351</v>
+        <v>17.112</v>
       </c>
       <c r="F54">
-        <v>10.6078511915737</v>
+        <v>14.3089732837144</v>
       </c>
       <c r="G54">
-        <v>41.2615084591602</v>
+        <v>28.1410282253697</v>
       </c>
       <c r="H54">
-        <v>10.3966925918505</v>
+        <v>10</v>
       </c>
       <c r="I54">
-        <v>161.144497879907</v>
+        <v>104.067885985412</v>
       </c>
       <c r="J54">
-        <v>0.454132366704446</v>
+        <v>0.50965337778241</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2353,31 +2344,31 @@
         <v>63</v>
       </c>
       <c r="B55">
-        <v>182.388</v>
+        <v>179.092</v>
       </c>
       <c r="C55">
-        <v>2854701.4824351</v>
+        <v>2055103.11595472</v>
       </c>
       <c r="D55">
-        <v>17.58</v>
+        <v>17.61</v>
       </c>
       <c r="E55">
-        <v>17.112</v>
+        <v>1.472</v>
       </c>
       <c r="F55">
-        <v>14.3089732837144</v>
+        <v>1.20701781039144</v>
       </c>
       <c r="G55">
-        <v>28.1410282253697</v>
+        <v>19.0092306563477</v>
       </c>
       <c r="H55">
         <v>10</v>
       </c>
       <c r="I55">
-        <v>104.067885985623</v>
+        <v>97.6879365946273</v>
       </c>
       <c r="J55">
-        <v>0.509653377477311</v>
+        <v>0.114129835691022</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2385,31 +2376,31 @@
         <v>64</v>
       </c>
       <c r="B56">
-        <v>179.092</v>
+        <v>294.404</v>
       </c>
       <c r="C56">
-        <v>2055103.11595472</v>
+        <v>2678553.46348061</v>
       </c>
       <c r="D56">
-        <v>17.61</v>
+        <v>16.23</v>
       </c>
       <c r="E56">
-        <v>1.472</v>
+        <v>2.553</v>
       </c>
       <c r="F56">
-        <v>1.20701781039144</v>
+        <v>2.19837723130137</v>
       </c>
       <c r="G56">
-        <v>19.0092306563477</v>
+        <v>40.7993142799703</v>
       </c>
       <c r="H56">
-        <v>10</v>
+        <v>10.6425721398091</v>
       </c>
       <c r="I56">
-        <v>97.6879365946273</v>
+        <v>223.647045697828</v>
       </c>
       <c r="J56">
-        <v>0.114129835691022</v>
+        <v>0.0363150704125074</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2417,31 +2408,31 @@
         <v>65</v>
       </c>
       <c r="B57">
-        <v>294.404</v>
+        <v>121.06</v>
       </c>
       <c r="C57">
-        <v>2678553.46348061</v>
+        <v>288015.178598222</v>
       </c>
       <c r="D57">
-        <v>16.23</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>2.553</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>2.19837723130137</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>40.7993142799703</v>
+        <v>38.4200350713085</v>
       </c>
       <c r="H57">
-        <v>10.6425721398091</v>
+        <v>11.2339824144241</v>
       </c>
       <c r="I57">
-        <v>223.647045697828</v>
+        <v>54.2606243038912</v>
       </c>
       <c r="J57">
-        <v>0.0363150704125074</v>
+        <v>4.06735348826303</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2449,31 +2440,31 @@
         <v>66</v>
       </c>
       <c r="B58">
-        <v>121.06</v>
+        <v>134.968</v>
       </c>
       <c r="C58">
-        <v>288015.178598222</v>
+        <v>753363.084895201</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>11.87</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>9.131</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>6.74770920970798</v>
       </c>
       <c r="G58">
-        <v>38.4200350713085</v>
+        <v>29.0019172186821</v>
       </c>
       <c r="H58">
-        <v>11.2339824144241</v>
+        <v>10</v>
       </c>
       <c r="I58">
-        <v>54.2606243038912</v>
+        <v>56.6619329884778</v>
       </c>
       <c r="J58">
-        <v>4.06735348826303</v>
+        <v>1.17184473865992</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2481,31 +2472,31 @@
         <v>67</v>
       </c>
       <c r="B59">
-        <v>134.968</v>
+        <v>107.685</v>
       </c>
       <c r="C59">
-        <v>753363.084895201</v>
+        <v>518718.742502788</v>
       </c>
       <c r="D59">
-        <v>11.87</v>
+        <v>23.94</v>
       </c>
       <c r="E59">
-        <v>9.131</v>
+        <v>0.0575</v>
       </c>
       <c r="F59">
-        <v>6.74770920970798</v>
+        <v>0.0414913493520872</v>
       </c>
       <c r="G59">
-        <v>29.0019172186821</v>
+        <v>28.5538860754928</v>
       </c>
       <c r="H59">
         <v>10</v>
       </c>
       <c r="I59">
-        <v>56.6619329884778</v>
+        <v>44.7977029013563</v>
       </c>
       <c r="J59">
-        <v>1.17184473865992</v>
+        <v>0.108758925653508</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2513,31 +2504,31 @@
         <v>68</v>
       </c>
       <c r="B60">
-        <v>107.685</v>
+        <v>142.671</v>
       </c>
       <c r="C60">
-        <v>518718.742502788</v>
+        <v>760233.378851882</v>
       </c>
       <c r="D60">
-        <v>23.94</v>
+        <v>2</v>
       </c>
       <c r="E60">
-        <v>0.0575</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.0414913493520872</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>28.5538860754928</v>
+        <v>34.1538423622197</v>
       </c>
       <c r="H60">
         <v>10</v>
       </c>
       <c r="I60">
-        <v>44.7977029013563</v>
+        <v>61.4875539263144</v>
       </c>
       <c r="J60">
-        <v>0.108758925653508</v>
+        <v>1.96319706454222</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2545,31 +2536,31 @@
         <v>69</v>
       </c>
       <c r="B61">
-        <v>142.671</v>
+        <v>191.36</v>
       </c>
       <c r="C61">
-        <v>760233.378851882</v>
+        <v>1424914.17073343</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>6.51</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.929471728937235</v>
       </c>
       <c r="G61">
-        <v>34.1538423622197</v>
+        <v>34.9683979732136</v>
       </c>
       <c r="H61">
-        <v>10</v>
+        <v>12.7583396548576</v>
       </c>
       <c r="I61">
-        <v>61.4875539263144</v>
+        <v>88.6650576382466</v>
       </c>
       <c r="J61">
-        <v>1.96319706454222</v>
+        <v>0.127126130758462</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2577,31 +2568,31 @@
         <v>70</v>
       </c>
       <c r="B62">
-        <v>191.36</v>
+        <v>141.614</v>
       </c>
       <c r="C62">
-        <v>1424914.17073343</v>
+        <v>407424.6404592</v>
       </c>
       <c r="D62">
-        <v>6.51</v>
+        <v>2</v>
       </c>
       <c r="E62">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.929471728937235</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>34.9683979732136</v>
+        <v>31.9645417916082</v>
       </c>
       <c r="H62">
-        <v>12.7583396548576</v>
+        <v>10</v>
       </c>
       <c r="I62">
-        <v>88.6650575752621</v>
+        <v>61.2199969966287</v>
       </c>
       <c r="J62">
-        <v>0.127125535136273</v>
+        <v>1.1868510540704</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2609,31 +2600,31 @@
         <v>71</v>
       </c>
       <c r="B63">
-        <v>141.614</v>
+        <v>113.736</v>
       </c>
       <c r="C63">
-        <v>407424.6404592</v>
+        <v>784135.419521753</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>7.14</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>8.579</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>6.40726443005721</v>
       </c>
       <c r="G63">
-        <v>31.9645417916082</v>
+        <v>30.343632332348</v>
       </c>
       <c r="H63">
         <v>10</v>
       </c>
       <c r="I63">
-        <v>61.2199969966287</v>
+        <v>47.5500352040935</v>
       </c>
       <c r="J63">
-        <v>1.1868510540704</v>
+        <v>1.86209826451957</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2641,31 +2632,31 @@
         <v>72</v>
       </c>
       <c r="B64">
-        <v>113.736</v>
+        <v>139.481</v>
       </c>
       <c r="C64">
-        <v>784135.419521753</v>
+        <v>457632.980184378</v>
       </c>
       <c r="D64">
-        <v>7.14</v>
+        <v>2</v>
       </c>
       <c r="E64">
-        <v>8.579</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>6.40726443005721</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>30.343632332348</v>
+        <v>31.850421402075</v>
       </c>
       <c r="H64">
         <v>10</v>
       </c>
       <c r="I64">
-        <v>47.550035204513</v>
+        <v>59.8485362624961</v>
       </c>
       <c r="J64">
-        <v>1.86209826236404</v>
+        <v>2.17748317852641</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2673,31 +2664,31 @@
         <v>73</v>
       </c>
       <c r="B65">
-        <v>109.666</v>
+        <v>190.392</v>
       </c>
       <c r="C65">
-        <v>739823.241271958</v>
+        <v>1318604.09835682</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>10.72</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>13.6965</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>11.555515223702</v>
       </c>
       <c r="G65">
-        <v>33.3075438476568</v>
+        <v>26.52806518946</v>
       </c>
       <c r="H65">
         <v>10</v>
       </c>
       <c r="I65">
-        <v>42.4657802226703</v>
+        <v>113.415554233896</v>
       </c>
       <c r="J65">
-        <v>16.2438546301432</v>
+        <v>0.55121609168904</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2705,10 +2696,10 @@
         <v>74</v>
       </c>
       <c r="B66">
-        <v>139.481</v>
+        <v>200.64</v>
       </c>
       <c r="C66">
-        <v>457632.980184378</v>
+        <v>784152.05342662</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -2720,16 +2711,16 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>31.850421402075</v>
+        <v>27.1055299470911</v>
       </c>
       <c r="H66">
         <v>10</v>
       </c>
       <c r="I66">
-        <v>59.8485362624961</v>
+        <v>121.607273875777</v>
       </c>
       <c r="J66">
-        <v>2.17748317852641</v>
+        <v>0.246864559581378</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2737,31 +2728,31 @@
         <v>75</v>
       </c>
       <c r="B67">
-        <v>190.392</v>
+        <v>110.122</v>
       </c>
       <c r="C67">
-        <v>1318604.09835682</v>
+        <v>987514.071557479</v>
       </c>
       <c r="D67">
-        <v>10.72</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>13.6965</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>11.555515223702</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>26.52806518946</v>
+        <v>31.5328319177625</v>
       </c>
       <c r="H67">
         <v>10</v>
       </c>
       <c r="I67">
-        <v>113.415554233896</v>
+        <v>44.7154129161232</v>
       </c>
       <c r="J67">
-        <v>0.55121609168904</v>
+        <v>2.15636458703158</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2769,31 +2760,31 @@
         <v>76</v>
       </c>
       <c r="B68">
-        <v>123.225</v>
+        <v>168.131</v>
       </c>
       <c r="C68">
-        <v>376099.907127143</v>
+        <v>1841096.51798489</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>15.31</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>4.9565</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>4.00536243063978</v>
       </c>
       <c r="G68">
-        <v>40.2820441475505</v>
+        <v>40.3643010697264</v>
       </c>
       <c r="H68">
-        <v>12.8247562934364</v>
+        <v>12.9130326981283</v>
       </c>
       <c r="I68">
-        <v>53.5948009758274</v>
+        <v>75.1929464232165</v>
       </c>
       <c r="J68">
-        <v>30.4287919186434</v>
+        <v>0.496763653718001</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2801,10 +2792,10 @@
         <v>77</v>
       </c>
       <c r="B69">
-        <v>200.64</v>
+        <v>128.98</v>
       </c>
       <c r="C69">
-        <v>784152.05342662</v>
+        <v>603939.320198821</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -2816,112 +2807,16 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>27.1055299470911</v>
+        <v>36.105408341903</v>
       </c>
       <c r="H69">
         <v>10</v>
       </c>
       <c r="I69">
-        <v>121.607273875777</v>
+        <v>52.0418667792367</v>
       </c>
       <c r="J69">
-        <v>0.246864559581378</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70">
-        <v>110.122</v>
-      </c>
-      <c r="C70">
-        <v>987514.071557479</v>
-      </c>
-      <c r="D70">
-        <v>2</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>31.5328319177625</v>
-      </c>
-      <c r="H70">
-        <v>10</v>
-      </c>
-      <c r="I70">
-        <v>44.7154129161232</v>
-      </c>
-      <c r="J70">
-        <v>2.15636458703158</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B71">
-        <v>168.131</v>
-      </c>
-      <c r="C71">
-        <v>1841096.51798489</v>
-      </c>
-      <c r="D71">
-        <v>15.31</v>
-      </c>
-      <c r="E71">
-        <v>4.9565</v>
-      </c>
-      <c r="F71">
-        <v>4.00536243063978</v>
-      </c>
-      <c r="G71">
-        <v>40.3643010697264</v>
-      </c>
-      <c r="H71">
-        <v>12.9130326981283</v>
-      </c>
-      <c r="I71">
-        <v>75.1929464232165</v>
-      </c>
-      <c r="J71">
-        <v>0.496763653718001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B72">
-        <v>128.98</v>
-      </c>
-      <c r="C72">
-        <v>603939.320198821</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>36.105408341903</v>
-      </c>
-      <c r="H72">
-        <v>10</v>
-      </c>
-      <c r="I72">
-        <v>52.0418667800108</v>
-      </c>
-      <c r="J72">
-        <v>0.567113072580333</v>
+        <v>0.567113050617978</v>
       </c>
     </row>
   </sheetData>

--- a/results/main results.xlsx
+++ b/results/main results.xlsx
@@ -669,10 +669,10 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>68.8396393450271</v>
+        <v>57.8142511209074</v>
       </c>
       <c r="J2">
-        <v>1.37574730639715</v>
+        <v>1.14667512933704</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -701,10 +701,10 @@
         <v>10</v>
       </c>
       <c r="I3">
-        <v>76.3948630936144</v>
+        <v>68.5503567837963</v>
       </c>
       <c r="J3">
-        <v>3.77272208037433</v>
+        <v>2.94311540070651</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -733,10 +733,10 @@
         <v>10</v>
       </c>
       <c r="I4">
-        <v>53.5643097673483</v>
+        <v>47.667088164329</v>
       </c>
       <c r="J4">
-        <v>1.97311984875245</v>
+        <v>1.55205960338143</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -765,10 +765,10 @@
         <v>13.5089223583236</v>
       </c>
       <c r="I5">
-        <v>62.5309199132433</v>
+        <v>53.7366859169647</v>
       </c>
       <c r="J5">
-        <v>7.4544062193428</v>
+        <v>6.0720457401476</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -797,10 +797,10 @@
         <v>10</v>
       </c>
       <c r="I6">
-        <v>66.7573719388958</v>
+        <v>59.6838895230991</v>
       </c>
       <c r="J6">
-        <v>0.466721810416439</v>
+        <v>0.365424995208038</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -829,10 +829,10 @@
         <v>12.5227041089264</v>
       </c>
       <c r="I7">
-        <v>62.2176913875065</v>
+        <v>53.9102408101085</v>
       </c>
       <c r="J7">
-        <v>4.23754188423842</v>
+        <v>3.4233764951393</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -861,10 +861,10 @@
         <v>10</v>
       </c>
       <c r="I8">
-        <v>65.1329725267566</v>
+        <v>54.5526674657388</v>
       </c>
       <c r="J8">
-        <v>0.0430481849204884</v>
+        <v>0.0359780641938304</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -893,10 +893,10 @@
         <v>10</v>
       </c>
       <c r="I9">
-        <v>93.5162382163823</v>
+        <v>79.951464751233</v>
       </c>
       <c r="J9">
-        <v>0.822533610296165</v>
+        <v>0.673460761432462</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -925,10 +925,10 @@
         <v>10.9018519019815</v>
       </c>
       <c r="I10">
-        <v>53.1011244973587</v>
+        <v>48.9538140110049</v>
       </c>
       <c r="J10">
-        <v>0.932346496967705</v>
+        <v>0.707933669464856</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -957,10 +957,10 @@
         <v>10.4698863866378</v>
       </c>
       <c r="I11">
-        <v>202.40542211058</v>
+        <v>174.028351968192</v>
       </c>
       <c r="J11">
-        <v>0.0853839682650955</v>
+        <v>0.0695146771195778</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -989,10 +989,10 @@
         <v>10</v>
       </c>
       <c r="I12">
-        <v>131.387725849335</v>
+        <v>113.244303031102</v>
       </c>
       <c r="J12">
-        <v>0.0361424552145284</v>
+        <v>0.0293531101265279</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1021,10 +1021,10 @@
         <v>11.3920550286055</v>
       </c>
       <c r="I13">
-        <v>113.289720317717</v>
+        <v>100.449771312871</v>
       </c>
       <c r="J13">
-        <v>2.3607763563082</v>
+        <v>1.86377910820784</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1053,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>66.7670265742429</v>
+        <v>59.1222370096491</v>
       </c>
       <c r="J14">
-        <v>1.85085283698692</v>
+        <v>1.46312390670138</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1085,10 +1085,10 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>60.034618765001</v>
+        <v>53.1374009371612</v>
       </c>
       <c r="J15">
-        <v>0.256034135291778</v>
+        <v>0.202487099526604</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1117,10 +1117,10 @@
         <v>10.4395897258309</v>
       </c>
       <c r="I16">
-        <v>176.976252415339</v>
+        <v>152.36675227434</v>
       </c>
       <c r="J16">
-        <v>0.0630515826001046</v>
+        <v>0.0512647466826093</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1149,10 +1149,10 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>96.0220780522929</v>
+        <v>84.2161409076969</v>
       </c>
       <c r="J17">
-        <v>0.848932383321621</v>
+        <v>0.677558666137886</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1181,10 +1181,10 @@
         <v>11.1268127867627</v>
       </c>
       <c r="I18">
-        <v>70.1056119448422</v>
+        <v>62.2078066757513</v>
       </c>
       <c r="J18">
-        <v>3.18269563539038</v>
+        <v>2.51073596632907</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1213,10 +1213,10 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>64.3015767159756</v>
+        <v>57.4714906285322</v>
       </c>
       <c r="J19">
-        <v>1.09990706895381</v>
+        <v>0.861436350456613</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1245,10 +1245,10 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>61.5414639214857</v>
+        <v>54.4067501362869</v>
       </c>
       <c r="J20">
-        <v>1.79766128527224</v>
+        <v>1.42338027537861</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1277,10 +1277,10 @@
         <v>13.063852224195</v>
       </c>
       <c r="I21">
-        <v>90.9727189576094</v>
+        <v>78.8466502962675</v>
       </c>
       <c r="J21">
-        <v>0.977917489267218</v>
+        <v>0.789820097700896</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1309,10 +1309,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>99.9215271404641</v>
+        <v>89.9928097437635</v>
       </c>
       <c r="J22">
-        <v>0.904808167152098</v>
+        <v>0.703243624261739</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1341,10 +1341,10 @@
         <v>11.297762957612</v>
       </c>
       <c r="I23">
-        <v>231.112270358773</v>
+        <v>196.902829321901</v>
       </c>
       <c r="J23">
-        <v>0.616010888101669</v>
+        <v>0.506124634082877</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1373,10 +1373,10 @@
         <v>12.3401195342912</v>
       </c>
       <c r="I24">
-        <v>109.875719767477</v>
+        <v>95.9170290711878</v>
       </c>
       <c r="J24">
-        <v>1.17834510775705</v>
+        <v>0.944879784873655</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1405,10 +1405,10 @@
         <v>10</v>
       </c>
       <c r="I25">
-        <v>60.3590830258378</v>
+        <v>53.9518698871255</v>
       </c>
       <c r="J25">
-        <v>0.472571679813198</v>
+        <v>0.370085324605548</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1437,10 +1437,10 @@
         <v>10</v>
       </c>
       <c r="I26">
-        <v>68.7619813803193</v>
+        <v>61.6124849372205</v>
       </c>
       <c r="J26">
-        <v>0.245048515882566</v>
+        <v>0.191438716560332</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1469,10 +1469,10 @@
         <v>11.3389942290189</v>
       </c>
       <c r="I27">
-        <v>93.5538526452354</v>
+        <v>83.1257884455178</v>
       </c>
       <c r="J27">
-        <v>0.340693730006379</v>
+        <v>0.268403441665325</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1501,10 +1501,10 @@
         <v>10</v>
       </c>
       <c r="I28">
-        <v>43.1723893482957</v>
+        <v>38.3759794513201</v>
       </c>
       <c r="J28">
-        <v>1.5873153411179</v>
+        <v>1.24999381992412</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1533,10 +1533,10 @@
         <v>10</v>
       </c>
       <c r="I29">
-        <v>49.8823714098858</v>
+        <v>43.9918274480981</v>
       </c>
       <c r="J29">
-        <v>4.16395627152434</v>
+        <v>3.30505954682218</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1565,10 +1565,10 @@
         <v>13.4735860125326</v>
       </c>
       <c r="I30">
-        <v>85.9888452683564</v>
+        <v>74.1975120965447</v>
       </c>
       <c r="J30">
-        <v>4.07607464769114</v>
+        <v>3.30668589276371</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1597,10 +1597,10 @@
         <v>10</v>
       </c>
       <c r="I31">
-        <v>74.5794344870244</v>
+        <v>62.6207099763113</v>
       </c>
       <c r="J31">
-        <v>0.453363712389705</v>
+        <v>0.377960047240393</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1629,10 +1629,10 @@
         <v>11.069009836215</v>
       </c>
       <c r="I32">
-        <v>127.483960559586</v>
+        <v>107.480066366825</v>
       </c>
       <c r="J32">
-        <v>0.07947540173113</v>
+        <v>0.0659870013628236</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1661,10 +1661,10 @@
         <v>10</v>
       </c>
       <c r="I33">
-        <v>102.890550057225</v>
+        <v>87.7746701145624</v>
       </c>
       <c r="J33">
-        <v>0.105784534032504</v>
+        <v>0.086801354148776</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1693,10 +1693,10 @@
         <v>10</v>
       </c>
       <c r="I34">
-        <v>87.7385173434673</v>
+        <v>76.8021016113129</v>
       </c>
       <c r="J34">
-        <v>0.61344264552188</v>
+        <v>0.490556676769261</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1725,10 +1725,10 @@
         <v>10</v>
       </c>
       <c r="I35">
-        <v>97.6976547281073</v>
+        <v>82.2826770653176</v>
       </c>
       <c r="J35">
-        <v>0.486188269757302</v>
+        <v>0.404090129101282</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1757,10 +1757,10 @@
         <v>10</v>
       </c>
       <c r="I36">
-        <v>122.445645558888</v>
+        <v>104.642266287837</v>
       </c>
       <c r="J36">
-        <v>0.0432557567002503</v>
+        <v>0.035430571879168</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1789,10 +1789,10 @@
         <v>10.5971668934738</v>
       </c>
       <c r="I37">
-        <v>178.979252887789</v>
+        <v>153.807269543548</v>
       </c>
       <c r="J37">
-        <v>0.0652959679132217</v>
+        <v>0.0531875802220728</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1821,10 +1821,10 @@
         <v>10</v>
       </c>
       <c r="I38">
-        <v>66.6870826379773</v>
+        <v>59.0651909975215</v>
       </c>
       <c r="J38">
-        <v>0.822782019249695</v>
+        <v>0.650268831927321</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1853,10 +1853,10 @@
         <v>10</v>
       </c>
       <c r="I39">
-        <v>38.608803433681</v>
+        <v>35.4400722039278</v>
       </c>
       <c r="J39">
-        <v>0.852690432709986</v>
+        <v>0.650251217937477</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1885,10 +1885,10 @@
         <v>10</v>
       </c>
       <c r="I40">
-        <v>75.2344901640296</v>
+        <v>67.1192693785723</v>
       </c>
       <c r="J40">
-        <v>5.18912078905607</v>
+        <v>4.07156696437737</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1917,10 +1917,10 @@
         <v>10</v>
       </c>
       <c r="I41">
-        <v>46.6718416514106</v>
+        <v>43.0496207837941</v>
       </c>
       <c r="J41">
-        <v>3.18626312325211</v>
+        <v>2.41805004709572</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1949,10 +1949,10 @@
         <v>13.0312981091365</v>
       </c>
       <c r="I42">
-        <v>70.947119519428</v>
+        <v>62.5485286648001</v>
       </c>
       <c r="J42">
-        <v>2.58401048758914</v>
+        <v>2.05168168414373</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1981,10 +1981,10 @@
         <v>10</v>
       </c>
       <c r="I43">
-        <v>52.9771514504504</v>
+        <v>47.0973609197687</v>
       </c>
       <c r="J43">
-        <v>2.45963400475368</v>
+        <v>1.93669200240631</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2013,10 +2013,10 @@
         <v>10.1052833089455</v>
       </c>
       <c r="I44">
-        <v>98.7483087754596</v>
+        <v>88.360306153749</v>
       </c>
       <c r="J44">
-        <v>2.30278405007583</v>
+        <v>1.80145619931524</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2045,10 +2045,10 @@
         <v>12.2579410501458</v>
       </c>
       <c r="I45">
-        <v>70.9200695418178</v>
+        <v>61.7515095271216</v>
       </c>
       <c r="J45">
-        <v>0.66621762976064</v>
+        <v>0.535594039661502</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2077,10 +2077,10 @@
         <v>10</v>
       </c>
       <c r="I46">
-        <v>53.0533329820295</v>
+        <v>47.7763860334971</v>
       </c>
       <c r="J46">
-        <v>1.53167821091335</v>
+        <v>1.19059746087852</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2109,10 +2109,10 @@
         <v>10</v>
       </c>
       <c r="I47">
-        <v>57.438985282166</v>
+        <v>50.8966173498472</v>
       </c>
       <c r="J47">
-        <v>4.28840250810476</v>
+        <v>3.38775052176313</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2141,10 +2141,10 @@
         <v>10</v>
       </c>
       <c r="I48">
-        <v>93.1931222575721</v>
+        <v>79.8298104624052</v>
       </c>
       <c r="J48">
-        <v>0.923906771671813</v>
+        <v>0.7549965277356</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2173,10 +2173,10 @@
         <v>10</v>
       </c>
       <c r="I49">
-        <v>116.318108153566</v>
+        <v>102.176001881469</v>
       </c>
       <c r="J49">
-        <v>0.678182453109685</v>
+        <v>0.540434436005065</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2205,10 +2205,10 @@
         <v>11.7624572017593</v>
       </c>
       <c r="I50">
-        <v>71.8845983838919</v>
+        <v>64.0360890718191</v>
       </c>
       <c r="J50">
-        <v>1.95616408461206</v>
+        <v>1.53714335374753</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2237,10 +2237,10 @@
         <v>14.3995732465961</v>
       </c>
       <c r="I51">
-        <v>70.6738267589414</v>
+        <v>61.6160438737815</v>
       </c>
       <c r="J51">
-        <v>3.53121859295389</v>
+        <v>2.83522441197818</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2269,10 +2269,10 @@
         <v>15.4237106357491</v>
       </c>
       <c r="I52">
-        <v>68.046278754859</v>
+        <v>58.8177956906702</v>
       </c>
       <c r="J52">
-        <v>4.87169516756018</v>
+        <v>3.94524321153977</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2301,10 +2301,10 @@
         <v>10.3966925918505</v>
       </c>
       <c r="I53">
-        <v>161.144497878964</v>
+        <v>138.584750845535</v>
       </c>
       <c r="J53">
-        <v>0.454132365957854</v>
+        <v>0.369641336044985</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2333,10 +2333,10 @@
         <v>10</v>
       </c>
       <c r="I54">
-        <v>104.067885985412</v>
+        <v>88.8500452300848</v>
       </c>
       <c r="J54">
-        <v>0.50965337778241</v>
+        <v>0.417861179830064</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2365,10 +2365,10 @@
         <v>10</v>
       </c>
       <c r="I55">
-        <v>97.6879365946273</v>
+        <v>83.8236587682641</v>
       </c>
       <c r="J55">
-        <v>0.114129835691022</v>
+        <v>0.0931046893139511</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2397,10 +2397,10 @@
         <v>10.6425721398091</v>
       </c>
       <c r="I56">
-        <v>223.647045697828</v>
+        <v>192.536511549772</v>
       </c>
       <c r="J56">
-        <v>0.0363150704125074</v>
+        <v>0.0295280656260174</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2429,10 +2429,10 @@
         <v>11.2339824144241</v>
       </c>
       <c r="I57">
-        <v>54.2606243038912</v>
+        <v>48.3547453281984</v>
       </c>
       <c r="J57">
-        <v>4.06735348826303</v>
+        <v>3.19488804310468</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2461,10 +2461,10 @@
         <v>10</v>
       </c>
       <c r="I58">
-        <v>56.6619329884778</v>
+        <v>50.2046566543554</v>
       </c>
       <c r="J58">
-        <v>1.17184473865992</v>
+        <v>0.925796424789652</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2493,10 +2493,10 @@
         <v>10</v>
       </c>
       <c r="I59">
-        <v>44.7977029013563</v>
+        <v>40.2537803466643</v>
       </c>
       <c r="J59">
-        <v>0.108758925653508</v>
+        <v>0.084725086641215</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2525,10 +2525,10 @@
         <v>10</v>
       </c>
       <c r="I60">
-        <v>61.4875539263144</v>
+        <v>54.9120410421795</v>
       </c>
       <c r="J60">
-        <v>1.96319706454222</v>
+        <v>1.53879783300915</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2557,10 +2557,10 @@
         <v>12.7583396548576</v>
       </c>
       <c r="I61">
-        <v>88.6650576382466</v>
+        <v>78.6242504436798</v>
       </c>
       <c r="J61">
-        <v>0.127126130758462</v>
+        <v>0.100352651417266</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2589,10 +2589,10 @@
         <v>10</v>
       </c>
       <c r="I62">
-        <v>61.2199969966287</v>
+        <v>54.3810835050645</v>
       </c>
       <c r="J62">
-        <v>1.1868510540704</v>
+        <v>0.935275821990715</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2621,10 +2621,10 @@
         <v>10</v>
       </c>
       <c r="I63">
-        <v>47.5500352040935</v>
+        <v>42.8014758350071</v>
       </c>
       <c r="J63">
-        <v>1.86209826451957</v>
+        <v>1.44808059565268</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2653,10 +2653,10 @@
         <v>10</v>
       </c>
       <c r="I64">
-        <v>59.8485362624961</v>
+        <v>53.4054015966874</v>
       </c>
       <c r="J64">
-        <v>2.17748317852641</v>
+        <v>1.70813108697544</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2685,10 +2685,10 @@
         <v>10</v>
       </c>
       <c r="I65">
-        <v>113.415554233896</v>
+        <v>97.4499647510616</v>
       </c>
       <c r="J65">
-        <v>0.55121609168904</v>
+        <v>0.44906670916586</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2717,10 +2717,10 @@
         <v>10</v>
       </c>
       <c r="I66">
-        <v>121.607273875777</v>
+        <v>104.530379904689</v>
       </c>
       <c r="J66">
-        <v>0.246864559581378</v>
+        <v>0.20103598871664</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2749,10 +2749,10 @@
         <v>10</v>
       </c>
       <c r="I67">
-        <v>44.7154129161232</v>
+        <v>40.4996256846658</v>
       </c>
       <c r="J67">
-        <v>2.15636458703158</v>
+        <v>1.66658115707799</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2781,10 +2781,10 @@
         <v>12.9130326981283</v>
       </c>
       <c r="I68">
-        <v>75.1929464232165</v>
+        <v>67.1860934182029</v>
       </c>
       <c r="J68">
-        <v>0.496763653718001</v>
+        <v>0.389175566386319</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2813,10 +2813,10 @@
         <v>10</v>
       </c>
       <c r="I69">
-        <v>52.0418667792367</v>
+        <v>47.3321002154027</v>
       </c>
       <c r="J69">
-        <v>0.567113050617978</v>
+        <v>0.436480426313222</v>
       </c>
     </row>
   </sheetData>

--- a/results/main results.xlsx
+++ b/results/main results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t xml:space="preserve"> Average income in the province</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Davao Oriental</t>
   </si>
   <si>
-    <t>Eastern Samar</t>
-  </si>
-  <si>
     <t>Guimaras</t>
   </si>
   <si>
@@ -157,15 +154,9 @@
     <t>Lanao Del Norte</t>
   </si>
   <si>
-    <t>Lanao Del Sur</t>
-  </si>
-  <si>
     <t>Leyte</t>
   </si>
   <si>
-    <t>Maguindanao</t>
-  </si>
-  <si>
     <t>Marinduque</t>
   </si>
   <si>
@@ -217,9 +208,6 @@
     <t>Samar</t>
   </si>
   <si>
-    <t>Sarangani</t>
-  </si>
-  <si>
     <t>Sorsogon</t>
   </si>
   <si>
@@ -239,9 +227,6 @@
   </si>
   <si>
     <t>Zambales</t>
-  </si>
-  <si>
-    <t>Zamboanga Del Norte</t>
   </si>
   <si>
     <t>Zamboanga Del Sur</t>
@@ -605,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,7 +633,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>133.688</v>
+        <v>31.622466195801</v>
       </c>
       <c r="C2">
         <v>240135.244121424</v>
@@ -669,10 +654,10 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>57.8142511209074</v>
+        <v>96.4504776638803</v>
       </c>
       <c r="J2">
-        <v>1.14667512933704</v>
+        <v>0.941396585815174</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -680,7 +665,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>179.014</v>
+        <v>43.7266667519172</v>
       </c>
       <c r="C3">
         <v>661728.454375173</v>
@@ -701,10 +686,10 @@
         <v>10</v>
       </c>
       <c r="I3">
-        <v>68.5503567837963</v>
+        <v>175.179265056571</v>
       </c>
       <c r="J3">
-        <v>2.94311540070651</v>
+        <v>2.06219162962087</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -712,7 +697,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>126.492</v>
+        <v>30.8974355680757</v>
       </c>
       <c r="C4">
         <v>677779.68215436</v>
@@ -733,10 +718,10 @@
         <v>10</v>
       </c>
       <c r="I4">
-        <v>47.667088164329</v>
+        <v>129.827667602045</v>
       </c>
       <c r="J4">
-        <v>1.55205960338143</v>
+        <v>1.19281565900652</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -744,7 +729,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>119.962</v>
+        <v>30.5156520200998</v>
       </c>
       <c r="C5">
         <v>554414.442422447</v>
@@ -765,10 +750,10 @@
         <v>13.5089223583236</v>
       </c>
       <c r="I5">
-        <v>53.7366859169647</v>
+        <v>112.551472835145</v>
       </c>
       <c r="J5">
-        <v>6.0720457401476</v>
+        <v>4.64729300614574</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -776,7 +761,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>158.629</v>
+        <v>33.7933125983381</v>
       </c>
       <c r="C6">
         <v>1264097.89496566</v>
@@ -797,10 +782,10 @@
         <v>10</v>
       </c>
       <c r="I6">
-        <v>59.6838895230991</v>
+        <v>147.574720354231</v>
       </c>
       <c r="J6">
-        <v>0.365424995208038</v>
+        <v>0.313039611913027</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -808,7 +793,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>124.667</v>
+        <v>31.7124988778928</v>
       </c>
       <c r="C7">
         <v>561980.471778846</v>
@@ -829,10 +814,10 @@
         <v>12.5227041089264</v>
       </c>
       <c r="I7">
-        <v>53.9102408101085</v>
+        <v>123.934902042911</v>
       </c>
       <c r="J7">
-        <v>3.4233764951393</v>
+        <v>2.54338372810986</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -840,7 +825,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>158.732</v>
+        <v>37.5463564732204</v>
       </c>
       <c r="C8">
         <v>116022.676390039</v>
@@ -861,10 +846,10 @@
         <v>10</v>
       </c>
       <c r="I8">
-        <v>54.5526674657388</v>
+        <v>122.25089159501</v>
       </c>
       <c r="J8">
-        <v>0.0359780641938304</v>
+        <v>0.0243917181422522</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -872,7 +857,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>175.235</v>
+        <v>40.970819598135</v>
       </c>
       <c r="C9">
         <v>207219.483546468</v>
@@ -893,10 +878,10 @@
         <v>10</v>
       </c>
       <c r="I9">
-        <v>79.951464751233</v>
+        <v>138.414591113531</v>
       </c>
       <c r="J9">
-        <v>0.673460761432462</v>
+        <v>0.522202358302371</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -904,7 +889,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>134.8675</v>
+        <v>27.0121518182964</v>
       </c>
       <c r="C10">
         <v>404023.538097355</v>
@@ -925,10 +910,10 @@
         <v>10.9018519019815</v>
       </c>
       <c r="I10">
-        <v>48.9538140110049</v>
+        <v>108.178841950159</v>
       </c>
       <c r="J10">
-        <v>0.707933669464856</v>
+        <v>0.718684899904345</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -936,7 +921,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>277.019</v>
+        <v>64.7684279639099</v>
       </c>
       <c r="C11">
         <v>716869.090163479</v>
@@ -957,10 +942,10 @@
         <v>10.4698863866378</v>
       </c>
       <c r="I11">
-        <v>174.028351968192</v>
+        <v>231.8479384308</v>
       </c>
       <c r="J11">
-        <v>0.0695146771195778</v>
+        <v>0.059941570972406</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -968,7 +953,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>219.272</v>
+        <v>49.7660716793741</v>
       </c>
       <c r="C12">
         <v>2485002.05546474</v>
@@ -989,10 +974,10 @@
         <v>10</v>
       </c>
       <c r="I12">
-        <v>113.244303031102</v>
+        <v>167.285087955073</v>
       </c>
       <c r="J12">
-        <v>0.0293531101265279</v>
+        <v>0.0246384218653642</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1000,7 +985,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>237.761</v>
+        <v>49.8165407827101</v>
       </c>
       <c r="C13">
         <v>166437.019362635</v>
@@ -1021,10 +1006,10 @@
         <v>11.3920550286055</v>
       </c>
       <c r="I13">
-        <v>100.449771312871</v>
+        <v>190.751155038034</v>
       </c>
       <c r="J13">
-        <v>1.86377910820784</v>
+        <v>1.58639486568496</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1032,7 +1017,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>148.638</v>
+        <v>33.7692846625143</v>
       </c>
       <c r="C14">
         <v>1279708.23259846</v>
@@ -1053,10 +1038,10 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>59.1222370096491</v>
+        <v>139.275152743624</v>
       </c>
       <c r="J14">
-        <v>1.46312390670138</v>
+        <v>1.18673611988444</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1064,7 +1049,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>145.749</v>
+        <v>33.3653340831742</v>
       </c>
       <c r="C15">
         <v>1353046.84430757</v>
@@ -1085,10 +1070,10 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>53.1374009371612</v>
+        <v>123.673797332076</v>
       </c>
       <c r="J15">
-        <v>0.202487099526604</v>
+        <v>0.160145149279093</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1096,7 +1081,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>253.279</v>
+        <v>59.2178972065856</v>
       </c>
       <c r="C16">
         <v>3086241.84919508</v>
@@ -1117,10 +1102,10 @@
         <v>10.4395897258309</v>
       </c>
       <c r="I16">
-        <v>152.36675227434</v>
+        <v>204.060006073562</v>
       </c>
       <c r="J16">
-        <v>0.0512647466826093</v>
+        <v>0.0445818501412809</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1128,7 +1113,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>179.424</v>
+        <v>38.5894668825324</v>
       </c>
       <c r="C17">
         <v>1153021.19591091</v>
@@ -1149,10 +1134,10 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>84.2161409076969</v>
+        <v>132.739251616044</v>
       </c>
       <c r="J17">
-        <v>0.677558666137886</v>
+        <v>0.620463392325899</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1160,7 +1145,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>149.238</v>
+        <v>31.7927137254272</v>
       </c>
       <c r="C18">
         <v>558647.498120183</v>
@@ -1181,10 +1166,10 @@
         <v>11.1268127867627</v>
       </c>
       <c r="I18">
-        <v>62.2078066757513</v>
+        <v>132.732664380546</v>
       </c>
       <c r="J18">
-        <v>2.51073596632907</v>
+        <v>2.28455226533594</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1192,7 +1177,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>152.074</v>
+        <v>32.3968771162881</v>
       </c>
       <c r="C19">
         <v>1881962.89125995</v>
@@ -1213,10 +1198,10 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>57.4714906285322</v>
+        <v>141.742252423656</v>
       </c>
       <c r="J19">
-        <v>0.861436350456613</v>
+        <v>0.751888635756642</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1224,7 +1209,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>156.261</v>
+        <v>35.7717752380523</v>
       </c>
       <c r="C20">
         <v>85865.384952272</v>
@@ -1245,10 +1230,10 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>54.4067501362869</v>
+        <v>134.146634165454</v>
       </c>
       <c r="J20">
-        <v>1.42338027537861</v>
+        <v>1.06233782239974</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1256,7 +1241,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>177.386</v>
+        <v>45.123034371196</v>
       </c>
       <c r="C21">
         <v>733558.367597268</v>
@@ -1277,10 +1262,10 @@
         <v>13.063852224195</v>
       </c>
       <c r="I21">
-        <v>78.8466502962675</v>
+        <v>168.39293670993</v>
       </c>
       <c r="J21">
-        <v>0.789820097700896</v>
+        <v>0.547580614159508</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1288,7 +1273,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>241.147</v>
+        <v>51.37242214949</v>
       </c>
       <c r="C22">
         <v>253003.132887467</v>
@@ -1309,10 +1294,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>89.9928097437635</v>
+        <v>201.504926418362</v>
       </c>
       <c r="J22">
-        <v>0.703243624261739</v>
+        <v>0.561351507550864</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1320,7 +1305,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>282.606</v>
+        <v>64.1403847870279</v>
       </c>
       <c r="C23">
         <v>3350889.3025638</v>
@@ -1341,10 +1326,10 @@
         <v>11.297762957612</v>
       </c>
       <c r="I23">
-        <v>196.902829321901</v>
+        <v>222.584451830744</v>
       </c>
       <c r="J23">
-        <v>0.506124634082877</v>
+        <v>0.481097880023826</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1352,7 +1337,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>207.478</v>
+        <v>47.137230339544</v>
       </c>
       <c r="C24">
         <v>4351713.3885828</v>
@@ -1373,10 +1358,10 @@
         <v>12.3401195342912</v>
       </c>
       <c r="I24">
-        <v>95.9170290711878</v>
+        <v>165.982463887705</v>
       </c>
       <c r="J24">
-        <v>0.944879784873655</v>
+        <v>0.775372727806999</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1384,7 +1369,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>137.747</v>
+        <v>32.5146016591531</v>
       </c>
       <c r="C25">
         <v>710843.272307041</v>
@@ -1405,10 +1390,10 @@
         <v>10</v>
       </c>
       <c r="I25">
-        <v>53.9518698871255</v>
+        <v>126.151895329426</v>
       </c>
       <c r="J25">
-        <v>0.370085324605548</v>
+        <v>0.291115594248661</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1416,7 +1401,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>156.283</v>
+        <v>36.8899467218699</v>
       </c>
       <c r="C26">
         <v>992308.737024673</v>
@@ -1437,10 +1422,10 @@
         <v>10</v>
       </c>
       <c r="I26">
-        <v>61.6124849372205</v>
+        <v>140.933051127243</v>
       </c>
       <c r="J26">
-        <v>0.191438716560332</v>
+        <v>0.146309457319027</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1448,7 +1433,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>190.398</v>
+        <v>44.9426493985308</v>
       </c>
       <c r="C27">
         <v>2410527.96165012</v>
@@ -1469,10 +1454,10 @@
         <v>11.3389942290189</v>
       </c>
       <c r="I27">
-        <v>83.1257884455178</v>
+        <v>157.591610236573</v>
       </c>
       <c r="J27">
-        <v>0.268403441665325</v>
+        <v>0.20784487484127</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1480,7 +1465,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>97.289</v>
+        <v>22.9646604341099</v>
       </c>
       <c r="C28">
         <v>533220.801373149</v>
@@ -1501,10 +1486,10 @@
         <v>10</v>
       </c>
       <c r="I28">
-        <v>38.3759794513201</v>
+        <v>20.0138427415354</v>
       </c>
       <c r="J28">
-        <v>1.24999381992412</v>
+        <v>5.12227387457113</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1512,10 +1497,10 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>130.115</v>
+        <v>41.4368478002547</v>
       </c>
       <c r="C29">
-        <v>440354.934932028</v>
+        <v>167618.61939646</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1527,16 +1512,16 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>24.9226386447578</v>
+        <v>38.8146298892102</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>13.4735860125326</v>
       </c>
       <c r="I29">
-        <v>43.9918274480981</v>
+        <v>153.296500948119</v>
       </c>
       <c r="J29">
-        <v>3.30505954682218</v>
+        <v>2.35780929235082</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1544,31 +1529,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>162.895</v>
+        <v>35.2590214236019</v>
       </c>
       <c r="C30">
-        <v>167618.61939646</v>
+        <v>197584.190285786</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>10.64</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>6.5665</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>5.07829538984966</v>
       </c>
       <c r="G30">
-        <v>38.8146298892102</v>
+        <v>14.6174762523903</v>
       </c>
       <c r="H30">
-        <v>13.4735860125326</v>
+        <v>10</v>
       </c>
       <c r="I30">
-        <v>74.1975120965447</v>
+        <v>111.779390523314</v>
       </c>
       <c r="J30">
-        <v>3.30668589276371</v>
+        <v>0.288610915958388</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1576,31 +1561,31 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>149.062</v>
+        <v>42.1019856131476</v>
       </c>
       <c r="C31">
-        <v>197584.190285786</v>
+        <v>579429.044110523</v>
       </c>
       <c r="D31">
-        <v>10.64</v>
+        <v>48.14</v>
       </c>
       <c r="E31">
-        <v>6.5665</v>
+        <v>6.8885</v>
       </c>
       <c r="F31">
-        <v>5.07829538984966</v>
+        <v>5.89147531695343</v>
       </c>
       <c r="G31">
-        <v>14.6174762523903</v>
+        <v>37.6494276892936</v>
       </c>
       <c r="H31">
-        <v>10</v>
+        <v>11.069009836215</v>
       </c>
       <c r="I31">
-        <v>62.6207099763113</v>
+        <v>140.968640082751</v>
       </c>
       <c r="J31">
-        <v>0.377960047240393</v>
+        <v>0.0630661500578879</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1608,31 +1593,31 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>192.382</v>
+        <v>38.4971582019565</v>
       </c>
       <c r="C32">
-        <v>579429.044110523</v>
+        <v>672277.192943119</v>
       </c>
       <c r="D32">
-        <v>48.14</v>
+        <v>27.75</v>
       </c>
       <c r="E32">
-        <v>6.8885</v>
+        <v>4.7495</v>
       </c>
       <c r="F32">
-        <v>5.89147531695343</v>
+        <v>4.00049963438626</v>
       </c>
       <c r="G32">
-        <v>37.6494276892936</v>
+        <v>31.3748032009296</v>
       </c>
       <c r="H32">
-        <v>11.069009836215</v>
+        <v>10</v>
       </c>
       <c r="I32">
-        <v>107.480066366825</v>
+        <v>136.599752564157</v>
       </c>
       <c r="J32">
-        <v>0.0659870013628236</v>
+        <v>0.0792875082465567</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1640,31 +1625,31 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>175.91</v>
+        <v>36.5348633895279</v>
       </c>
       <c r="C33">
-        <v>672277.192943119</v>
+        <v>1533715.59215201</v>
       </c>
       <c r="D33">
-        <v>27.75</v>
+        <v>10.29</v>
       </c>
       <c r="E33">
-        <v>4.7495</v>
+        <v>9.8785</v>
       </c>
       <c r="F33">
-        <v>4.00049963438626</v>
+        <v>8.17480828450343</v>
       </c>
       <c r="G33">
-        <v>31.3748032009296</v>
+        <v>25.7401509648132</v>
       </c>
       <c r="H33">
         <v>10</v>
       </c>
       <c r="I33">
-        <v>87.7746701145624</v>
+        <v>125.479469341502</v>
       </c>
       <c r="J33">
-        <v>0.086801354148776</v>
+        <v>0.444331514890715</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1672,31 +1657,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>169.871</v>
+        <v>40.3027489585569</v>
       </c>
       <c r="C34">
-        <v>1533715.59215201</v>
+        <v>207635.165378523</v>
       </c>
       <c r="D34">
-        <v>10.29</v>
+        <v>7.5</v>
       </c>
       <c r="E34">
-        <v>9.8785</v>
+        <v>7.567</v>
       </c>
       <c r="F34">
-        <v>8.17480828450343</v>
+        <v>6.21923221479076</v>
       </c>
       <c r="G34">
-        <v>25.7401509648132</v>
+        <v>17.3222304410523</v>
       </c>
       <c r="H34">
         <v>10</v>
       </c>
       <c r="I34">
-        <v>76.8021016113129</v>
+        <v>131.142001940439</v>
       </c>
       <c r="J34">
-        <v>0.490556676769261</v>
+        <v>0.31903828340526</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1704,31 +1689,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>170.385</v>
+        <v>45.1695466757184</v>
       </c>
       <c r="C35">
-        <v>207635.165378523</v>
+        <v>759942.515079343</v>
       </c>
       <c r="D35">
-        <v>7.5</v>
+        <v>23.79</v>
       </c>
       <c r="E35">
-        <v>7.567</v>
+        <v>2.1045</v>
       </c>
       <c r="F35">
-        <v>6.21923221479076</v>
+        <v>1.76770431707038</v>
       </c>
       <c r="G35">
-        <v>17.3222304410523</v>
+        <v>29.9801918728384</v>
       </c>
       <c r="H35">
         <v>10</v>
       </c>
       <c r="I35">
-        <v>82.2826770653176</v>
+        <v>161.802463330737</v>
       </c>
       <c r="J35">
-        <v>0.404090129101282</v>
+        <v>0.0313576534221988</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1736,31 +1721,31 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>206.399</v>
+        <v>56.534032283003</v>
       </c>
       <c r="C36">
-        <v>759942.515079343</v>
+        <v>2838393.48641403</v>
       </c>
       <c r="D36">
-        <v>23.79</v>
+        <v>8.78</v>
       </c>
       <c r="E36">
-        <v>2.1045</v>
+        <v>0.3565</v>
       </c>
       <c r="F36">
-        <v>1.76770431707038</v>
+        <v>0.306823999693611</v>
       </c>
       <c r="G36">
-        <v>29.9801918728384</v>
+        <v>40.0677709602969</v>
       </c>
       <c r="H36">
-        <v>10</v>
+        <v>10.5971668934738</v>
       </c>
       <c r="I36">
-        <v>104.642266287837</v>
+        <v>191.27252543631</v>
       </c>
       <c r="J36">
-        <v>0.035430571879168</v>
+        <v>0.0488483787668437</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1768,31 +1753,31 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>249.092</v>
+        <v>37.6972486544982</v>
       </c>
       <c r="C37">
-        <v>2838393.48641403</v>
+        <v>969716.979767905</v>
       </c>
       <c r="D37">
-        <v>8.78</v>
+        <v>8.09</v>
       </c>
       <c r="E37">
-        <v>0.3565</v>
+        <v>1.219</v>
       </c>
       <c r="F37">
-        <v>0.306823999693611</v>
+        <v>0.906861891254617</v>
       </c>
       <c r="G37">
-        <v>40.0677709602969</v>
+        <v>22.1544883688664</v>
       </c>
       <c r="H37">
-        <v>10.5971668934738</v>
+        <v>10</v>
       </c>
       <c r="I37">
-        <v>153.807269543548</v>
+        <v>140.967707706585</v>
       </c>
       <c r="J37">
-        <v>0.0531875802220728</v>
+        <v>0.48132905964391</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1800,31 +1785,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>164.672</v>
+        <v>37.378381761572</v>
       </c>
       <c r="C38">
-        <v>969716.979767905</v>
+        <v>1831350.58211375</v>
       </c>
       <c r="D38">
-        <v>8.09</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>1.219</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.906861891254617</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>22.1544883688664</v>
+        <v>34.2239164554777</v>
       </c>
       <c r="H38">
         <v>10</v>
       </c>
       <c r="I38">
-        <v>59.0651909975215</v>
+        <v>159.105554050637</v>
       </c>
       <c r="J38">
-        <v>0.650268831927321</v>
+        <v>3.46538917062454</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1832,31 +1817,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>131.981</v>
+        <v>38.4011620078997</v>
       </c>
       <c r="C39">
-        <v>962426.556333156</v>
+        <v>229974.564772054</v>
       </c>
       <c r="D39">
-        <v>10.34</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>5.819</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>2.92559619824276</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>24.4783044022428</v>
+        <v>41.0010013883929</v>
       </c>
       <c r="H39">
-        <v>10</v>
+        <v>13.0312981091365</v>
       </c>
       <c r="I39">
-        <v>35.4400722039278</v>
+        <v>152.65417703147</v>
       </c>
       <c r="J39">
-        <v>0.650251217937477</v>
+        <v>1.43511909790828</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1864,10 +1849,10 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>178.397</v>
+        <v>26.9621760358035</v>
       </c>
       <c r="C40">
-        <v>1831350.58211375</v>
+        <v>862659.413376048</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -1879,16 +1864,16 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>34.2239164554777</v>
+        <v>29.1415600214873</v>
       </c>
       <c r="H40">
         <v>10</v>
       </c>
       <c r="I40">
-        <v>67.1192693785723</v>
+        <v>89.6398827237619</v>
       </c>
       <c r="J40">
-        <v>4.07156696437737</v>
+        <v>2.43357932374477</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1896,31 +1881,31 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>140.218</v>
+        <v>47.052425998034</v>
       </c>
       <c r="C41">
-        <v>1274192.94879532</v>
+        <v>1482282.67149162</v>
       </c>
       <c r="D41">
-        <v>7.23</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>8.7055</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>5.94147543420233</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>28.127287626786</v>
+        <v>35.0981323033059</v>
       </c>
       <c r="H41">
-        <v>10</v>
+        <v>10.1052833089455</v>
       </c>
       <c r="I41">
-        <v>43.0496207837941</v>
+        <v>168.530408952893</v>
       </c>
       <c r="J41">
-        <v>2.41805004709572</v>
+        <v>1.43362611740929</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1928,31 +1913,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>151.717</v>
+        <v>37.1287078675059</v>
       </c>
       <c r="C42">
-        <v>229974.564772054</v>
+        <v>2981577.20469059</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>14.13</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>4.278</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>3.45337595762792</v>
       </c>
       <c r="G42">
-        <v>41.0010013883929</v>
+        <v>35.7654244532121</v>
       </c>
       <c r="H42">
-        <v>13.0312981091365</v>
+        <v>12.2579410501458</v>
       </c>
       <c r="I42">
-        <v>62.5485286648001</v>
+        <v>144.053401436534</v>
       </c>
       <c r="J42">
-        <v>2.05168168414373</v>
+        <v>0.380711589703915</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1960,31 +1945,31 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>126.563</v>
+        <v>30.1683937042615</v>
       </c>
       <c r="C43">
-        <v>862659.413376048</v>
+        <v>1288466.35114615</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>11.6725</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>8.47692314013229</v>
       </c>
       <c r="G43">
-        <v>29.1415600214873</v>
+        <v>28.8353730420083</v>
       </c>
       <c r="H43">
         <v>10</v>
       </c>
       <c r="I43">
-        <v>47.0973609197687</v>
+        <v>120.983520812263</v>
       </c>
       <c r="J43">
-        <v>1.93669200240631</v>
+        <v>1.0727083780126</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1992,10 +1977,10 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>205.538</v>
+        <v>28.8317045728509</v>
       </c>
       <c r="C44">
-        <v>1482282.67149162</v>
+        <v>608478.055899388</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -2007,16 +1992,16 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>35.0981323033059</v>
+        <v>28.940231987449</v>
       </c>
       <c r="H44">
-        <v>10.1052833089455</v>
+        <v>10</v>
       </c>
       <c r="I44">
-        <v>88.360306153749</v>
+        <v>117.236882448947</v>
       </c>
       <c r="J44">
-        <v>1.80145619931524</v>
+        <v>3.39910806663658</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2024,31 +2009,31 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>145.959</v>
+        <v>39.651457969509</v>
       </c>
       <c r="C45">
-        <v>2981577.20469059</v>
+        <v>2020505.5211558</v>
       </c>
       <c r="D45">
-        <v>14.13</v>
+        <v>9.92</v>
       </c>
       <c r="E45">
-        <v>4.278</v>
+        <v>17.664</v>
       </c>
       <c r="F45">
-        <v>3.45337595762792</v>
+        <v>14.5839590397331</v>
       </c>
       <c r="G45">
-        <v>35.7654244532121</v>
+        <v>20.8612015839051</v>
       </c>
       <c r="H45">
-        <v>12.2579410501458</v>
+        <v>10</v>
       </c>
       <c r="I45">
-        <v>61.7515095271216</v>
+        <v>131.722784330048</v>
       </c>
       <c r="J45">
-        <v>0.535594039661502</v>
+        <v>0.610291540420436</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2056,31 +2041,31 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>136.889</v>
+        <v>46.0622187263971</v>
       </c>
       <c r="C46">
-        <v>1288466.35114615</v>
+        <v>433165.204738251</v>
       </c>
       <c r="D46">
-        <v>8.5</v>
+        <v>14.25</v>
       </c>
       <c r="E46">
-        <v>11.6725</v>
+        <v>22.011</v>
       </c>
       <c r="F46">
-        <v>8.47692314013229</v>
+        <v>18.3919207588041</v>
       </c>
       <c r="G46">
-        <v>28.8353730420083</v>
+        <v>28.5573966207095</v>
       </c>
       <c r="H46">
         <v>10</v>
       </c>
       <c r="I46">
-        <v>47.7763860334971</v>
+        <v>159.873271914147</v>
       </c>
       <c r="J46">
-        <v>1.19059746087852</v>
+        <v>0.477097175578039</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2088,10 +2073,10 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>137.606</v>
+        <v>42.0439279709605</v>
       </c>
       <c r="C47">
-        <v>608478.055899388</v>
+        <v>469105.617677937</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -2103,16 +2088,16 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>28.940231987449</v>
+        <v>39.2572211787595</v>
       </c>
       <c r="H47">
-        <v>10</v>
+        <v>11.7624572017593</v>
       </c>
       <c r="I47">
-        <v>50.8966173498472</v>
+        <v>171.93472038972</v>
       </c>
       <c r="J47">
-        <v>3.38775052176313</v>
+        <v>1.02893424129539</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2120,31 +2105,31 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>169.592</v>
+        <v>36.1692338351461</v>
       </c>
       <c r="C48">
-        <v>2020505.5211558</v>
+        <v>808182.428935386</v>
       </c>
       <c r="D48">
-        <v>9.92</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>17.664</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>14.5839590397331</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>20.8612015839051</v>
+        <v>41.1233924427668</v>
       </c>
       <c r="H48">
-        <v>10</v>
+        <v>14.3995732465961</v>
       </c>
       <c r="I48">
-        <v>79.8298104624052</v>
+        <v>136.256903320025</v>
       </c>
       <c r="J48">
-        <v>0.7549965277356</v>
+        <v>2.0550395377327</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2152,31 +2137,31 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>214.169</v>
+        <v>33.5725734672305</v>
       </c>
       <c r="C49">
-        <v>433165.204738251</v>
+        <v>1050521.91485667</v>
       </c>
       <c r="D49">
-        <v>14.25</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>22.011</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>18.3919207588041</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>28.5573966207095</v>
+        <v>41.248804075057</v>
       </c>
       <c r="H49">
-        <v>10</v>
+        <v>15.4237106357491</v>
       </c>
       <c r="I49">
-        <v>102.176001881469</v>
+        <v>120.698531789971</v>
       </c>
       <c r="J49">
-        <v>0.540434436005065</v>
+        <v>2.95995287496613</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2184,31 +2169,31 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>166.109</v>
+        <v>55.0893684739474</v>
       </c>
       <c r="C50">
-        <v>469105.617677937</v>
+        <v>2444446.17134412</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>8.49</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>12.351</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>10.6078511915737</v>
       </c>
       <c r="G50">
-        <v>39.2572211787595</v>
+        <v>41.2615084591602</v>
       </c>
       <c r="H50">
-        <v>11.7624572017593</v>
+        <v>10.3966925918505</v>
       </c>
       <c r="I50">
-        <v>64.0360890718191</v>
+        <v>188.017924113501</v>
       </c>
       <c r="J50">
-        <v>1.53714335374753</v>
+        <v>0.321602720094163</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2216,31 +2201,31 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>142.899</v>
+        <v>39.914841055872</v>
       </c>
       <c r="C51">
-        <v>808182.428935386</v>
+        <v>2854701.4824351</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>17.58</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>17.112</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>14.3089732837144</v>
       </c>
       <c r="G51">
-        <v>41.1233924427668</v>
+        <v>28.1410282253697</v>
       </c>
       <c r="H51">
-        <v>14.3995732465961</v>
+        <v>10</v>
       </c>
       <c r="I51">
-        <v>61.6160438737815</v>
+        <v>140.372323968715</v>
       </c>
       <c r="J51">
-        <v>2.83522441197818</v>
+        <v>0.374649231035956</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2248,31 +2233,31 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>132.64</v>
+        <v>40.6468008190852</v>
       </c>
       <c r="C52">
-        <v>1050521.91485667</v>
+        <v>2055103.11595472</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>17.61</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1.472</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1.20701781039144</v>
       </c>
       <c r="G52">
-        <v>41.248804075057</v>
+        <v>19.0092306563477</v>
       </c>
       <c r="H52">
-        <v>15.4237106357491</v>
+        <v>10</v>
       </c>
       <c r="I52">
-        <v>58.8177956906702</v>
+        <v>133.526961033704</v>
       </c>
       <c r="J52">
-        <v>3.94524321153977</v>
+        <v>0.0767701708738066</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2280,31 +2265,31 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>235.621</v>
+        <v>66.8180641700465</v>
       </c>
       <c r="C53">
-        <v>2444446.17134412</v>
+        <v>2678553.46348061</v>
       </c>
       <c r="D53">
-        <v>8.49</v>
+        <v>16.23</v>
       </c>
       <c r="E53">
-        <v>12.351</v>
+        <v>2.553</v>
       </c>
       <c r="F53">
-        <v>10.6078511915737</v>
+        <v>2.19837723130137</v>
       </c>
       <c r="G53">
-        <v>41.2615084591602</v>
+        <v>40.7993142799703</v>
       </c>
       <c r="H53">
-        <v>10.3966925918505</v>
+        <v>10.6425721398091</v>
       </c>
       <c r="I53">
-        <v>138.584750845535</v>
+        <v>235.868419500377</v>
       </c>
       <c r="J53">
-        <v>0.369641336044985</v>
+        <v>0.0269368620404816</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2312,31 +2297,31 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>182.388</v>
+        <v>30.6415541612103</v>
       </c>
       <c r="C54">
-        <v>2854701.4824351</v>
+        <v>288015.178598222</v>
       </c>
       <c r="D54">
-        <v>17.58</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>17.112</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>14.3089732837144</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>28.1410282253697</v>
+        <v>38.4200350713085</v>
       </c>
       <c r="H54">
-        <v>10</v>
+        <v>11.2339824144241</v>
       </c>
       <c r="I54">
-        <v>88.8500452300848</v>
+        <v>135.905556562341</v>
       </c>
       <c r="J54">
-        <v>0.417861179830064</v>
+        <v>2.34760871075471</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2344,31 +2329,31 @@
         <v>63</v>
       </c>
       <c r="B55">
-        <v>179.092</v>
+        <v>28.278981314685</v>
       </c>
       <c r="C55">
-        <v>2055103.11595472</v>
+        <v>753363.084895201</v>
       </c>
       <c r="D55">
-        <v>17.61</v>
+        <v>11.87</v>
       </c>
       <c r="E55">
-        <v>1.472</v>
+        <v>9.131</v>
       </c>
       <c r="F55">
-        <v>1.20701781039144</v>
+        <v>6.74770920970798</v>
       </c>
       <c r="G55">
-        <v>19.0092306563477</v>
+        <v>29.0019172186821</v>
       </c>
       <c r="H55">
         <v>10</v>
       </c>
       <c r="I55">
-        <v>83.8236587682641</v>
+        <v>112.576201582459</v>
       </c>
       <c r="J55">
-        <v>0.0931046893139511</v>
+        <v>0.960371245311689</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2376,31 +2361,31 @@
         <v>64</v>
       </c>
       <c r="B56">
-        <v>294.404</v>
+        <v>30.3937218397487</v>
       </c>
       <c r="C56">
-        <v>2678553.46348061</v>
+        <v>760233.378851882</v>
       </c>
       <c r="D56">
-        <v>16.23</v>
+        <v>2</v>
       </c>
       <c r="E56">
-        <v>2.553</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>2.19837723130137</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>40.7993142799703</v>
+        <v>34.1538423622197</v>
       </c>
       <c r="H56">
-        <v>10.6425721398091</v>
+        <v>10</v>
       </c>
       <c r="I56">
-        <v>192.536511549772</v>
+        <v>134.563025549202</v>
       </c>
       <c r="J56">
-        <v>0.0295280656260174</v>
+        <v>1.38185422775067</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2408,31 +2393,31 @@
         <v>65</v>
       </c>
       <c r="B57">
-        <v>121.06</v>
+        <v>42.1730293832775</v>
       </c>
       <c r="C57">
-        <v>288015.178598222</v>
+        <v>1424914.17073343</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>6.51</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>0.929471728937235</v>
       </c>
       <c r="G57">
-        <v>38.4200350713085</v>
+        <v>34.9683979732136</v>
       </c>
       <c r="H57">
-        <v>11.2339824144241</v>
+        <v>12.7583396548576</v>
       </c>
       <c r="I57">
-        <v>48.3547453281984</v>
+        <v>153.590041034308</v>
       </c>
       <c r="J57">
-        <v>3.19488804310468</v>
+        <v>0.0816354064112912</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2440,31 +2425,31 @@
         <v>66</v>
       </c>
       <c r="B58">
-        <v>134.968</v>
+        <v>29.6714751637262</v>
       </c>
       <c r="C58">
-        <v>753363.084895201</v>
+        <v>407424.6404592</v>
       </c>
       <c r="D58">
-        <v>11.87</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>9.131</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>6.74770920970798</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>29.0019172186821</v>
+        <v>31.9645417916082</v>
       </c>
       <c r="H58">
         <v>10</v>
       </c>
       <c r="I58">
-        <v>50.2046566543554</v>
+        <v>129.95687094074</v>
       </c>
       <c r="J58">
-        <v>0.925796424789652</v>
+        <v>0.871257239878622</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2472,31 +2457,31 @@
         <v>67</v>
       </c>
       <c r="B59">
-        <v>107.685</v>
+        <v>25.0658009507549</v>
       </c>
       <c r="C59">
-        <v>518718.742502788</v>
+        <v>784135.419521753</v>
       </c>
       <c r="D59">
-        <v>23.94</v>
+        <v>7.14</v>
       </c>
       <c r="E59">
-        <v>0.0575</v>
+        <v>8.579</v>
       </c>
       <c r="F59">
-        <v>0.0414913493520872</v>
+        <v>6.40726443005721</v>
       </c>
       <c r="G59">
-        <v>28.5538860754928</v>
+        <v>30.343632332348</v>
       </c>
       <c r="H59">
         <v>10</v>
       </c>
       <c r="I59">
-        <v>40.2537803466643</v>
+        <v>70.8210437844978</v>
       </c>
       <c r="J59">
-        <v>0.084725086641215</v>
+        <v>2.09781685640339</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2504,10 +2489,10 @@
         <v>68</v>
       </c>
       <c r="B60">
-        <v>142.671</v>
+        <v>34.0701800151059</v>
       </c>
       <c r="C60">
-        <v>760233.378851882</v>
+        <v>457632.980184378</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -2519,16 +2504,16 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>34.1538423622197</v>
+        <v>31.850421402075</v>
       </c>
       <c r="H60">
         <v>10</v>
       </c>
       <c r="I60">
-        <v>54.9120410421795</v>
+        <v>145.157891403952</v>
       </c>
       <c r="J60">
-        <v>1.53879783300915</v>
+        <v>1.24638554602111</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2536,31 +2521,31 @@
         <v>69</v>
       </c>
       <c r="B61">
-        <v>191.36</v>
+        <v>44.5146020197342</v>
       </c>
       <c r="C61">
-        <v>1424914.17073343</v>
+        <v>1318604.09835682</v>
       </c>
       <c r="D61">
-        <v>6.51</v>
+        <v>10.72</v>
       </c>
       <c r="E61">
-        <v>1.15</v>
+        <v>13.6965</v>
       </c>
       <c r="F61">
-        <v>0.929471728937235</v>
+        <v>11.555515223702</v>
       </c>
       <c r="G61">
-        <v>34.9683979732136</v>
+        <v>26.52806518946</v>
       </c>
       <c r="H61">
-        <v>12.7583396548576</v>
+        <v>10</v>
       </c>
       <c r="I61">
-        <v>78.6242504436798</v>
+        <v>150.108390750881</v>
       </c>
       <c r="J61">
-        <v>0.100352651417266</v>
+        <v>0.373013077055713</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2568,10 +2553,10 @@
         <v>70</v>
       </c>
       <c r="B62">
-        <v>141.614</v>
+        <v>46.9106356844797</v>
       </c>
       <c r="C62">
-        <v>407424.6404592</v>
+        <v>784152.05342662</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -2583,16 +2568,16 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>31.9645417916082</v>
+        <v>27.1055299470911</v>
       </c>
       <c r="H62">
         <v>10</v>
       </c>
       <c r="I62">
-        <v>54.3810835050645</v>
+        <v>159.894480476173</v>
       </c>
       <c r="J62">
-        <v>0.935275821990715</v>
+        <v>0.16628384078317</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2600,31 +2585,31 @@
         <v>71</v>
       </c>
       <c r="B63">
-        <v>113.736</v>
+        <v>37.6845173789241</v>
       </c>
       <c r="C63">
-        <v>784135.419521753</v>
+        <v>1841096.51798489</v>
       </c>
       <c r="D63">
-        <v>7.14</v>
+        <v>15.31</v>
       </c>
       <c r="E63">
-        <v>8.579</v>
+        <v>4.9565</v>
       </c>
       <c r="F63">
-        <v>6.40726443005721</v>
+        <v>4.00536243063978</v>
       </c>
       <c r="G63">
-        <v>30.343632332348</v>
+        <v>40.3643010697264</v>
       </c>
       <c r="H63">
-        <v>10</v>
+        <v>12.9130326981283</v>
       </c>
       <c r="I63">
-        <v>42.8014758350071</v>
+        <v>143.548728199982</v>
       </c>
       <c r="J63">
-        <v>1.44808059565268</v>
+        <v>0.317438363060223</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2632,10 +2617,10 @@
         <v>72</v>
       </c>
       <c r="B64">
-        <v>139.481</v>
+        <v>28.9092972237935</v>
       </c>
       <c r="C64">
-        <v>457632.980184378</v>
+        <v>603939.320198821</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -2647,176 +2632,16 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>31.850421402075</v>
+        <v>36.105408341903</v>
       </c>
       <c r="H64">
         <v>10</v>
       </c>
       <c r="I64">
-        <v>53.4054015966874</v>
+        <v>128.495285105601</v>
       </c>
       <c r="J64">
-        <v>1.70813108697544</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65">
-        <v>190.392</v>
-      </c>
-      <c r="C65">
-        <v>1318604.09835682</v>
-      </c>
-      <c r="D65">
-        <v>10.72</v>
-      </c>
-      <c r="E65">
-        <v>13.6965</v>
-      </c>
-      <c r="F65">
-        <v>11.555515223702</v>
-      </c>
-      <c r="G65">
-        <v>26.52806518946</v>
-      </c>
-      <c r="H65">
-        <v>10</v>
-      </c>
-      <c r="I65">
-        <v>97.4499647510616</v>
-      </c>
-      <c r="J65">
-        <v>0.44906670916586</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66">
-        <v>200.64</v>
-      </c>
-      <c r="C66">
-        <v>784152.05342662</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>27.1055299470911</v>
-      </c>
-      <c r="H66">
-        <v>10</v>
-      </c>
-      <c r="I66">
-        <v>104.530379904689</v>
-      </c>
-      <c r="J66">
-        <v>0.20103598871664</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67">
-        <v>110.122</v>
-      </c>
-      <c r="C67">
-        <v>987514.071557479</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>31.5328319177625</v>
-      </c>
-      <c r="H67">
-        <v>10</v>
-      </c>
-      <c r="I67">
-        <v>40.4996256846658</v>
-      </c>
-      <c r="J67">
-        <v>1.66658115707799</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68">
-        <v>168.131</v>
-      </c>
-      <c r="C68">
-        <v>1841096.51798489</v>
-      </c>
-      <c r="D68">
-        <v>15.31</v>
-      </c>
-      <c r="E68">
-        <v>4.9565</v>
-      </c>
-      <c r="F68">
-        <v>4.00536243063978</v>
-      </c>
-      <c r="G68">
-        <v>40.3643010697264</v>
-      </c>
-      <c r="H68">
-        <v>12.9130326981283</v>
-      </c>
-      <c r="I68">
-        <v>67.1860934182029</v>
-      </c>
-      <c r="J68">
-        <v>0.389175566386319</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69">
-        <v>128.98</v>
-      </c>
-      <c r="C69">
-        <v>603939.320198821</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>36.105408341903</v>
-      </c>
-      <c r="H69">
-        <v>10</v>
-      </c>
-      <c r="I69">
-        <v>47.3321002154027</v>
-      </c>
-      <c r="J69">
-        <v>0.436480426313222</v>
+        <v>0.379642568444884</v>
       </c>
     </row>
   </sheetData>

--- a/results/main results.xlsx
+++ b/results/main results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t xml:space="preserve"> Average income in the province</t>
   </si>
@@ -127,6 +127,9 @@
     <t>Davao Oriental</t>
   </si>
   <si>
+    <t>Eastern Samar</t>
+  </si>
+  <si>
     <t>Guimaras</t>
   </si>
   <si>
@@ -154,9 +157,15 @@
     <t>Lanao Del Norte</t>
   </si>
   <si>
+    <t>Lanao Del Sur</t>
+  </si>
+  <si>
     <t>Leyte</t>
   </si>
   <si>
+    <t>Maguindanao</t>
+  </si>
+  <si>
     <t>Marinduque</t>
   </si>
   <si>
@@ -208,6 +217,9 @@
     <t>Samar</t>
   </si>
   <si>
+    <t>Sarangani</t>
+  </si>
+  <si>
     <t>Sorsogon</t>
   </si>
   <si>
@@ -227,6 +239,9 @@
   </si>
   <si>
     <t>Zambales</t>
+  </si>
+  <si>
+    <t>Zamboanga Del Norte</t>
   </si>
   <si>
     <t>Zamboanga Del Sur</t>
@@ -590,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,10 +669,10 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>96.4504776638803</v>
+        <v>65.5025297268172</v>
       </c>
       <c r="J2">
-        <v>0.941396585815174</v>
+        <v>1.05396089820631</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -686,10 +701,10 @@
         <v>10</v>
       </c>
       <c r="I3">
-        <v>175.179265056571</v>
+        <v>75.6129880718213</v>
       </c>
       <c r="J3">
-        <v>2.06219162962087</v>
+        <v>2.88519433925164</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -718,10 +733,10 @@
         <v>10</v>
       </c>
       <c r="I4">
-        <v>129.827667602045</v>
+        <v>55.1593065199029</v>
       </c>
       <c r="J4">
-        <v>1.19281565900652</v>
+        <v>1.49206764365633</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -750,10 +765,10 @@
         <v>13.5089223583236</v>
       </c>
       <c r="I5">
-        <v>112.551472835145</v>
+        <v>63.2803742606983</v>
       </c>
       <c r="J5">
-        <v>4.64729300614574</v>
+        <v>5.43828957796794</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -782,10 +797,10 @@
         <v>10</v>
       </c>
       <c r="I6">
-        <v>147.574720354231</v>
+        <v>60.605673535637</v>
       </c>
       <c r="J6">
-        <v>0.313039611913027</v>
+        <v>0.415582663024177</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -814,10 +829,10 @@
         <v>12.5227041089264</v>
       </c>
       <c r="I7">
-        <v>123.934902042911</v>
+        <v>63.6222885432205</v>
       </c>
       <c r="J7">
-        <v>2.54338372810986</v>
+        <v>3.08704452915755</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -846,10 +861,10 @@
         <v>10</v>
       </c>
       <c r="I8">
-        <v>122.25089159501</v>
+        <v>65.7910148554365</v>
       </c>
       <c r="J8">
-        <v>0.0243917181422522</v>
+        <v>0.0315664422630611</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -878,10 +893,10 @@
         <v>10</v>
       </c>
       <c r="I9">
-        <v>138.414591113531</v>
+        <v>87.0140791234548</v>
       </c>
       <c r="J9">
-        <v>0.522202358302371</v>
+        <v>0.643187064660115</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -910,10 +925,10 @@
         <v>10.9018519019815</v>
       </c>
       <c r="I10">
-        <v>108.178841950159</v>
+        <v>46.4427355448047</v>
       </c>
       <c r="J10">
-        <v>0.718684899904345</v>
+        <v>0.887421005810363</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -942,10 +957,10 @@
         <v>10.4698863866378</v>
       </c>
       <c r="I11">
-        <v>231.8479384308</v>
+        <v>176.990245471749</v>
       </c>
       <c r="J11">
-        <v>0.059941570972406</v>
+        <v>0.0695218891827474</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -974,10 +989,10 @@
         <v>10</v>
       </c>
       <c r="I12">
-        <v>167.285087955073</v>
+        <v>115.149298287005</v>
       </c>
       <c r="J12">
-        <v>0.0246384218653642</v>
+        <v>0.0297190491075359</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1006,10 +1021,10 @@
         <v>11.3920550286055</v>
       </c>
       <c r="I13">
-        <v>190.751155038034</v>
+        <v>94.2309650887064</v>
       </c>
       <c r="J13">
-        <v>1.58639486568496</v>
+        <v>2.16102024973492</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1038,10 +1053,10 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>139.275152743624</v>
+        <v>62.7726898657777</v>
       </c>
       <c r="J14">
-        <v>1.18673611988444</v>
+        <v>1.5320020700021</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1070,10 +1085,10 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>123.673797332076</v>
+        <v>58.3544626344761</v>
       </c>
       <c r="J15">
-        <v>0.160145149279093</v>
+        <v>0.203096657940889</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1102,10 +1117,10 @@
         <v>10.4395897258309</v>
       </c>
       <c r="I16">
-        <v>204.060006073562</v>
+        <v>155.298036235997</v>
       </c>
       <c r="J16">
-        <v>0.0445818501412809</v>
+        <v>0.0512505482292212</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1134,10 +1149,10 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <v>132.739251616044</v>
+        <v>80.4361877794948</v>
       </c>
       <c r="J17">
-        <v>0.620463392325899</v>
+        <v>0.752243980703204</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1166,10 +1181,10 @@
         <v>11.1268127867627</v>
       </c>
       <c r="I18">
-        <v>132.732664380546</v>
+        <v>61.3134571356385</v>
       </c>
       <c r="J18">
-        <v>2.28455226533594</v>
+        <v>2.87943495950331</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1198,10 +1213,10 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>141.742252423656</v>
+        <v>58.606291033521</v>
       </c>
       <c r="J19">
-        <v>0.751888635756642</v>
+        <v>0.979581810470513</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1230,10 +1245,10 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>134.146634165454</v>
+        <v>60.3102948799644</v>
       </c>
       <c r="J20">
-        <v>1.06233782239974</v>
+        <v>1.41428267970699</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1262,10 +1277,10 @@
         <v>13.063852224195</v>
       </c>
       <c r="I21">
-        <v>168.39293670993</v>
+        <v>91.534407546335</v>
       </c>
       <c r="J21">
-        <v>0.547580614159508</v>
+        <v>0.710000351466792</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1294,10 +1309,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>201.504926418362</v>
+        <v>86.7355698819083</v>
       </c>
       <c r="J22">
-        <v>0.561351507550864</v>
+        <v>0.80919829998816</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1326,10 +1341,10 @@
         <v>11.297762957612</v>
       </c>
       <c r="I23">
-        <v>222.584451830744</v>
+        <v>193.238182914047</v>
       </c>
       <c r="J23">
-        <v>0.481097880023826</v>
+        <v>0.520448557344898</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1358,10 +1373,10 @@
         <v>12.3401195342912</v>
       </c>
       <c r="I24">
-        <v>165.982463887705</v>
+        <v>97.5123245560764</v>
       </c>
       <c r="J24">
-        <v>0.775372727806999</v>
+        <v>0.97731532628781</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1390,10 +1405,10 @@
         <v>10</v>
       </c>
       <c r="I25">
-        <v>126.151895329426</v>
+        <v>58.9491876362162</v>
       </c>
       <c r="J25">
-        <v>0.291115594248661</v>
+        <v>0.37069678005815</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1422,10 +1437,10 @@
         <v>10</v>
       </c>
       <c r="I26">
-        <v>140.933051127243</v>
+        <v>66.3555157020409</v>
       </c>
       <c r="J26">
-        <v>0.146309457319027</v>
+        <v>0.19271820113722</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1454,10 +1469,10 @@
         <v>11.3389942290189</v>
       </c>
       <c r="I27">
-        <v>157.591610236573</v>
+        <v>87.6491316242098</v>
       </c>
       <c r="J27">
-        <v>0.20784487484127</v>
+        <v>0.26795762992336</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1486,10 +1501,10 @@
         <v>10</v>
       </c>
       <c r="I28">
-        <v>20.0138427415354</v>
+        <v>43.6239702853818</v>
       </c>
       <c r="J28">
-        <v>5.12227387457113</v>
+        <v>1.24030210743285</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1497,10 +1512,10 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>41.4368478002547</v>
+        <v>27.2621632813721</v>
       </c>
       <c r="C29">
-        <v>167618.61939646</v>
+        <v>440354.934932028</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1512,16 +1527,16 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>38.8146298892102</v>
+        <v>24.9226386447578</v>
       </c>
       <c r="H29">
-        <v>13.4735860125326</v>
+        <v>10</v>
       </c>
       <c r="I29">
-        <v>153.296500948119</v>
+        <v>48.569007369039</v>
       </c>
       <c r="J29">
-        <v>2.35780929235082</v>
+        <v>3.65945572935871</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1529,31 +1544,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>35.2590214236019</v>
+        <v>41.4368478002547</v>
       </c>
       <c r="C30">
-        <v>197584.190285786</v>
+        <v>167618.61939646</v>
       </c>
       <c r="D30">
-        <v>10.64</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>6.5665</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>5.07829538984966</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>14.6174762523903</v>
+        <v>38.8146298892102</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>13.4735860125326</v>
       </c>
       <c r="I30">
-        <v>111.779390523314</v>
+        <v>86.3254140918844</v>
       </c>
       <c r="J30">
-        <v>0.288610915958388</v>
+        <v>2.96409706029704</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1561,31 +1576,31 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>42.1019856131476</v>
+        <v>35.2590214236019</v>
       </c>
       <c r="C31">
-        <v>579429.044110523</v>
+        <v>197584.190285786</v>
       </c>
       <c r="D31">
-        <v>48.14</v>
+        <v>10.64</v>
       </c>
       <c r="E31">
-        <v>6.8885</v>
+        <v>6.5665</v>
       </c>
       <c r="F31">
-        <v>5.89147531695343</v>
+        <v>5.07829538984966</v>
       </c>
       <c r="G31">
-        <v>37.6494276892936</v>
+        <v>14.6174762523903</v>
       </c>
       <c r="H31">
-        <v>11.069009836215</v>
+        <v>10</v>
       </c>
       <c r="I31">
-        <v>140.968640082751</v>
+        <v>71.7595149825109</v>
       </c>
       <c r="J31">
-        <v>0.0630661500578879</v>
+        <v>0.343229364656583</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1593,31 +1608,31 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>38.4971582019565</v>
+        <v>42.1019856131476</v>
       </c>
       <c r="C32">
-        <v>672277.192943119</v>
+        <v>579429.044110523</v>
       </c>
       <c r="D32">
-        <v>27.75</v>
+        <v>48.14</v>
       </c>
       <c r="E32">
-        <v>4.7495</v>
+        <v>6.8885</v>
       </c>
       <c r="F32">
-        <v>4.00049963438626</v>
+        <v>5.89147531695343</v>
       </c>
       <c r="G32">
-        <v>31.3748032009296</v>
+        <v>37.6494276892936</v>
       </c>
       <c r="H32">
-        <v>10</v>
+        <v>11.069009836215</v>
       </c>
       <c r="I32">
-        <v>136.599752564157</v>
+        <v>102.808703086754</v>
       </c>
       <c r="J32">
-        <v>0.0792875082465567</v>
+        <v>0.0712948190165654</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1625,31 +1640,31 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>36.5348633895279</v>
+        <v>38.4971582019565</v>
       </c>
       <c r="C33">
-        <v>1533715.59215201</v>
+        <v>672277.192943119</v>
       </c>
       <c r="D33">
-        <v>10.29</v>
+        <v>27.75</v>
       </c>
       <c r="E33">
-        <v>9.8785</v>
+        <v>4.7495</v>
       </c>
       <c r="F33">
-        <v>8.17480828450343</v>
+        <v>4.00049963438626</v>
       </c>
       <c r="G33">
-        <v>25.7401509648132</v>
+        <v>31.3748032009296</v>
       </c>
       <c r="H33">
         <v>10</v>
       </c>
       <c r="I33">
-        <v>125.479469341502</v>
+        <v>85.8065237760451</v>
       </c>
       <c r="J33">
-        <v>0.444331514890715</v>
+        <v>0.0937350172175509</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1657,31 +1672,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>40.3027489585569</v>
+        <v>36.5348633895279</v>
       </c>
       <c r="C34">
-        <v>207635.165378523</v>
+        <v>1533715.59215201</v>
       </c>
       <c r="D34">
-        <v>7.5</v>
+        <v>10.29</v>
       </c>
       <c r="E34">
-        <v>7.567</v>
+        <v>9.8785</v>
       </c>
       <c r="F34">
-        <v>6.21923221479076</v>
+        <v>8.17480828450343</v>
       </c>
       <c r="G34">
-        <v>17.3222304410523</v>
+        <v>25.7401509648132</v>
       </c>
       <c r="H34">
         <v>10</v>
       </c>
       <c r="I34">
-        <v>131.142001940439</v>
+        <v>74.5009954986184</v>
       </c>
       <c r="J34">
-        <v>0.31903828340526</v>
+        <v>0.53876513224818</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1689,31 +1704,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>45.1695466757184</v>
+        <v>40.3027489585569</v>
       </c>
       <c r="C35">
-        <v>759942.515079343</v>
+        <v>207635.165378523</v>
       </c>
       <c r="D35">
-        <v>23.79</v>
+        <v>7.5</v>
       </c>
       <c r="E35">
-        <v>2.1045</v>
+        <v>7.567</v>
       </c>
       <c r="F35">
-        <v>1.76770431707038</v>
+        <v>6.21923221479076</v>
       </c>
       <c r="G35">
-        <v>29.9801918728384</v>
+        <v>17.3222304410523</v>
       </c>
       <c r="H35">
         <v>10</v>
       </c>
       <c r="I35">
-        <v>161.802463330737</v>
+        <v>90.6870220721756</v>
       </c>
       <c r="J35">
-        <v>0.0313576534221988</v>
+        <v>0.377244017063046</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1721,31 +1736,31 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>56.534032283003</v>
+        <v>45.1695466757184</v>
       </c>
       <c r="C36">
-        <v>2838393.48641403</v>
+        <v>759942.515079343</v>
       </c>
       <c r="D36">
-        <v>8.78</v>
+        <v>23.79</v>
       </c>
       <c r="E36">
-        <v>0.3565</v>
+        <v>2.1045</v>
       </c>
       <c r="F36">
-        <v>0.306823999693611</v>
+        <v>1.76770431707038</v>
       </c>
       <c r="G36">
-        <v>40.0677709602969</v>
+        <v>29.9801918728384</v>
       </c>
       <c r="H36">
-        <v>10.5971668934738</v>
+        <v>10</v>
       </c>
       <c r="I36">
-        <v>191.27252543631</v>
+        <v>102.043816403155</v>
       </c>
       <c r="J36">
-        <v>0.0488483787668437</v>
+        <v>0.0381007734433688</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1753,31 +1768,31 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>37.6972486544982</v>
+        <v>56.534032283003</v>
       </c>
       <c r="C37">
-        <v>969716.979767905</v>
+        <v>2838393.48641403</v>
       </c>
       <c r="D37">
-        <v>8.09</v>
+        <v>8.78</v>
       </c>
       <c r="E37">
-        <v>1.219</v>
+        <v>0.3565</v>
       </c>
       <c r="F37">
-        <v>0.906861891254617</v>
+        <v>0.306823999693611</v>
       </c>
       <c r="G37">
-        <v>22.1544883688664</v>
+        <v>40.0677709602969</v>
       </c>
       <c r="H37">
-        <v>10</v>
+        <v>10.5971668934738</v>
       </c>
       <c r="I37">
-        <v>140.967707706585</v>
+        <v>151.265022747395</v>
       </c>
       <c r="J37">
-        <v>0.48132905964391</v>
+        <v>0.0550264944724146</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1785,31 +1800,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>37.378381761572</v>
+        <v>37.6972486544982</v>
       </c>
       <c r="C38">
-        <v>1831350.58211375</v>
+        <v>969716.979767905</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>8.09</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1.219</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>0.906861891254617</v>
       </c>
       <c r="G38">
-        <v>34.2239164554777</v>
+        <v>22.1544883688664</v>
       </c>
       <c r="H38">
         <v>10</v>
       </c>
       <c r="I38">
-        <v>159.105554050637</v>
+        <v>64.4603676024088</v>
       </c>
       <c r="J38">
-        <v>3.46538917062454</v>
+        <v>0.650979733554792</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1817,31 +1832,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>38.4011620078997</v>
+        <v>26.4340245732336</v>
       </c>
       <c r="C39">
-        <v>229974.564772054</v>
+        <v>962426.556333156</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>10.34</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>5.819</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>2.92559619824276</v>
       </c>
       <c r="G39">
-        <v>41.0010013883929</v>
+        <v>24.4783044022428</v>
       </c>
       <c r="H39">
-        <v>13.0312981091365</v>
+        <v>10</v>
       </c>
       <c r="I39">
-        <v>152.65417703147</v>
+        <v>39.4672236181112</v>
       </c>
       <c r="J39">
-        <v>1.43511909790828</v>
+        <v>0.768237841215332</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1849,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>26.9621760358035</v>
+        <v>37.378381761572</v>
       </c>
       <c r="C40">
-        <v>862659.413376048</v>
+        <v>1831350.58211375</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -1864,16 +1879,16 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>29.1415600214873</v>
+        <v>34.2239164554777</v>
       </c>
       <c r="H40">
         <v>10</v>
       </c>
       <c r="I40">
-        <v>89.6398827237619</v>
+        <v>66.4746621979783</v>
       </c>
       <c r="J40">
-        <v>2.43357932374477</v>
+        <v>4.70628529685317</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1881,31 +1896,31 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>47.052425998034</v>
+        <v>28.0837852237039</v>
       </c>
       <c r="C41">
-        <v>1482282.67149162</v>
+        <v>1274192.94879532</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>7.23</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>8.7055</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>5.94147543420233</v>
       </c>
       <c r="G41">
-        <v>35.0981323033059</v>
+        <v>28.127287626786</v>
       </c>
       <c r="H41">
-        <v>10.1052833089455</v>
+        <v>10</v>
       </c>
       <c r="I41">
-        <v>168.530408952893</v>
+        <v>43.9953240935131</v>
       </c>
       <c r="J41">
-        <v>1.43362611740929</v>
+        <v>2.93553142558429</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1913,31 +1928,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>37.1287078675059</v>
+        <v>38.4011620078997</v>
       </c>
       <c r="C42">
-        <v>2981577.20469059</v>
+        <v>229974.564772054</v>
       </c>
       <c r="D42">
-        <v>14.13</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>4.278</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>3.45337595762792</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>35.7654244532121</v>
+        <v>41.0010013883929</v>
       </c>
       <c r="H42">
-        <v>12.2579410501458</v>
+        <v>13.0312981091365</v>
       </c>
       <c r="I42">
-        <v>144.053401436534</v>
+        <v>72.2589580626655</v>
       </c>
       <c r="J42">
-        <v>0.380711589703915</v>
+        <v>1.89180369949142</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1945,31 +1960,31 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>30.1683937042615</v>
+        <v>26.9621760358035</v>
       </c>
       <c r="C43">
-        <v>1288466.35114615</v>
+        <v>862659.413376048</v>
       </c>
       <c r="D43">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>11.6725</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>8.47692314013229</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>28.8353730420083</v>
+        <v>29.1415600214873</v>
       </c>
       <c r="H43">
         <v>10</v>
       </c>
       <c r="I43">
-        <v>120.983520812263</v>
+        <v>50.1862655883667</v>
       </c>
       <c r="J43">
-        <v>1.0727083780126</v>
+        <v>2.16769796189915</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1977,10 +1992,10 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>28.8317045728509</v>
+        <v>47.052425998034</v>
       </c>
       <c r="C44">
-        <v>608478.055899388</v>
+        <v>1482282.67149162</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -1992,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>28.940231987449</v>
+        <v>35.0981323033059</v>
       </c>
       <c r="H44">
-        <v>10</v>
+        <v>10.1052833089455</v>
       </c>
       <c r="I44">
-        <v>117.236882448947</v>
+        <v>89.5027931992226</v>
       </c>
       <c r="J44">
-        <v>3.39910806663658</v>
+        <v>1.88963534760295</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2009,31 +2024,31 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>39.651457969509</v>
+        <v>37.1287078675059</v>
       </c>
       <c r="C45">
-        <v>2020505.5211558</v>
+        <v>2981577.20469059</v>
       </c>
       <c r="D45">
-        <v>9.92</v>
+        <v>14.13</v>
       </c>
       <c r="E45">
-        <v>17.664</v>
+        <v>4.278</v>
       </c>
       <c r="F45">
-        <v>14.5839590397331</v>
+        <v>3.45337595762792</v>
       </c>
       <c r="G45">
-        <v>20.8612015839051</v>
+        <v>35.7654244532121</v>
       </c>
       <c r="H45">
-        <v>10</v>
+        <v>12.2579410501458</v>
       </c>
       <c r="I45">
-        <v>131.722784330048</v>
+        <v>72.3296726558048</v>
       </c>
       <c r="J45">
-        <v>0.610291540420436</v>
+        <v>0.484559508065708</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2041,31 +2056,31 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>46.0622187263971</v>
+        <v>30.1683937042615</v>
       </c>
       <c r="C46">
-        <v>433165.204738251</v>
+        <v>1288466.35114615</v>
       </c>
       <c r="D46">
-        <v>14.25</v>
+        <v>8.5</v>
       </c>
       <c r="E46">
-        <v>22.011</v>
+        <v>11.6725</v>
       </c>
       <c r="F46">
-        <v>18.3919207588041</v>
+        <v>8.47692314013229</v>
       </c>
       <c r="G46">
-        <v>28.5573966207095</v>
+        <v>28.8353730420083</v>
       </c>
       <c r="H46">
         <v>10</v>
       </c>
       <c r="I46">
-        <v>159.873271914147</v>
+        <v>51.4854231832235</v>
       </c>
       <c r="J46">
-        <v>0.477097175578039</v>
+        <v>1.28937170980036</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2073,10 +2088,10 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>42.0439279709605</v>
+        <v>28.8317045728509</v>
       </c>
       <c r="C47">
-        <v>469105.617677937</v>
+        <v>608478.055899388</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -2088,16 +2103,16 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>39.2572211787595</v>
+        <v>28.940231987449</v>
       </c>
       <c r="H47">
-        <v>11.7624572017593</v>
+        <v>10</v>
       </c>
       <c r="I47">
-        <v>171.93472038972</v>
+        <v>53.1759782688449</v>
       </c>
       <c r="J47">
-        <v>1.02893424129539</v>
+        <v>3.84747462159301</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2105,31 +2120,31 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>36.1692338351461</v>
+        <v>39.651457969509</v>
       </c>
       <c r="C48">
-        <v>808182.428935386</v>
+        <v>2020505.5211558</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>9.92</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>17.664</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>14.5839590397331</v>
       </c>
       <c r="G48">
-        <v>41.1233924427668</v>
+        <v>20.8612015839051</v>
       </c>
       <c r="H48">
-        <v>14.3995732465961</v>
+        <v>10</v>
       </c>
       <c r="I48">
-        <v>136.256903320025</v>
+        <v>85.7536149403188</v>
       </c>
       <c r="J48">
-        <v>2.0550395377327</v>
+        <v>0.729846503512441</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2137,31 +2152,31 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>33.5725734672305</v>
+        <v>46.0622187263971</v>
       </c>
       <c r="C49">
-        <v>1050521.91485667</v>
+        <v>433165.204738251</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>14.25</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>22.011</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>18.3919207588041</v>
       </c>
       <c r="G49">
-        <v>41.248804075057</v>
+        <v>28.5573966207095</v>
       </c>
       <c r="H49">
-        <v>15.4237106357491</v>
+        <v>10</v>
       </c>
       <c r="I49">
-        <v>120.698531789971</v>
+        <v>97.2061690828266</v>
       </c>
       <c r="J49">
-        <v>2.95995287496613</v>
+        <v>0.597572344392847</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2169,31 +2184,31 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>55.0893684739474</v>
+        <v>42.0439279709605</v>
       </c>
       <c r="C50">
-        <v>2444446.17134412</v>
+        <v>469105.617677937</v>
       </c>
       <c r="D50">
-        <v>8.49</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>12.351</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>10.6078511915737</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>41.2615084591602</v>
+        <v>39.2572211787595</v>
       </c>
       <c r="H50">
-        <v>10.3966925918505</v>
+        <v>11.7624572017593</v>
       </c>
       <c r="I50">
-        <v>188.017924113501</v>
+        <v>73.6565735367865</v>
       </c>
       <c r="J50">
-        <v>0.321602720094163</v>
+        <v>1.43464426521567</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2201,31 +2216,31 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>39.914841055872</v>
+        <v>36.1692338351461</v>
       </c>
       <c r="C51">
-        <v>2854701.4824351</v>
+        <v>808182.428935386</v>
       </c>
       <c r="D51">
-        <v>17.58</v>
+        <v>2</v>
       </c>
       <c r="E51">
-        <v>17.112</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>14.3089732837144</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>28.1410282253697</v>
+        <v>41.1233924427668</v>
       </c>
       <c r="H51">
-        <v>10</v>
+        <v>14.3995732465961</v>
       </c>
       <c r="I51">
-        <v>140.372323968715</v>
+        <v>71.5755888228113</v>
       </c>
       <c r="J51">
-        <v>0.374649231035956</v>
+        <v>2.57642787826503</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2233,31 +2248,31 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>40.6468008190852</v>
+        <v>33.5725734672305</v>
       </c>
       <c r="C52">
-        <v>2055103.11595472</v>
+        <v>1050521.91485667</v>
       </c>
       <c r="D52">
-        <v>17.61</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>1.472</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1.20701781039144</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>19.0092306563477</v>
+        <v>41.248804075057</v>
       </c>
       <c r="H52">
-        <v>10</v>
+        <v>15.4237106357491</v>
       </c>
       <c r="I52">
-        <v>133.526961033704</v>
+        <v>68.6260682180474</v>
       </c>
       <c r="J52">
-        <v>0.0767701708738066</v>
+        <v>3.54966301580647</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2265,31 +2280,31 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>66.8180641700465</v>
+        <v>55.0893684739474</v>
       </c>
       <c r="C53">
-        <v>2678553.46348061</v>
+        <v>2444446.17134412</v>
       </c>
       <c r="D53">
-        <v>16.23</v>
+        <v>8.49</v>
       </c>
       <c r="E53">
-        <v>2.553</v>
+        <v>12.351</v>
       </c>
       <c r="F53">
-        <v>2.19837723130137</v>
+        <v>10.6078511915737</v>
       </c>
       <c r="G53">
-        <v>40.7993142799703</v>
+        <v>41.2615084591602</v>
       </c>
       <c r="H53">
-        <v>10.6425721398091</v>
+        <v>10.3966925918505</v>
       </c>
       <c r="I53">
-        <v>235.868419500377</v>
+        <v>141.606507273118</v>
       </c>
       <c r="J53">
-        <v>0.0269368620404816</v>
+        <v>0.369264788691547</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2297,31 +2312,31 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>30.6415541612103</v>
+        <v>39.914841055872</v>
       </c>
       <c r="C54">
-        <v>288015.178598222</v>
+        <v>2854701.4824351</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>17.58</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>17.112</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>14.3089732837144</v>
       </c>
       <c r="G54">
-        <v>38.4200350713085</v>
+        <v>28.1410282253697</v>
       </c>
       <c r="H54">
-        <v>11.2339824144241</v>
+        <v>10</v>
       </c>
       <c r="I54">
-        <v>135.905556562341</v>
+        <v>87.5341610185311</v>
       </c>
       <c r="J54">
-        <v>2.34760871075471</v>
+        <v>0.447470814424319</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2329,31 +2344,31 @@
         <v>63</v>
       </c>
       <c r="B55">
-        <v>28.278981314685</v>
+        <v>40.6468008190852</v>
       </c>
       <c r="C55">
-        <v>753363.084895201</v>
+        <v>2055103.11595472</v>
       </c>
       <c r="D55">
-        <v>11.87</v>
+        <v>17.61</v>
       </c>
       <c r="E55">
-        <v>9.131</v>
+        <v>1.472</v>
       </c>
       <c r="F55">
-        <v>6.74770920970798</v>
+        <v>1.20701781039144</v>
       </c>
       <c r="G55">
-        <v>29.0019172186821</v>
+        <v>19.0092306563477</v>
       </c>
       <c r="H55">
         <v>10</v>
       </c>
       <c r="I55">
-        <v>112.576201582459</v>
+        <v>87.5394871151358</v>
       </c>
       <c r="J55">
-        <v>0.960371245311689</v>
+        <v>0.0925885756612073</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2361,31 +2376,31 @@
         <v>64</v>
       </c>
       <c r="B56">
-        <v>30.3937218397487</v>
+        <v>66.8180641700465</v>
       </c>
       <c r="C56">
-        <v>760233.378851882</v>
+        <v>2678553.46348061</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>16.23</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>2.553</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>2.19837723130137</v>
       </c>
       <c r="G56">
-        <v>34.1538423622197</v>
+        <v>40.7993142799703</v>
       </c>
       <c r="H56">
-        <v>10</v>
+        <v>10.6425721398091</v>
       </c>
       <c r="I56">
-        <v>134.563025549202</v>
+        <v>188.633405404972</v>
       </c>
       <c r="J56">
-        <v>1.38185422775067</v>
+        <v>0.0305746286925675</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2393,31 +2408,31 @@
         <v>65</v>
       </c>
       <c r="B57">
-        <v>42.1730293832775</v>
+        <v>30.6415541612103</v>
       </c>
       <c r="C57">
-        <v>1424914.17073343</v>
+        <v>288015.178598222</v>
       </c>
       <c r="D57">
-        <v>6.51</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.929471728937235</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>34.9683979732136</v>
+        <v>38.4200350713085</v>
       </c>
       <c r="H57">
-        <v>12.7583396548576</v>
+        <v>11.2339824144241</v>
       </c>
       <c r="I57">
-        <v>153.590041034308</v>
+        <v>56.6707606928814</v>
       </c>
       <c r="J57">
-        <v>0.0816354064112912</v>
+        <v>2.99390183208117</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2425,31 +2440,31 @@
         <v>66</v>
       </c>
       <c r="B58">
-        <v>29.6714751637262</v>
+        <v>28.278981314685</v>
       </c>
       <c r="C58">
-        <v>407424.6404592</v>
+        <v>753363.084895201</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>11.87</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>9.131</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>6.74770920970798</v>
       </c>
       <c r="G58">
-        <v>31.9645417916082</v>
+        <v>29.0019172186821</v>
       </c>
       <c r="H58">
         <v>10</v>
       </c>
       <c r="I58">
-        <v>129.95687094074</v>
+        <v>52.5062983742654</v>
       </c>
       <c r="J58">
-        <v>0.871257239878622</v>
+        <v>1.05224311621976</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2457,31 +2472,31 @@
         <v>67</v>
       </c>
       <c r="B59">
-        <v>25.0658009507549</v>
+        <v>23.7322463897274</v>
       </c>
       <c r="C59">
-        <v>784135.419521753</v>
+        <v>518718.742502788</v>
       </c>
       <c r="D59">
-        <v>7.14</v>
+        <v>23.94</v>
       </c>
       <c r="E59">
-        <v>8.579</v>
+        <v>0.0575</v>
       </c>
       <c r="F59">
-        <v>6.40726443005721</v>
+        <v>0.0414913493520872</v>
       </c>
       <c r="G59">
-        <v>30.343632332348</v>
+        <v>28.5538860754928</v>
       </c>
       <c r="H59">
         <v>10</v>
       </c>
       <c r="I59">
-        <v>70.8210437844978</v>
+        <v>44.2467097828037</v>
       </c>
       <c r="J59">
-        <v>2.09781685640339</v>
+        <v>0.0920728708240396</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2489,10 +2504,10 @@
         <v>68</v>
       </c>
       <c r="B60">
-        <v>34.0701800151059</v>
+        <v>30.3937218397487</v>
       </c>
       <c r="C60">
-        <v>457632.980184378</v>
+        <v>760233.378851882</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -2504,16 +2519,16 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>31.850421402075</v>
+        <v>34.1538423622197</v>
       </c>
       <c r="H60">
         <v>10</v>
       </c>
       <c r="I60">
-        <v>145.157891403952</v>
+        <v>56.2057354177458</v>
       </c>
       <c r="J60">
-        <v>1.24638554602111</v>
+        <v>1.75329794974051</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2521,31 +2536,31 @@
         <v>69</v>
       </c>
       <c r="B61">
-        <v>44.5146020197342</v>
+        <v>42.1730293832775</v>
       </c>
       <c r="C61">
-        <v>1318604.09835682</v>
+        <v>1424914.17073343</v>
       </c>
       <c r="D61">
-        <v>10.72</v>
+        <v>6.51</v>
       </c>
       <c r="E61">
-        <v>13.6965</v>
+        <v>1.15</v>
       </c>
       <c r="F61">
-        <v>11.555515223702</v>
+        <v>0.929471728937235</v>
       </c>
       <c r="G61">
-        <v>26.52806518946</v>
+        <v>34.9683979732136</v>
       </c>
       <c r="H61">
-        <v>10</v>
+        <v>12.7583396548576</v>
       </c>
       <c r="I61">
-        <v>150.108390750881</v>
+        <v>78.8671654897715</v>
       </c>
       <c r="J61">
-        <v>0.373013077055713</v>
+        <v>0.107725418484306</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2553,10 +2568,10 @@
         <v>70</v>
       </c>
       <c r="B62">
-        <v>46.9106356844797</v>
+        <v>29.6714751637262</v>
       </c>
       <c r="C62">
-        <v>784152.05342662</v>
+        <v>407424.6404592</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -2568,16 +2583,16 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>27.1055299470911</v>
+        <v>31.9645417916082</v>
       </c>
       <c r="H62">
         <v>10</v>
       </c>
       <c r="I62">
-        <v>159.894480476173</v>
+        <v>55.5001583978454</v>
       </c>
       <c r="J62">
-        <v>0.16628384078317</v>
+        <v>1.07630550913239</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2585,31 +2600,31 @@
         <v>71</v>
       </c>
       <c r="B63">
-        <v>37.6845173789241</v>
+        <v>25.0658009507549</v>
       </c>
       <c r="C63">
-        <v>1841096.51798489</v>
+        <v>784135.419521753</v>
       </c>
       <c r="D63">
-        <v>15.31</v>
+        <v>7.14</v>
       </c>
       <c r="E63">
-        <v>4.9565</v>
+        <v>8.579</v>
       </c>
       <c r="F63">
-        <v>4.00536243063978</v>
+        <v>6.40726443005721</v>
       </c>
       <c r="G63">
-        <v>40.3643010697264</v>
+        <v>30.343632332348</v>
       </c>
       <c r="H63">
-        <v>12.9130326981283</v>
+        <v>10</v>
       </c>
       <c r="I63">
-        <v>143.548728199982</v>
+        <v>46.256469983995</v>
       </c>
       <c r="J63">
-        <v>0.317438363060223</v>
+        <v>1.58390801158589</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2617,31 +2632,191 @@
         <v>72</v>
       </c>
       <c r="B64">
+        <v>34.0701800151059</v>
+      </c>
+      <c r="C64">
+        <v>457632.980184378</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>31.850421402075</v>
+      </c>
+      <c r="H64">
+        <v>10</v>
+      </c>
+      <c r="I64">
+        <v>60.6316481077327</v>
+      </c>
+      <c r="J64">
+        <v>1.65672582320236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65">
+        <v>44.5146020197342</v>
+      </c>
+      <c r="C65">
+        <v>1318604.09835682</v>
+      </c>
+      <c r="D65">
+        <v>10.72</v>
+      </c>
+      <c r="E65">
+        <v>13.6965</v>
+      </c>
+      <c r="F65">
+        <v>11.555515223702</v>
+      </c>
+      <c r="G65">
+        <v>26.52806518946</v>
+      </c>
+      <c r="H65">
+        <v>10</v>
+      </c>
+      <c r="I65">
+        <v>102.192349780148</v>
+      </c>
+      <c r="J65">
+        <v>0.442003749176248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66">
+        <v>46.9106356844797</v>
+      </c>
+      <c r="C66">
+        <v>784152.05342662</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>27.1055299470911</v>
+      </c>
+      <c r="H66">
+        <v>10</v>
+      </c>
+      <c r="I66">
+        <v>109.284452784684</v>
+      </c>
+      <c r="J66">
+        <v>0.198161045659172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67">
+        <v>24.6825060387548</v>
+      </c>
+      <c r="C67">
+        <v>987514.071557479</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>31.5328319177625</v>
+      </c>
+      <c r="H67">
+        <v>10</v>
+      </c>
+      <c r="I67">
+        <v>45.0087977582624</v>
+      </c>
+      <c r="J67">
+        <v>1.79908789382023</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68">
+        <v>37.6845173789241</v>
+      </c>
+      <c r="C68">
+        <v>1841096.51798489</v>
+      </c>
+      <c r="D68">
+        <v>15.31</v>
+      </c>
+      <c r="E68">
+        <v>4.9565</v>
+      </c>
+      <c r="F68">
+        <v>4.00536243063978</v>
+      </c>
+      <c r="G68">
+        <v>40.3643010697264</v>
+      </c>
+      <c r="H68">
+        <v>12.9130326981283</v>
+      </c>
+      <c r="I68">
+        <v>68.7010995579626</v>
+      </c>
+      <c r="J68">
+        <v>0.4162492943828</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69">
         <v>28.9092972237935</v>
       </c>
-      <c r="C64">
+      <c r="C69">
         <v>603939.320198821</v>
       </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
         <v>36.105408341903</v>
       </c>
-      <c r="H64">
-        <v>10</v>
-      </c>
-      <c r="I64">
-        <v>128.495285105601</v>
-      </c>
-      <c r="J64">
-        <v>0.379642568444884</v>
+      <c r="H69">
+        <v>10</v>
+      </c>
+      <c r="I69">
+        <v>50.7141081289765</v>
+      </c>
+      <c r="J69">
+        <v>0.477317948368841</v>
       </c>
     </row>
   </sheetData>
